--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3938F85D-C730-438A-A6F2-55666852788D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025020E3-A4C1-40FA-A500-781583F6CF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
     <sheet name="Beam Expansion Module" sheetId="3" r:id="rId2"/>
     <sheet name="Main Body" sheetId="1" r:id="rId3"/>
-    <sheet name="Other Hardware" sheetId="6" r:id="rId4"/>
-    <sheet name="Incubator box" sheetId="4" r:id="rId5"/>
-    <sheet name="Useful Extras" sheetId="5" r:id="rId6"/>
+    <sheet name="Focus Shifter" sheetId="7" r:id="rId4"/>
+    <sheet name="Image Autofocus" sheetId="8" r:id="rId5"/>
+    <sheet name="Other Hardware" sheetId="6" r:id="rId6"/>
+    <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
+    <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="524">
   <si>
     <t>Parts List</t>
   </si>
@@ -1241,12 +1243,6 @@
     <t>735-0747</t>
   </si>
   <si>
-    <t>Mini breadboard</t>
-  </si>
-  <si>
-    <t>124-5499</t>
-  </si>
-  <si>
     <t>Rocker switch</t>
   </si>
   <si>
@@ -1286,15 +1282,6 @@
     <t>Clarify</t>
   </si>
   <si>
-    <t>M3 screws 10mm?</t>
-  </si>
-  <si>
-    <t>Tap set?</t>
-  </si>
-  <si>
-    <t>Clarify - Tool rather than part</t>
-  </si>
-  <si>
     <t>microscope-pathA-imageAutofocus</t>
   </si>
   <si>
@@ -1608,6 +1595,21 @@
   </si>
   <si>
     <t>File set</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>SW05762</t>
+  </si>
+  <si>
+    <t>CPC Farnell</t>
+  </si>
+  <si>
+    <t>534-339</t>
+  </si>
+  <si>
+    <t>Spade Crimp Connectors (100 Pack)</t>
   </si>
 </sst>
 </file>
@@ -4648,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,7 +6133,7 @@
         <v>5.64</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" ref="G75:G134" si="1">E75*F75</f>
+        <f t="shared" ref="G75:G133" si="1">E75*F75</f>
         <v>5.64</v>
       </c>
     </row>
@@ -6374,7 +6376,7 @@
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G88:G121" si="2">E88*F88</f>
         <v>0</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -6411,7 +6413,7 @@
         <v>161.51</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161.51</v>
       </c>
     </row>
@@ -6435,7 +6437,7 @@
         <v>42.81</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.81</v>
       </c>
     </row>
@@ -6469,7 +6471,7 @@
         <v>31.65</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.3</v>
       </c>
     </row>
@@ -6490,7 +6492,7 @@
         <v>6.68</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.72</v>
       </c>
     </row>
@@ -6511,7 +6513,7 @@
         <v>30.84</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.84</v>
       </c>
     </row>
@@ -6532,7 +6534,7 @@
         <v>21.71</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.71</v>
       </c>
     </row>
@@ -6566,7 +6568,7 @@
         <v>20.3</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.3</v>
       </c>
     </row>
@@ -6590,7 +6592,7 @@
         <v>8.77</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.77</v>
       </c>
     </row>
@@ -6614,7 +6616,7 @@
         <v>5.5</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
@@ -6646,7 +6648,7 @@
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6670,7 +6672,7 @@
         <v>2.75</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6726,7 +6728,7 @@
         <v>6.18</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.18</v>
       </c>
     </row>
@@ -6748,7 +6750,7 @@
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -6779,7 +6781,7 @@
         <v>17</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -6800,7 +6802,7 @@
         <v>18.5</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
     </row>
@@ -6818,7 +6820,7 @@
         <v>0.747</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6839,16 +6841,16 @@
         <v>11.85</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.85</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>401</v>
+        <v>523</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>522</v>
       </c>
       <c r="D113" t="s">
         <v>381</v>
@@ -6857,394 +6859,408 @@
         <v>1</v>
       </c>
       <c r="F113" s="10">
-        <v>5.72</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="1"/>
-        <v>5.72</v>
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="C114" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="D114" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" s="10">
-        <v>5.25</v>
+        <v>1.72</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="1"/>
-        <v>5.25</v>
+        <f t="shared" si="2"/>
+        <v>1.72</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
+        <v>401</v>
+      </c>
+      <c r="C115" t="s">
+        <v>402</v>
+      </c>
+      <c r="D115" t="s">
+        <v>381</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="10">
+        <v>5.25</v>
+      </c>
+      <c r="G115" s="10">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>403</v>
+      </c>
+      <c r="C116" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>404</v>
+      </c>
+      <c r="C117" t="s">
         <v>405</v>
       </c>
-      <c r="C115" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10">
+      <c r="D117" t="s">
+        <v>381</v>
+      </c>
+      <c r="F117" s="10">
+        <v>11.52</v>
+      </c>
+      <c r="G117" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118" t="s">
+        <v>407</v>
+      </c>
+      <c r="D118" t="s">
+        <v>381</v>
+      </c>
+      <c r="F118" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="G118" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>408</v>
+      </c>
+      <c r="C119" t="s">
+        <v>409</v>
+      </c>
+      <c r="D119" t="s">
+        <v>381</v>
+      </c>
+      <c r="F119" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="G119" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" t="s">
+        <v>411</v>
+      </c>
+      <c r="D120" t="s">
+        <v>381</v>
+      </c>
+      <c r="F120" s="10">
+        <v>6.42</v>
+      </c>
+      <c r="G120" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>412</v>
+      </c>
+      <c r="D121" t="s">
+        <v>381</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>416</v>
+      </c>
+      <c r="C125" t="s">
+        <v>417</v>
+      </c>
+      <c r="D125" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="10">
+        <v>1013</v>
+      </c>
+      <c r="G125" s="10">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>420</v>
+      </c>
+      <c r="C126" t="s">
+        <v>421</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" s="10">
+        <v>49.91</v>
+      </c>
+      <c r="G126" s="10">
+        <f t="shared" si="1"/>
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>422</v>
+      </c>
+      <c r="C127" t="s">
+        <v>423</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>424</v>
+      </c>
+      <c r="C128" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="10">
+        <v>16.16</v>
+      </c>
+      <c r="G128" s="10">
+        <f t="shared" si="1"/>
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>299</v>
+      </c>
+      <c r="C129" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" s="10">
+        <v>11.01</v>
+      </c>
+      <c r="G129" s="10">
+        <f t="shared" si="1"/>
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>426</v>
+      </c>
+      <c r="C130" t="s">
+        <v>303</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>406</v>
-      </c>
-      <c r="C116" t="s">
-        <v>407</v>
-      </c>
-      <c r="D116" t="s">
-        <v>381</v>
-      </c>
-      <c r="F116" s="10">
-        <v>11.52</v>
-      </c>
-      <c r="G116" s="10">
+      <c r="H130" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G131" s="10">
+        <f t="shared" si="1"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>427</v>
+      </c>
+      <c r="C132" t="s">
+        <v>428</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" s="10">
+        <v>14.57</v>
+      </c>
+      <c r="G132" s="10">
+        <f t="shared" si="1"/>
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>408</v>
-      </c>
-      <c r="C117" t="s">
-        <v>409</v>
-      </c>
-      <c r="D117" t="s">
-        <v>381</v>
-      </c>
-      <c r="F117" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G117" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>410</v>
-      </c>
-      <c r="C118" t="s">
-        <v>411</v>
-      </c>
-      <c r="D118" t="s">
-        <v>381</v>
-      </c>
-      <c r="F118" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G118" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>412</v>
-      </c>
-      <c r="C119" t="s">
-        <v>413</v>
-      </c>
-      <c r="D119" t="s">
-        <v>381</v>
-      </c>
-      <c r="F119" s="10">
-        <v>6.42</v>
-      </c>
-      <c r="G119" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>414</v>
-      </c>
-      <c r="D120" t="s">
-        <v>381</v>
-      </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>416</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>417</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>7</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>421</v>
-      </c>
-      <c r="C126" t="s">
-        <v>422</v>
-      </c>
-      <c r="D126" t="s">
-        <v>423</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" s="10">
-        <v>1013</v>
-      </c>
-      <c r="G126" s="10">
-        <f t="shared" si="1"/>
-        <v>1013</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>425</v>
-      </c>
-      <c r="C127" t="s">
-        <v>426</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" s="10">
-        <v>49.91</v>
-      </c>
-      <c r="G127" s="10">
-        <f t="shared" si="1"/>
-        <v>49.91</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>427</v>
-      </c>
-      <c r="C128" t="s">
-        <v>428</v>
-      </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128" s="10">
-        <v>77.25</v>
-      </c>
-      <c r="G128" s="10"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" t="s">
-        <v>134</v>
-      </c>
-      <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" s="10">
-        <v>16.16</v>
-      </c>
-      <c r="G129" s="10">
-        <f t="shared" si="1"/>
-        <v>16.16</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>299</v>
-      </c>
-      <c r="C130" t="s">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" s="10">
-        <v>11.01</v>
-      </c>
-      <c r="G130" s="10">
-        <f t="shared" si="1"/>
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>431</v>
-      </c>
-      <c r="C131" t="s">
-        <v>303</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>257</v>
-      </c>
-      <c r="C132" t="s">
-        <v>258</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G132" s="10">
-        <f t="shared" si="1"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>432</v>
-      </c>
-      <c r="C133" t="s">
-        <v>433</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" s="10">
-        <v>14.57</v>
-      </c>
-      <c r="G133" s="10">
-        <f t="shared" si="1"/>
-        <v>14.57</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C134" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" t="s">
-        <v>99</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
-        <v>435</v>
+      <c r="B136" t="s">
+        <v>431</v>
+      </c>
+      <c r="C136" t="s">
+        <v>432</v>
+      </c>
+      <c r="D136" t="s">
+        <v>195</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
+      <c r="H136" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C137" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D137" t="s">
         <v>195</v>
@@ -7260,10 +7276,10 @@
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D138" t="s">
         <v>195</v>
@@ -7278,41 +7294,42 @@
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>440</v>
-      </c>
-      <c r="C139" t="s">
-        <v>441</v>
-      </c>
-      <c r="D139" t="s">
-        <v>195</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="4" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="B141" t="s">
+        <v>438</v>
+      </c>
+      <c r="C141" t="s">
+        <v>439</v>
+      </c>
+      <c r="D141" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12">
+        <v>550</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D142" t="s">
         <v>58</v>
@@ -7321,18 +7338,18 @@
         <v>1</v>
       </c>
       <c r="F142" s="12">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C143" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D143" t="s">
         <v>58</v>
@@ -7344,15 +7361,15 @@
         <v>300</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C144" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D144" t="s">
         <v>58</v>
@@ -7361,18 +7378,18 @@
         <v>1</v>
       </c>
       <c r="F144" s="12">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C145" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D145" t="s">
         <v>58</v>
@@ -7381,18 +7398,18 @@
         <v>1</v>
       </c>
       <c r="F145" s="12">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C146" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D146" t="s">
         <v>58</v>
@@ -7404,15 +7421,15 @@
         <v>325</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C147" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D147" t="s">
         <v>58</v>
@@ -7421,18 +7438,18 @@
         <v>1</v>
       </c>
       <c r="F147" s="12">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C148" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D148" t="s">
         <v>58</v>
@@ -7441,18 +7458,18 @@
         <v>1</v>
       </c>
       <c r="F148" s="12">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C149" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D149" t="s">
         <v>58</v>
@@ -7464,35 +7481,923 @@
         <v>325</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>460</v>
-      </c>
-      <c r="C150" t="s">
-        <v>461</v>
-      </c>
-      <c r="D150" t="s">
-        <v>58</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150" s="12">
-        <v>325</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>445</v>
-      </c>
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4254C87-3552-48DB-A4D3-A11D0D20A17E}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="A3:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F38" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>161.51</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>161.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>42.81</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>42.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>31.65</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>30.84</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>30.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>21.71</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>20.3</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8.77</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>6.18</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>17</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25">
+        <v>1438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.747</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>11.85</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>523</v>
+      </c>
+      <c r="B28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" t="s">
+        <v>520</v>
+      </c>
+      <c r="C29" t="s">
+        <v>521</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1.72</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5.25</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C32" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32" s="10">
+        <v>11.52</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" t="s">
+        <v>381</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B34" t="s">
+        <v>409</v>
+      </c>
+      <c r="C34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" t="s">
+        <v>381</v>
+      </c>
+      <c r="E35" s="10">
+        <v>6.42</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" t="s">
+        <v>381</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD0686C-D55F-4BC3-AD76-FD04FC2BAEB5}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1013</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F11" si="0">D3*E3</f>
+        <v>1013</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>49.91</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>16.16</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>11.01</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>14.57</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>14.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207D8F4-BE86-4900-A685-997129932A89}">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -7533,20 +8438,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7558,13 +8463,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -7574,15 +8479,15 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>381</v>
@@ -7600,10 +8505,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>381</v>
@@ -7621,10 +8526,10 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>381</v>
@@ -7642,13 +8547,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -7663,10 +8568,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>381</v>
@@ -7705,7 +8610,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14">
@@ -7715,10 +8620,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -7736,10 +8641,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -7759,10 +8664,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -7780,10 +8685,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -7799,7 +8704,7 @@
         <v>2815.97</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7811,7 +8716,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -7821,13 +8726,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C21" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7842,13 +8747,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B22" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C22" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7864,13 +8769,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B23" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C23" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -7890,7 +8795,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
@@ -7898,7 +8803,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -7926,7 +8831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D16802-A822-4AB2-AA89-C6DE1E84F2C8}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -7964,14 +8869,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -7999,7 +8904,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10">
@@ -8009,13 +8914,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
         <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D6" s="10">
         <v>19.3</v>
@@ -8030,13 +8935,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s">
         <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D7" s="10">
         <v>10.66</v>
@@ -8051,7 +8956,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8">
@@ -8062,18 +8967,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
         <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D9" s="10">
         <v>2.38</v>
@@ -8088,13 +8993,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>381</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D10" s="10">
         <v>13.98</v>
@@ -8113,17 +9018,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C13">
         <v>14130</v>
@@ -8141,10 +9046,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C14">
         <v>10035</v>
@@ -8162,10 +9067,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C15">
         <v>10034</v>
@@ -8183,10 +9088,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C16">
         <v>90051</v>
@@ -8204,10 +9109,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
@@ -8225,10 +9130,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -8250,12 +9155,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8323,7 +9228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E54574-7116-4DAA-8F32-09FF3060B5BB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -8367,7 +9272,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8375,7 +9280,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8383,7 +9288,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8391,7 +9296,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025020E3-A4C1-40FA-A500-781583F6CF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAFB27-FB24-4FA0-8715-C78CC9C9F6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="526">
   <si>
     <t>Parts List</t>
   </si>
@@ -1093,9 +1093,6 @@
     <t>GCE001</t>
   </si>
   <si>
-    <t>microscope-pathB-autofocus-crisp</t>
-  </si>
-  <si>
     <t>CRISP-5 ASSEMBLY</t>
   </si>
   <si>
@@ -1610,6 +1607,15 @@
   </si>
   <si>
     <t>Spade Crimp Connectors (100 Pack)</t>
+  </si>
+  <si>
+    <t>microscope-pathB-autofocus-crisp (Focus Shifter)</t>
+  </si>
+  <si>
+    <t>Focus Shifter (Also incuded in Main Body)</t>
+  </si>
+  <si>
+    <t>Image Autofocus (Also in Main Body)</t>
   </si>
 </sst>
 </file>
@@ -4652,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6353,7 +6359,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>351</v>
+        <v>523</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -6363,10 +6369,10 @@
         <v>6.1</v>
       </c>
       <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" t="s">
         <v>352</v>
-      </c>
-      <c r="C88" t="s">
-        <v>353</v>
       </c>
       <c r="D88" t="s">
         <v>181</v>
@@ -6388,20 +6394,20 @@
         <v>6.3</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" t="s">
         <v>355</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>356</v>
-      </c>
-      <c r="C90" t="s">
-        <v>357</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -6419,13 +6425,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" t="s">
         <v>358</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>359</v>
-      </c>
-      <c r="C91" t="s">
-        <v>360</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -6453,7 +6459,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B93" t="s">
         <v>212</v>
@@ -6498,7 +6504,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C95" t="s">
         <v>151</v>
@@ -6519,10 +6525,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" t="s">
         <v>363</v>
-      </c>
-      <c r="C96" t="s">
-        <v>364</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -6543,20 +6549,20 @@
         <v>6.5</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" t="s">
         <v>366</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>367</v>
-      </c>
-      <c r="C98" t="s">
-        <v>368</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -6574,13 +6580,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" t="s">
         <v>369</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>370</v>
-      </c>
-      <c r="C99" t="s">
-        <v>371</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -6598,13 +6604,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" t="s">
         <v>372</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>373</v>
-      </c>
-      <c r="C100" t="s">
-        <v>374</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -6625,17 +6631,17 @@
         <v>6.6</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" t="s">
         <v>376</v>
-      </c>
-      <c r="B102" t="s">
-        <v>377</v>
       </c>
       <c r="C102" t="s">
         <v>94</v>
@@ -6654,16 +6660,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>377</v>
+      </c>
+      <c r="B103" t="s">
         <v>378</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>379</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>380</v>
-      </c>
-      <c r="D103" t="s">
-        <v>381</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6678,10 +6684,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" t="s">
         <v>382</v>
-      </c>
-      <c r="B104" t="s">
-        <v>383</v>
       </c>
       <c r="C104" t="s">
         <v>94</v>
@@ -6703,23 +6709,23 @@
         <v>6.7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" t="s">
         <v>385</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>386</v>
       </c>
-      <c r="C106" t="s">
-        <v>387</v>
-      </c>
       <c r="D106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6734,16 +6740,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>387</v>
+      </c>
+      <c r="B107" t="s">
         <v>388</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>389</v>
       </c>
-      <c r="C107" t="s">
-        <v>390</v>
-      </c>
       <c r="D107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6754,25 +6760,25 @@
         <v>0</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" t="s">
         <v>393</v>
       </c>
-      <c r="C109" t="s">
-        <v>394</v>
-      </c>
       <c r="D109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6787,13 +6793,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C110">
         <v>1438</v>
       </c>
       <c r="D110" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6808,13 +6814,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>396</v>
+      </c>
+      <c r="C111" t="s">
         <v>397</v>
       </c>
-      <c r="C111" t="s">
-        <v>398</v>
-      </c>
       <c r="D111" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F111" s="10">
         <v>0.747</v>
@@ -6826,13 +6832,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>398</v>
+      </c>
+      <c r="C112" t="s">
         <v>399</v>
       </c>
-      <c r="C112" t="s">
-        <v>400</v>
-      </c>
       <c r="D112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6847,13 +6853,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C113" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D113" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6868,13 +6874,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>518</v>
+      </c>
+      <c r="C114" t="s">
         <v>519</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>520</v>
-      </c>
-      <c r="D114" t="s">
-        <v>521</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6889,13 +6895,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
+        <v>400</v>
+      </c>
+      <c r="C115" t="s">
         <v>401</v>
       </c>
-      <c r="C115" t="s">
-        <v>402</v>
-      </c>
       <c r="D115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6910,7 +6916,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C116" t="s">
         <v>94</v>
@@ -6930,13 +6936,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" t="s">
         <v>404</v>
       </c>
-      <c r="C117" t="s">
-        <v>405</v>
-      </c>
       <c r="D117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F117" s="10">
         <v>11.52</v>
@@ -6948,13 +6954,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
+        <v>405</v>
+      </c>
+      <c r="C118" t="s">
         <v>406</v>
       </c>
-      <c r="C118" t="s">
-        <v>407</v>
-      </c>
       <c r="D118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F118" s="10">
         <v>3.1</v>
@@ -6966,13 +6972,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
+        <v>407</v>
+      </c>
+      <c r="C119" t="s">
         <v>408</v>
       </c>
-      <c r="C119" t="s">
-        <v>409</v>
-      </c>
       <c r="D119" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F119" s="10">
         <v>3.1</v>
@@ -6984,13 +6990,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>409</v>
+      </c>
+      <c r="C120" t="s">
         <v>410</v>
       </c>
-      <c r="C120" t="s">
-        <v>411</v>
-      </c>
       <c r="D120" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F120" s="10">
         <v>6.42</v>
@@ -7002,10 +7008,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D121" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10">
@@ -7013,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7025,27 +7031,27 @@
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" t="s">
         <v>416</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>417</v>
-      </c>
-      <c r="D125" t="s">
-        <v>418</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7058,15 +7064,15 @@
         <v>1013</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
+        <v>419</v>
+      </c>
+      <c r="C126" t="s">
         <v>420</v>
-      </c>
-      <c r="C126" t="s">
-        <v>421</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -7084,10 +7090,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>421</v>
+      </c>
+      <c r="C127" t="s">
         <v>422</v>
-      </c>
-      <c r="C127" t="s">
-        <v>423</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -7102,7 +7108,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C128" t="s">
         <v>134</v>
@@ -7126,7 +7132,7 @@
         <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -7144,7 +7150,7 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C130" t="s">
         <v>303</v>
@@ -7187,10 +7193,10 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>426</v>
+      </c>
+      <c r="C132" t="s">
         <v>427</v>
-      </c>
-      <c r="C132" t="s">
-        <v>428</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -7208,7 +7214,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C133" t="s">
         <v>94</v>
@@ -7231,17 +7237,17 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>430</v>
+      </c>
+      <c r="C136" t="s">
         <v>431</v>
-      </c>
-      <c r="C136" t="s">
-        <v>432</v>
       </c>
       <c r="D136" t="s">
         <v>195</v>
@@ -7257,10 +7263,10 @@
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" t="s">
         <v>433</v>
-      </c>
-      <c r="C137" t="s">
-        <v>434</v>
       </c>
       <c r="D137" t="s">
         <v>195</v>
@@ -7276,10 +7282,10 @@
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" t="s">
         <v>435</v>
-      </c>
-      <c r="C138" t="s">
-        <v>436</v>
       </c>
       <c r="D138" t="s">
         <v>195</v>
@@ -7299,17 +7305,17 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" t="s">
         <v>438</v>
-      </c>
-      <c r="C141" t="s">
-        <v>439</v>
       </c>
       <c r="D141" t="s">
         <v>58</v>
@@ -7321,15 +7327,15 @@
         <v>550</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>440</v>
+      </c>
+      <c r="C142" t="s">
         <v>441</v>
-      </c>
-      <c r="C142" t="s">
-        <v>442</v>
       </c>
       <c r="D142" t="s">
         <v>58</v>
@@ -7341,15 +7347,15 @@
         <v>300</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
+        <v>442</v>
+      </c>
+      <c r="C143" t="s">
         <v>443</v>
-      </c>
-      <c r="C143" t="s">
-        <v>444</v>
       </c>
       <c r="D143" t="s">
         <v>58</v>
@@ -7361,15 +7367,15 @@
         <v>300</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>444</v>
+      </c>
+      <c r="C144" t="s">
         <v>445</v>
-      </c>
-      <c r="C144" t="s">
-        <v>446</v>
       </c>
       <c r="D144" t="s">
         <v>58</v>
@@ -7381,15 +7387,15 @@
         <v>225</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" t="s">
         <v>447</v>
-      </c>
-      <c r="C145" t="s">
-        <v>448</v>
       </c>
       <c r="D145" t="s">
         <v>58</v>
@@ -7401,15 +7407,15 @@
         <v>325</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>448</v>
+      </c>
+      <c r="C146" t="s">
         <v>449</v>
-      </c>
-      <c r="C146" t="s">
-        <v>450</v>
       </c>
       <c r="D146" t="s">
         <v>58</v>
@@ -7421,15 +7427,15 @@
         <v>325</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
+        <v>450</v>
+      </c>
+      <c r="C147" t="s">
         <v>451</v>
-      </c>
-      <c r="C147" t="s">
-        <v>452</v>
       </c>
       <c r="D147" t="s">
         <v>58</v>
@@ -7441,15 +7447,15 @@
         <v>625</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" t="s">
         <v>453</v>
-      </c>
-      <c r="C148" t="s">
-        <v>454</v>
       </c>
       <c r="D148" t="s">
         <v>58</v>
@@ -7461,15 +7467,15 @@
         <v>325</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>454</v>
+      </c>
+      <c r="C149" t="s">
         <v>455</v>
-      </c>
-      <c r="C149" t="s">
-        <v>456</v>
       </c>
       <c r="D149" t="s">
         <v>58</v>
@@ -7481,7 +7487,7 @@
         <v>325</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -7494,9 +7500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4254C87-3552-48DB-A4D3-A11D0D20A17E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="A3:G36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7508,7 +7512,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>351</v>
+        <v>524</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7538,10 +7542,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
         <v>352</v>
-      </c>
-      <c r="B3" t="s">
-        <v>353</v>
       </c>
       <c r="C3" t="s">
         <v>181</v>
@@ -7551,7 +7555,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F38" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F36" si="0">D3*E3</f>
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -7560,17 +7564,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" t="s">
         <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>357</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -7588,10 +7592,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" t="s">
         <v>359</v>
-      </c>
-      <c r="B6" t="s">
-        <v>360</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -7658,7 +7662,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
         <v>151</v>
@@ -7679,10 +7683,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
         <v>363</v>
-      </c>
-      <c r="B11" t="s">
-        <v>364</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -7700,17 +7704,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
         <v>367</v>
-      </c>
-      <c r="B13" t="s">
-        <v>368</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -7728,10 +7732,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" t="s">
         <v>370</v>
-      </c>
-      <c r="B14" t="s">
-        <v>371</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -7749,10 +7753,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" t="s">
         <v>373</v>
-      </c>
-      <c r="B15" t="s">
-        <v>374</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -7770,14 +7774,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
@@ -7796,13 +7800,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" t="s">
         <v>379</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>380</v>
-      </c>
-      <c r="C18" t="s">
-        <v>381</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7817,7 +7821,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
@@ -7836,20 +7840,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" t="s">
         <v>386</v>
       </c>
-      <c r="B21" t="s">
-        <v>387</v>
-      </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7864,13 +7868,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s">
         <v>389</v>
       </c>
-      <c r="B22" t="s">
-        <v>390</v>
-      </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7881,25 +7885,25 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" t="s">
         <v>393</v>
       </c>
-      <c r="B24" t="s">
-        <v>394</v>
-      </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7914,13 +7918,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7935,13 +7939,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" t="s">
         <v>397</v>
       </c>
-      <c r="B26" t="s">
-        <v>398</v>
-      </c>
       <c r="C26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7953,13 +7957,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" t="s">
         <v>399</v>
       </c>
-      <c r="B27" t="s">
-        <v>400</v>
-      </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7974,13 +7978,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7995,13 +7999,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B29" t="s">
         <v>519</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>520</v>
-      </c>
-      <c r="C29" t="s">
-        <v>521</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8016,13 +8020,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30" t="s">
         <v>401</v>
       </c>
-      <c r="B30" t="s">
-        <v>402</v>
-      </c>
       <c r="C30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
@@ -8057,13 +8061,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" t="s">
         <v>404</v>
       </c>
-      <c r="B32" t="s">
-        <v>405</v>
-      </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E32" s="10">
         <v>11.52</v>
@@ -8075,13 +8079,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B33" t="s">
         <v>406</v>
       </c>
-      <c r="B33" t="s">
-        <v>407</v>
-      </c>
       <c r="C33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E33" s="10">
         <v>3.1</v>
@@ -8093,13 +8097,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" t="s">
         <v>408</v>
       </c>
-      <c r="B34" t="s">
-        <v>409</v>
-      </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E34" s="10">
         <v>3.1</v>
@@ -8111,13 +8115,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" t="s">
         <v>410</v>
       </c>
-      <c r="B35" t="s">
-        <v>411</v>
-      </c>
       <c r="C35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E35" s="10">
         <v>6.42</v>
@@ -8129,10 +8133,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -8140,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8162,8 +8166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD0686C-D55F-4BC3-AD76-FD04FC2BAEB5}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8176,7 +8180,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -8206,13 +8210,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
         <v>416</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>417</v>
-      </c>
-      <c r="C3" t="s">
-        <v>418</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8225,15 +8229,15 @@
         <v>1013</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
         <v>420</v>
-      </c>
-      <c r="B4" t="s">
-        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -8251,10 +8255,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" t="s">
         <v>422</v>
-      </c>
-      <c r="B5" t="s">
-        <v>423</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -8269,7 +8273,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>134</v>
@@ -8293,7 +8297,7 @@
         <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -8311,7 +8315,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>303</v>
@@ -8354,10 +8358,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" t="s">
         <v>427</v>
-      </c>
-      <c r="B10" t="s">
-        <v>428</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -8375,7 +8379,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -8438,20 +8442,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8463,13 +8467,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8479,18 +8483,18 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>463</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -8505,13 +8509,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>465</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D7" s="16">
         <v>3</v>
@@ -8526,13 +8530,13 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>467</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8547,13 +8551,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>469</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>470</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8568,13 +8572,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>472</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8610,7 +8614,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14">
@@ -8620,10 +8624,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" t="s">
         <v>474</v>
-      </c>
-      <c r="B15" t="s">
-        <v>475</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -8641,10 +8645,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" t="s">
         <v>476</v>
-      </c>
-      <c r="B16" t="s">
-        <v>477</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -8664,10 +8668,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" t="s">
         <v>478</v>
-      </c>
-      <c r="B17" t="s">
-        <v>479</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -8685,10 +8689,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
         <v>480</v>
-      </c>
-      <c r="B18" t="s">
-        <v>481</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -8704,7 +8708,7 @@
         <v>2815.97</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -8716,7 +8720,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8726,13 +8730,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" t="s">
         <v>484</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>485</v>
-      </c>
-      <c r="C21" t="s">
-        <v>486</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8747,13 +8751,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" t="s">
         <v>487</v>
       </c>
-      <c r="B22" t="s">
-        <v>488</v>
-      </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8769,13 +8773,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" t="s">
         <v>489</v>
       </c>
-      <c r="B23" t="s">
-        <v>490</v>
-      </c>
       <c r="C23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8795,7 +8799,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
@@ -8803,7 +8807,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8869,14 +8873,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -8904,7 +8908,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10">
@@ -8914,13 +8918,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
         <v>496</v>
-      </c>
-      <c r="B6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" t="s">
-        <v>497</v>
       </c>
       <c r="D6" s="10">
         <v>19.3</v>
@@ -8935,13 +8939,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
         <v>498</v>
-      </c>
-      <c r="B7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" t="s">
-        <v>499</v>
       </c>
       <c r="D7" s="10">
         <v>10.66</v>
@@ -8956,7 +8960,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8">
@@ -8967,18 +8971,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" t="s">
         <v>502</v>
-      </c>
-      <c r="B9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" t="s">
-        <v>503</v>
       </c>
       <c r="D9" s="10">
         <v>2.38</v>
@@ -8993,13 +8997,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" t="s">
         <v>504</v>
-      </c>
-      <c r="B10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C10" t="s">
-        <v>505</v>
       </c>
       <c r="D10" s="10">
         <v>13.98</v>
@@ -9018,17 +9022,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" t="s">
         <v>507</v>
-      </c>
-      <c r="B13" t="s">
-        <v>508</v>
       </c>
       <c r="C13">
         <v>14130</v>
@@ -9046,10 +9050,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C14">
         <v>10035</v>
@@ -9067,10 +9071,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C15">
         <v>10034</v>
@@ -9088,10 +9092,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C16">
         <v>90051</v>
@@ -9109,10 +9113,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
@@ -9130,10 +9134,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -9155,12 +9159,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9272,7 +9276,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9280,7 +9284,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9288,7 +9292,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9296,7 +9300,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAFB27-FB24-4FA0-8715-C78CC9C9F6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6CE9B-58B3-4EC4-9026-9BD0B563DEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="525">
   <si>
     <t>Parts List</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>ZT405/488/561/640rpcv2</t>
   </si>
   <si>
-    <t>Cairn or Chroma?</t>
-  </si>
-  <si>
     <t>640nm Dichroic</t>
   </si>
   <si>
@@ -1420,9 +1417,6 @@
     <t>8" SMA-BNC, Male-Male Cable</t>
   </si>
   <si>
-    <t>Should this just come from RS like the other wires?</t>
-  </si>
-  <si>
     <t>Male SMA to Male SMA RG-58 Coaxial Cable, 50 Ω,</t>
   </si>
   <si>
@@ -1616,6 +1610,9 @@
   </si>
   <si>
     <t>Image Autofocus (Also in Main Body)</t>
+  </si>
+  <si>
+    <t>885-8172</t>
   </si>
 </sst>
 </file>
@@ -2067,19 +2064,19 @@
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2138,11 +2135,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2194,7 +2191,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2290,7 @@
         <v>506.93</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>56.33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2359,7 +2356,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" s="14"/>
       <c r="I12" t="s">
         <v>25</v>
@@ -2374,7 +2371,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>62.69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2492,7 +2489,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>64.42</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F18" s="14"/>
       <c r="I18" t="s">
         <v>36</v>
@@ -2540,7 +2537,7 @@
         <v>37.869999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2559,7 +2556,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2592,7 +2589,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2658,7 +2655,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2724,7 +2721,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F25" s="14"/>
       <c r="I25" t="s">
         <v>48</v>
@@ -2739,7 +2736,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F26" s="14"/>
       <c r="I26" t="s">
         <v>49</v>
@@ -2754,7 +2751,7 @@
         <v>387.95</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -2773,7 +2770,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2872,7 +2869,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F33" s="14"/>
       <c r="I33" t="s">
         <v>63</v>
@@ -2953,17 +2950,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3005,7 +3002,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3026,7 +3023,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -3047,7 +3044,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3068,31 +3065,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -3113,7 +3110,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -3176,7 +3173,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -3197,10 +3194,10 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -3210,19 +3207,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="C52" s="4"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C53" s="4"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3243,17 +3240,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F55" s="14"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="4"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -3271,7 +3268,7 @@
       </c>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -3289,7 +3286,7 @@
       </c>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3307,7 +3304,7 @@
       </c>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -3325,17 +3322,17 @@
       </c>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="4"/>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3356,7 +3353,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -3398,18 +3395,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E66" s="6"/>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -3469,7 +3466,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -3485,7 +3482,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -3501,18 +3498,18 @@
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E73" s="6"/>
       <c r="F73" s="14"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -3533,7 +3530,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>105</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>106</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>110</v>
       </c>
@@ -3602,7 +3599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>112</v>
       </c>
@@ -3624,18 +3621,18 @@
       </c>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="E80" s="6"/>
       <c r="F80" s="14"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>114</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>117</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>119</v>
       </c>
@@ -3698,7 +3695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>121</v>
       </c>
@@ -3719,29 +3716,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="E86" s="6"/>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="E87" s="6"/>
       <c r="F87" s="14"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="E88" s="12"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E89" s="12"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D91" s="1" t="s">
         <v>123</v>
       </c>
@@ -3764,13 +3761,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>3</v>
@@ -3791,12 +3788,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -3817,7 +3814,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3838,21 +3835,21 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>128</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>129</v>
       </c>
@@ -3873,7 +3870,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>131</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -3936,7 +3933,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>137</v>
       </c>
@@ -3957,7 +3954,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>139</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>141</v>
       </c>
@@ -3999,7 +3996,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>143</v>
       </c>
@@ -4020,7 +4017,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>145</v>
       </c>
@@ -4041,7 +4038,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>147</v>
       </c>
@@ -4062,17 +4059,17 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>149</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>150</v>
       </c>
@@ -4093,7 +4090,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>152</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>131</v>
       </c>
@@ -4135,7 +4132,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>137</v>
       </c>
@@ -4180,7 +4177,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -4204,7 +4201,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>143</v>
       </c>
@@ -4225,7 +4222,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>157</v>
       </c>
@@ -4246,7 +4243,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>159</v>
       </c>
@@ -4267,17 +4264,17 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>162</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>164</v>
       </c>
@@ -4319,7 +4316,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>131</v>
       </c>
@@ -4340,7 +4337,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>154</v>
       </c>
@@ -4361,7 +4358,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>166</v>
       </c>
@@ -4385,7 +4382,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>139</v>
       </c>
@@ -4409,7 +4406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>143</v>
       </c>
@@ -4430,21 +4427,21 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>168</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>131</v>
       </c>
@@ -4486,7 +4483,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>137</v>
       </c>
@@ -4531,7 +4528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>139</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
@@ -4576,7 +4573,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>170</v>
       </c>
@@ -4597,17 +4594,17 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>173</v>
       </c>
@@ -4628,15 +4625,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>175</v>
       </c>
@@ -4658,21 +4655,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="83.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4722,12 +4719,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4737,7 +4734,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -4759,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -4781,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.2000000000000002</v>
       </c>
@@ -4825,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -4847,11 +4844,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4861,7 +4858,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>197</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>199</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.3</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4984,7 +4981,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.5</v>
       </c>
@@ -5008,11 +5005,11 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5022,7 +5019,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.0999999999999996</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.2</v>
       </c>
@@ -5071,7 +5068,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.3</v>
       </c>
@@ -5095,7 +5092,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.4000000000000004</v>
       </c>
@@ -5119,7 +5116,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.5</v>
       </c>
@@ -5143,7 +5140,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4.7</v>
       </c>
@@ -5177,7 +5174,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -5201,7 +5198,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4.8</v>
       </c>
@@ -5235,7 +5232,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -5259,7 +5256,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4.9000000000000004</v>
       </c>
@@ -5293,7 +5290,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -5318,7 +5315,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -5342,7 +5339,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.0999999999999996</v>
       </c>
@@ -5352,7 +5349,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>249</v>
       </c>
@@ -5414,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.1100000000000003</v>
       </c>
@@ -5424,7 +5421,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -5448,7 +5445,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -5472,7 +5469,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -5496,7 +5493,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>259</v>
       </c>
@@ -5506,7 +5503,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -5528,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>263</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>265</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>267</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -5629,11 +5626,11 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -5643,7 +5640,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.0999999999999996</v>
       </c>
@@ -5653,7 +5650,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>276</v>
       </c>
@@ -5677,7 +5674,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -5701,7 +5698,7 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5.2</v>
       </c>
@@ -5711,7 +5708,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -5735,7 +5732,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -5759,7 +5756,7 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5.3</v>
       </c>
@@ -5769,7 +5766,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>290</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>292</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5.4</v>
       </c>
@@ -5827,7 +5824,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>295</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>298</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>301</v>
       </c>
@@ -5900,7 +5897,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>302</v>
       </c>
@@ -5925,7 +5922,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>304</v>
       </c>
@@ -5950,7 +5947,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>309</v>
       </c>
@@ -5985,7 +5982,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>311</v>
       </c>
@@ -6010,7 +6007,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>314</v>
       </c>
@@ -6034,7 +6031,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>317</v>
       </c>
@@ -6058,7 +6055,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>320</v>
       </c>
@@ -6071,7 +6068,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>322</v>
       </c>
@@ -6095,7 +6092,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>324</v>
       </c>
@@ -6119,7 +6116,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>327</v>
       </c>
@@ -6143,7 +6140,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>5.7</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>331</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>334</v>
       </c>
@@ -6204,7 +6201,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>337</v>
       </c>
@@ -6228,7 +6225,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>5.8</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5.9</v>
       </c>
@@ -6276,14 +6273,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
         <v>343</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>344</v>
       </c>
@@ -6305,7 +6302,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>347</v>
       </c>
@@ -6329,7 +6326,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>349</v>
       </c>
@@ -6350,21 +6347,21 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>6.1</v>
       </c>
@@ -6389,7 +6386,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>6.3</v>
       </c>
@@ -6399,7 +6396,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>354</v>
       </c>
@@ -6423,7 +6420,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -6447,7 +6444,7 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>6.4</v>
       </c>
@@ -6457,7 +6454,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>360</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>296</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>361</v>
       </c>
@@ -6523,7 +6520,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>362</v>
       </c>
@@ -6544,7 +6541,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>6.5</v>
       </c>
@@ -6554,7 +6551,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>365</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>368</v>
       </c>
@@ -6602,7 +6599,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>371</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>6.6</v>
       </c>
@@ -6636,7 +6633,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>375</v>
       </c>
@@ -6658,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>377</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>381</v>
       </c>
@@ -6704,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>6.7</v>
       </c>
@@ -6714,7 +6711,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>384</v>
       </c>
@@ -6738,7 +6735,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>387</v>
       </c>
@@ -6763,14 +6760,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B108" s="8" t="s">
         <v>391</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>392</v>
       </c>
@@ -6791,7 +6788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>394</v>
       </c>
@@ -6812,7 +6809,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>396</v>
       </c>
@@ -6830,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>398</v>
       </c>
@@ -6851,12 +6848,12 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C113" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D113" t="s">
         <v>380</v>
@@ -6872,15 +6869,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
+        <v>516</v>
+      </c>
+      <c r="C114" t="s">
+        <v>517</v>
+      </c>
+      <c r="D114" t="s">
         <v>518</v>
-      </c>
-      <c r="C114" t="s">
-        <v>519</v>
-      </c>
-      <c r="D114" t="s">
-        <v>520</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6893,7 +6890,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>400</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>402</v>
       </c>
@@ -6934,7 +6931,7 @@
       </c>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>403</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>405</v>
       </c>
@@ -6970,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>407</v>
       </c>
@@ -6988,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>409</v>
       </c>
@@ -7006,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>411</v>
       </c>
@@ -7022,11 +7019,11 @@
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>7</v>
       </c>
@@ -7036,14 +7033,14 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B124" s="8" t="s">
         <v>414</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>415</v>
       </c>
@@ -7067,7 +7064,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>419</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>421</v>
       </c>
@@ -7106,7 +7103,7 @@
       </c>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>423</v>
       </c>
@@ -7127,7 +7124,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>299</v>
       </c>
@@ -7148,7 +7145,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>425</v>
       </c>
@@ -7170,7 +7167,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>257</v>
       </c>
@@ -7191,7 +7188,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>426</v>
       </c>
@@ -7212,7 +7209,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="9" t="s">
         <v>428</v>
       </c>
@@ -7231,18 +7228,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="7" t="s">
         <v>429</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>430</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>432</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>434</v>
       </c>
@@ -7299,18 +7296,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" s="7" t="s">
         <v>436</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>437</v>
       </c>
@@ -7326,16 +7323,14 @@
       <c r="F141" s="12">
         <v>550</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>440</v>
-      </c>
-      <c r="C142" t="s">
-        <v>441</v>
       </c>
       <c r="D142" t="s">
         <v>58</v>
@@ -7346,16 +7341,14 @@
       <c r="F142" s="12">
         <v>300</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
+        <v>441</v>
+      </c>
+      <c r="C143" t="s">
         <v>442</v>
-      </c>
-      <c r="C143" t="s">
-        <v>443</v>
       </c>
       <c r="D143" t="s">
         <v>58</v>
@@ -7366,16 +7359,14 @@
       <c r="F143" s="12">
         <v>300</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
+        <v>443</v>
+      </c>
+      <c r="C144" t="s">
         <v>444</v>
-      </c>
-      <c r="C144" t="s">
-        <v>445</v>
       </c>
       <c r="D144" t="s">
         <v>58</v>
@@ -7386,16 +7377,14 @@
       <c r="F144" s="12">
         <v>225</v>
       </c>
-      <c r="H144" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
+        <v>445</v>
+      </c>
+      <c r="C145" t="s">
         <v>446</v>
-      </c>
-      <c r="C145" t="s">
-        <v>447</v>
       </c>
       <c r="D145" t="s">
         <v>58</v>
@@ -7406,16 +7395,14 @@
       <c r="F145" s="12">
         <v>325</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
+        <v>447</v>
+      </c>
+      <c r="C146" t="s">
         <v>448</v>
-      </c>
-      <c r="C146" t="s">
-        <v>449</v>
       </c>
       <c r="D146" t="s">
         <v>58</v>
@@ -7426,16 +7413,14 @@
       <c r="F146" s="12">
         <v>325</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
+        <v>449</v>
+      </c>
+      <c r="C147" t="s">
         <v>450</v>
-      </c>
-      <c r="C147" t="s">
-        <v>451</v>
       </c>
       <c r="D147" t="s">
         <v>58</v>
@@ -7446,16 +7431,14 @@
       <c r="F147" s="12">
         <v>625</v>
       </c>
-      <c r="H147" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" t="s">
         <v>452</v>
-      </c>
-      <c r="C148" t="s">
-        <v>453</v>
       </c>
       <c r="D148" t="s">
         <v>58</v>
@@ -7466,16 +7449,14 @@
       <c r="F148" s="12">
         <v>325</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
+        <v>453</v>
+      </c>
+      <c r="C149" t="s">
         <v>454</v>
-      </c>
-      <c r="C149" t="s">
-        <v>455</v>
       </c>
       <c r="D149" t="s">
         <v>58</v>
@@ -7486,9 +7467,7 @@
       <c r="F149" s="12">
         <v>325</v>
       </c>
-      <c r="H149" s="4" t="s">
-        <v>439</v>
-      </c>
+      <c r="H149" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7500,24 +7479,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4254C87-3552-48DB-A4D3-A11D0D20A17E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -7540,7 +7519,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>351</v>
       </c>
@@ -7562,14 +7541,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>353</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -7590,7 +7569,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -7611,14 +7590,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>251</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -7639,7 +7618,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -7660,7 +7639,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -7681,7 +7660,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>362</v>
       </c>
@@ -7702,14 +7681,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>366</v>
       </c>
@@ -7730,7 +7709,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>369</v>
       </c>
@@ -7751,7 +7730,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -7772,14 +7751,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>374</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -7798,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>378</v>
       </c>
@@ -7819,7 +7798,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>382</v>
       </c>
@@ -7838,14 +7817,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>383</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>385</v>
       </c>
@@ -7866,7 +7845,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>388</v>
       </c>
@@ -7888,14 +7867,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>391</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -7916,7 +7895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>394</v>
       </c>
@@ -7937,7 +7916,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>396</v>
       </c>
@@ -7955,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -7976,12 +7955,12 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C28" t="s">
         <v>380</v>
@@ -7997,15 +7976,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C29" t="s">
         <v>518</v>
-      </c>
-      <c r="B29" t="s">
-        <v>519</v>
-      </c>
-      <c r="C29" t="s">
-        <v>520</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8018,7 +7997,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>400</v>
       </c>
@@ -8039,7 +8018,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -8059,7 +8038,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>403</v>
       </c>
@@ -8077,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>405</v>
       </c>
@@ -8095,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>407</v>
       </c>
@@ -8113,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>409</v>
       </c>
@@ -8131,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>411</v>
       </c>
@@ -8147,12 +8126,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
@@ -8166,26 +8145,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD0686C-D55F-4BC3-AD76-FD04FC2BAEB5}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -8208,7 +8187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>415</v>
       </c>
@@ -8232,7 +8211,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -8253,7 +8232,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>421</v>
       </c>
@@ -8271,7 +8250,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>423</v>
       </c>
@@ -8292,7 +8271,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>299</v>
       </c>
@@ -8313,7 +8292,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>425</v>
       </c>
@@ -8335,7 +8314,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -8356,7 +8335,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>426</v>
       </c>
@@ -8377,7 +8356,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>428</v>
       </c>
@@ -8406,24 +8385,24 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -8440,22 +8419,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8465,75 +8444,76 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>524</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="6">
+        <v>10.34</v>
+      </c>
+      <c r="F5" s="14">
+        <f>D5*E5</f>
+        <v>20.68</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>462</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>380</v>
       </c>
       <c r="D6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="17">
         <v>15.22</v>
       </c>
       <c r="F6" s="14">
         <f>D6*E6</f>
-        <v>60.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>380</v>
       </c>
       <c r="D7" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="17">
         <v>5.01</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" ref="F7:F23" si="0">D7*E7</f>
-        <v>15.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>380</v>
@@ -8549,15 +8529,15 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>467</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>469</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8570,12 +8550,12 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>380</v>
@@ -8591,30 +8571,30 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E13" s="17"/>
       <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14">
@@ -8622,12 +8602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -8643,12 +8623,12 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -8666,12 +8646,12 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -8687,12 +8667,12 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -8708,19 +8688,19 @@
         <v>2815.97</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E19" s="17"/>
       <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8728,15 +8708,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" t="s">
         <v>483</v>
-      </c>
-      <c r="B21" t="s">
-        <v>484</v>
-      </c>
-      <c r="C21" t="s">
-        <v>485</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8749,15 +8729,15 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8771,15 +8751,15 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8792,22 +8772,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E24" s="17"/>
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8815,19 +8795,19 @@
       <c r="E26" s="17"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8839,22 +8819,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D16802-A822-4AB2-AA89-C6DE1E84F2C8}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8871,16 +8851,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -8899,16 +8879,16 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10">
@@ -8916,15 +8896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
         <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D6" s="10">
         <v>19.3</v>
@@ -8937,15 +8917,15 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
         <v>380</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D7" s="10">
         <v>10.66</v>
@@ -8958,9 +8938,9 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8">
@@ -8971,18 +8951,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D9" s="10">
         <v>2.38</v>
@@ -8995,15 +8975,15 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s">
         <v>380</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D10" s="10">
         <v>13.98</v>
@@ -9016,23 +8996,23 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C13">
         <v>14130</v>
@@ -9048,12 +9028,12 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C14">
         <v>10035</v>
@@ -9069,12 +9049,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C15">
         <v>10034</v>
@@ -9090,12 +9070,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C16">
         <v>90051</v>
@@ -9111,12 +9091,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
@@ -9132,12 +9112,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -9153,78 +9133,78 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F36" s="10"/>
     </row>
   </sheetData>
@@ -9240,18 +9220,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
@@ -9274,33 +9254,33 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>514</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>515</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>517</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6CE9B-58B3-4EC4-9026-9BD0B563DEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41B11A-0DF1-4798-89AD-F2A7C86DA521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="519">
   <si>
     <t>Parts List</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Need quote for aluminium mounts</t>
-  </si>
-  <si>
     <t>488 nm mount</t>
   </si>
   <si>
@@ -751,12 +748,6 @@
     <t>30 mm Cage Plate</t>
   </si>
   <si>
-    <t>CP12</t>
-  </si>
-  <si>
-    <t>Marked as Obsolete</t>
-  </si>
-  <si>
     <t>4.9.2</t>
   </si>
   <si>
@@ -949,9 +940,6 @@
     <t>5.4.6</t>
   </si>
   <si>
-    <t>CP02/M</t>
-  </si>
-  <si>
     <t>5.4.7</t>
   </si>
   <si>
@@ -1204,15 +1192,6 @@
     <t>6.7.2</t>
   </si>
   <si>
-    <t>12V stepping motor, Unipolar Hybrid Stepper Motor 1.8°, 0.10Nm, 12</t>
-  </si>
-  <si>
-    <t>191-8299</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
     <t>Focus-shifter electronics</t>
   </si>
   <si>
@@ -1294,9 +1273,6 @@
     <t>PointGrey</t>
   </si>
   <si>
-    <t>BFS-U3-51S5M-C penultimate letter is M for mono or C for colour</t>
-  </si>
-  <si>
     <t>Coarse ±1 mm XY Slip Plate Positioner</t>
   </si>
   <si>
@@ -1477,9 +1453,6 @@
     <t>TF1020A7</t>
   </si>
   <si>
-    <t>Add Instalation Charge</t>
-  </si>
-  <si>
     <t>DAQ board</t>
   </si>
   <si>
@@ -1613,6 +1586,15 @@
   </si>
   <si>
     <t>885-8172</t>
+  </si>
+  <si>
+    <t>CP33/M</t>
+  </si>
+  <si>
+    <t>180-5279</t>
+  </si>
+  <si>
+    <t>RS PRO Hybrid Stepper Stepper Motor, 12 V, 5mm Shaft Diameter</t>
   </si>
 </sst>
 </file>
@@ -2060,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA523F66-4D43-4A68-87EF-5B690A9AB5C0}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3419,18 +3401,18 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="6">
+        <v>192.2</v>
+      </c>
       <c r="F68" s="14">
         <f>D68*E68</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>192.2</v>
+      </c>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>94</v>
@@ -3441,24 +3423,24 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6">
+        <v>192.2</v>
+      </c>
       <c r="F69" s="14">
         <f>D69*E69</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>192.2</v>
+      </c>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3468,13 +3450,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3484,13 +3466,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3504,20 +3486,20 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75">
         <v>11098</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3532,13 +3514,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>11101</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3553,13 +3535,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
         <v>106</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>107</v>
-      </c>
-      <c r="C77" t="s">
-        <v>108</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3572,18 +3554,18 @@
         <v>15717.75</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3596,18 +3578,18 @@
         <v>9036</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>113</v>
-      </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3628,19 +3610,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
         <v>114</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>115</v>
-      </c>
-      <c r="C82" t="s">
-        <v>116</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3655,13 +3637,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
         <v>117</v>
       </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3676,13 +3658,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
         <v>119</v>
       </c>
-      <c r="B84" t="s">
-        <v>120</v>
-      </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3697,13 +3679,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
         <v>121</v>
       </c>
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3740,12 +3722,12 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D91" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="3">
         <f>SUM(F5:F88)</f>
-        <v>47509.630000000005</v>
+        <v>47894.03</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741E1006-BAD7-452B-BB6F-66DE0A8B8BA1}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -3785,23 +3767,23 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="5">
         <v>528</v>
@@ -3845,19 +3827,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
       </c>
       <c r="D8" s="6">
         <v>140.4</v>
@@ -3872,13 +3854,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
       </c>
       <c r="D9" s="6">
         <v>5.95</v>
@@ -3893,13 +3875,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
       </c>
       <c r="D10" s="6">
         <v>16.16</v>
@@ -3914,13 +3896,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>135</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
       </c>
       <c r="D11" s="6">
         <v>39.770000000000003</v>
@@ -3935,13 +3917,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>137</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
       </c>
       <c r="D12" s="6">
         <v>9.18</v>
@@ -3956,13 +3938,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>139</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
       </c>
       <c r="D13" s="6">
         <v>7.96</v>
@@ -3977,13 +3959,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
       </c>
       <c r="D14" s="6">
         <v>4.1900000000000004</v>
@@ -3998,13 +3980,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>143</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
       </c>
       <c r="D15" s="6">
         <v>22.73</v>
@@ -4019,13 +4001,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>145</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
       </c>
       <c r="D16" s="6">
         <v>12.42</v>
@@ -4040,13 +4022,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
       </c>
       <c r="D17" s="6">
         <v>46.07</v>
@@ -4065,19 +4047,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>150</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>151</v>
       </c>
       <c r="D20" s="6">
         <v>30.84</v>
@@ -4092,13 +4074,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>152</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>153</v>
       </c>
       <c r="D21" s="6">
         <v>52.97</v>
@@ -4113,13 +4095,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
         <v>131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
       </c>
       <c r="D22" s="6">
         <v>5.95</v>
@@ -4134,13 +4116,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
         <v>154</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>155</v>
       </c>
       <c r="D23" s="6">
         <v>4.01</v>
@@ -4155,13 +4137,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
       </c>
       <c r="D24" s="6">
         <v>9.18</v>
@@ -4174,18 +4156,18 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
         <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
       </c>
       <c r="D25" s="6">
         <v>7.96</v>
@@ -4198,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
       </c>
       <c r="D26" s="6">
         <v>22.73</v>
@@ -4224,13 +4206,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
         <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
       </c>
       <c r="D27" s="6">
         <v>84.41</v>
@@ -4245,13 +4227,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
         <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>160</v>
       </c>
       <c r="D28" s="6">
         <v>84.41</v>
@@ -4270,19 +4252,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
         <v>162</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
       </c>
       <c r="D31" s="6">
         <v>122.55</v>
@@ -4297,13 +4279,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
         <v>164</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
       </c>
       <c r="D32" s="6">
         <v>67.16</v>
@@ -4318,13 +4300,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
         <v>131</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
       </c>
       <c r="D33" s="6">
         <v>5.95</v>
@@ -4339,13 +4321,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
         <v>154</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>155</v>
       </c>
       <c r="D34" s="6">
         <v>4.01</v>
@@ -4360,13 +4342,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="6">
         <v>9.18</v>
@@ -4379,18 +4361,18 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
         <v>139</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>140</v>
       </c>
       <c r="D36" s="6">
         <v>7.96</v>
@@ -4403,18 +4385,18 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>144</v>
       </c>
       <c r="D37" s="6">
         <v>22.73</v>
@@ -4437,19 +4419,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
         <v>168</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>169</v>
       </c>
       <c r="D41" s="6">
         <v>81.97</v>
@@ -4464,13 +4446,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
         <v>131</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
       </c>
       <c r="D42" s="6">
         <v>5.95</v>
@@ -4485,13 +4467,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
         <v>154</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>155</v>
       </c>
       <c r="D43" s="6">
         <v>4.01</v>
@@ -4506,13 +4488,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
         <v>137</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>138</v>
       </c>
       <c r="D44" s="6">
         <v>9.18</v>
@@ -4525,18 +4507,18 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
         <v>139</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>140</v>
       </c>
       <c r="D45" s="6">
         <v>7.96</v>
@@ -4549,18 +4531,18 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
         <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>144</v>
       </c>
       <c r="D46" s="6">
         <v>22.73</v>
@@ -4575,13 +4557,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
         <v>170</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>171</v>
       </c>
       <c r="D47" s="6">
         <v>117.41</v>
@@ -4600,19 +4582,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
         <v>173</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>174</v>
       </c>
       <c r="D50" s="6">
         <v>79.569999999999993</v>
@@ -4635,7 +4617,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53">
         <f>SUM(E3:E51)</f>
@@ -4655,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4671,10 +4653,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4692,7 +4674,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4729,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -4739,13 +4721,13 @@
         <v>2.1</v>
       </c>
       <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
         <v>179</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4758,16 +4740,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>183</v>
       </c>
-      <c r="C6" t="s">
-        <v>184</v>
-      </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4783,13 +4765,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
         <v>185</v>
       </c>
-      <c r="C7" t="s">
-        <v>186</v>
-      </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4805,13 +4787,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
         <v>187</v>
       </c>
-      <c r="C8" t="s">
-        <v>188</v>
-      </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4827,13 +4809,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
         <v>189</v>
       </c>
-      <c r="C9" t="s">
-        <v>190</v>
-      </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4853,23 +4835,23 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
         <v>192</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>193</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>194</v>
-      </c>
-      <c r="D12" t="s">
-        <v>195</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4880,18 +4862,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
         <v>197</v>
       </c>
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4902,21 +4884,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
         <v>199</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>200</v>
       </c>
-      <c r="C14" t="s">
-        <v>201</v>
-      </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4934,13 +4916,13 @@
         <v>3.3</v>
       </c>
       <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
         <v>202</v>
       </c>
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4953,21 +4935,21 @@
         <v>1150</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
         <v>205</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>206</v>
       </c>
-      <c r="C16" t="s">
-        <v>207</v>
-      </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -4986,13 +4968,13 @@
         <v>3.5</v>
       </c>
       <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
         <v>208</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>209</v>
-      </c>
-      <c r="D17" t="s">
-        <v>210</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5014,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -5024,10 +5006,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
         <v>212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>213</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -5048,10 +5030,10 @@
         <v>4.2</v>
       </c>
       <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
         <v>214</v>
-      </c>
-      <c r="C21" t="s">
-        <v>215</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -5073,10 +5055,10 @@
         <v>4.3</v>
       </c>
       <c r="B22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
         <v>216</v>
-      </c>
-      <c r="C22" t="s">
-        <v>217</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -5097,10 +5079,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
         <v>218</v>
-      </c>
-      <c r="C23" t="s">
-        <v>219</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -5121,10 +5103,10 @@
         <v>4.5</v>
       </c>
       <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
         <v>220</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -5145,10 +5127,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s">
         <v>222</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -5169,20 +5151,20 @@
         <v>4.7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
         <v>222</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -5200,13 +5182,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
         <v>226</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -5227,20 +5209,20 @@
         <v>4.8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" t="s">
         <v>222</v>
-      </c>
-      <c r="C30" t="s">
-        <v>223</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -5258,13 +5240,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
         <v>231</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>232</v>
-      </c>
-      <c r="C31" t="s">
-        <v>233</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -5285,20 +5267,20 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
         <v>235</v>
       </c>
-      <c r="B33" t="s">
-        <v>236</v>
-      </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>516</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -5306,24 +5288,24 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="10">
+        <v>12.67</v>
+      </c>
       <c r="G33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>12.67</v>
+      </c>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -5344,23 +5326,23 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" t="s">
         <v>243</v>
-      </c>
-      <c r="B36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" t="s">
-        <v>246</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5375,16 +5357,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
         <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5397,10 +5379,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -5416,20 +5398,20 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
         <v>212</v>
-      </c>
-      <c r="C40" t="s">
-        <v>213</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -5447,13 +5429,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -5471,13 +5453,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -5495,26 +5477,26 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
         <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5527,16 +5509,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
         <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5549,10 +5531,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -5570,7 +5552,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10">
@@ -5580,13 +5562,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -5604,13 +5586,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -5635,7 +5617,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -5645,20 +5627,20 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -5676,13 +5658,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -5703,20 +5685,20 @@
         <v>5.2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -5734,13 +5716,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -5761,20 +5743,20 @@
         <v>5.3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -5792,13 +5774,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -5819,20 +5801,20 @@
         <v>5.4</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -5850,13 +5832,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -5874,13 +5856,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>516</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -5888,24 +5870,24 @@
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="10">
+        <v>12.67</v>
+      </c>
       <c r="G64" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>25.34</v>
+      </c>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -5913,24 +5895,24 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10">
+        <v>12.67</v>
+      </c>
       <c r="G65" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>12.67</v>
+      </c>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -5949,13 +5931,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -5974,23 +5956,23 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -6009,13 +5991,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -6033,13 +6015,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -6057,10 +6039,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -6070,13 +6052,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -6094,13 +6076,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -6118,13 +6100,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B75" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -6145,23 +6127,21 @@
         <v>5.7</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -6179,13 +6159,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B78" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C78" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -6203,13 +6183,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -6230,10 +6210,10 @@
         <v>5.8</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -6254,10 +6234,10 @@
         <v>5.9</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C81" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -6275,17 +6255,17 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -6299,15 +6279,15 @@
         <v>0</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C84" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -6322,16 +6302,14 @@
         <f t="shared" si="1"/>
         <v>392.53</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -6356,7 +6334,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -6366,13 +6344,13 @@
         <v>6.1</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6383,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -6391,20 +6369,20 @@
         <v>6.3</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -6422,13 +6400,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -6449,20 +6427,20 @@
         <v>6.4</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B93" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" t="s">
         <v>212</v>
-      </c>
-      <c r="C93" t="s">
-        <v>213</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -6480,10 +6458,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -6501,10 +6479,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -6522,10 +6500,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -6546,20 +6524,20 @@
         <v>6.5</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -6577,13 +6555,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C99" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -6601,13 +6579,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -6628,23 +6606,23 @@
         <v>6.6</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C102" t="s">
         <v>94</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6657,16 +6635,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D103" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6681,16 +6659,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C104" t="s">
         <v>94</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6706,23 +6684,23 @@
         <v>6.7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D106" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6737,45 +6715,45 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>518</v>
       </c>
       <c r="C107" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="D107" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" s="10"/>
+      <c r="F107" s="10">
+        <v>23.13</v>
+      </c>
       <c r="G107" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>390</v>
-      </c>
+        <v>23.13</v>
+      </c>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B108" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6790,13 +6768,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C110">
         <v>1438</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6811,13 +6789,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D111" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F111" s="10">
         <v>0.747</v>
@@ -6829,13 +6807,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D112" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6850,13 +6828,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C113" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D113" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6871,13 +6849,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C114" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D114" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6892,13 +6870,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D115" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6913,13 +6891,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C116" t="s">
         <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6933,13 +6911,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C117" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D117" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F117" s="10">
         <v>11.52</v>
@@ -6951,13 +6929,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C118" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D118" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F118" s="10">
         <v>3.1</v>
@@ -6969,13 +6947,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C119" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D119" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F119" s="10">
         <v>3.1</v>
@@ -6987,13 +6965,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C120" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F120" s="10">
         <v>6.42</v>
@@ -7005,10 +6983,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D121" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10">
@@ -7016,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -7028,27 +7006,27 @@
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B124" s="8" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7060,16 +7038,14 @@
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>418</v>
-      </c>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -7087,10 +7063,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C127" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -7105,10 +7081,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -7126,10 +7102,10 @@
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C129" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -7147,10 +7123,10 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -7158,21 +7134,21 @@
       <c r="E130">
         <v>1</v>
       </c>
-      <c r="F130" s="10"/>
+      <c r="F130" s="10">
+        <v>12.67</v>
+      </c>
       <c r="G130" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>12.67</v>
+      </c>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -7190,10 +7166,10 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C132" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -7211,13 +7187,13 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C133" t="s">
         <v>94</v>
       </c>
       <c r="D133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7234,20 +7210,20 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7255,18 +7231,18 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C137" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7274,18 +7250,18 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C138" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7293,7 +7269,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.35">
@@ -7302,17 +7278,17 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C141" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D141" t="s">
         <v>58</v>
@@ -7327,10 +7303,10 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C142" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D142" t="s">
         <v>58</v>
@@ -7345,10 +7321,10 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C143" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D143" t="s">
         <v>58</v>
@@ -7363,10 +7339,10 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C144" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D144" t="s">
         <v>58</v>
@@ -7381,10 +7357,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C145" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D145" t="s">
         <v>58</v>
@@ -7399,10 +7375,10 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C146" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D146" t="s">
         <v>58</v>
@@ -7417,10 +7393,10 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C147" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D147" t="s">
         <v>58</v>
@@ -7435,10 +7411,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D148" t="s">
         <v>58</v>
@@ -7453,10 +7429,10 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C149" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D149" t="s">
         <v>58</v>
@@ -7479,7 +7455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4254C87-3552-48DB-A4D3-A11D0D20A17E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7491,14 +7469,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -7516,18 +7494,18 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7538,22 +7516,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -7571,10 +7549,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -7592,17 +7570,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>213</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -7620,10 +7598,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -7641,10 +7619,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -7662,10 +7640,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -7683,17 +7661,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -7711,10 +7689,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -7732,10 +7710,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -7753,20 +7731,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -7779,13 +7757,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7800,13 +7778,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7819,20 +7797,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7847,42 +7825,42 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10">
+        <v>23.13</v>
+      </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>390</v>
-      </c>
+        <v>23.13</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7897,13 +7875,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7918,13 +7896,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7936,13 +7914,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B27" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7957,13 +7935,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7978,13 +7956,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B29" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C29" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7999,13 +7977,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -8020,13 +7998,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -8040,13 +8018,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E32" s="10">
         <v>11.52</v>
@@ -8058,13 +8036,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E33" s="10">
         <v>3.1</v>
@@ -8076,13 +8054,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E34" s="10">
         <v>3.1</v>
@@ -8094,13 +8072,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B35" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E35" s="10">
         <v>6.42</v>
@@ -8112,10 +8090,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -8123,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -8146,7 +8124,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8159,14 +8137,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -8184,18 +8162,18 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8207,16 +8185,14 @@
         <f t="shared" ref="F3:F11" si="0">D3*E3</f>
         <v>1013</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>418</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -8234,10 +8210,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -8252,10 +8228,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -8273,10 +8249,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -8294,10 +8270,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -8305,21 +8281,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>12.67</v>
+      </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>12.67</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -8337,10 +8313,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -8358,13 +8334,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8385,7 +8361,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8421,20 +8397,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8446,13 +8422,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8468,13 +8444,13 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8489,13 +8465,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8510,13 +8486,13 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8531,13 +8507,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8552,13 +8528,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8594,7 +8570,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14">
@@ -8604,10 +8580,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -8625,10 +8601,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -8648,10 +8624,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -8669,10 +8645,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -8687,9 +8663,7 @@
         <f t="shared" si="0"/>
         <v>2815.97</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>479</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E19" s="17"/>
@@ -8700,7 +8674,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8710,13 +8684,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8731,13 +8705,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C22" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8753,13 +8727,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C23" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8779,7 +8753,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
@@ -8787,7 +8761,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8819,8 +8793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D16802-A822-4AB2-AA89-C6DE1E84F2C8}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8853,14 +8827,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -8881,30 +8855,24 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
-      <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="F5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D6" s="10">
         <v>19.3</v>
@@ -8919,13 +8887,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D7" s="10">
         <v>10.66</v>
@@ -8940,7 +8908,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8">
@@ -8951,18 +8919,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D9" s="10">
         <v>2.38</v>
@@ -8977,13 +8945,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D10" s="10">
         <v>13.98</v>
@@ -9002,17 +8970,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C13">
         <v>14130</v>
@@ -9030,10 +8998,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C14">
         <v>10035</v>
@@ -9051,10 +9019,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C15">
         <v>10034</v>
@@ -9072,10 +9040,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C16">
         <v>90051</v>
@@ -9093,10 +9061,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
@@ -9114,10 +9082,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -9139,12 +9107,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="4" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -9216,8 +9184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E54574-7116-4DAA-8F32-09FF3060B5BB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9233,7 +9201,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -9251,12 +9219,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9264,7 +9232,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9272,7 +9240,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9280,7 +9248,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41B11A-0DF1-4798-89AD-F2A7C86DA521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE74EAA0-1CC7-480F-A16C-3E32B85E42FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="522">
   <si>
     <t>Parts List</t>
   </si>
@@ -202,9 +202,6 @@
     <t>TR30/M</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pedestal Pillar Post, Ø25.0 mm,M6 Taps, L = 50 mm </t>
-  </si>
-  <si>
     <t>AP6M4M</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>Eluxi</t>
   </si>
   <si>
-    <t>Do we want to tell people not to get the OEM version?</t>
-  </si>
-  <si>
     <t>MPB Visible Fibre Laser 642nm, 1W OEM</t>
   </si>
   <si>
@@ -1595,6 +1589,21 @@
   </si>
   <si>
     <t>RS PRO Hybrid Stepper Stepper Motor, 12 V, 5mm Shaft Diameter</t>
+  </si>
+  <si>
+    <t>clamp for Iris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedestal Pillar Post, Ø25.0 mm,M6 Taps, L = 50 mm </t>
+  </si>
+  <si>
+    <t>Ø25 mm Post Spacer, Thickness = 5 mm</t>
+  </si>
+  <si>
+    <t>ID25/M</t>
+  </si>
+  <si>
+    <t>RS5/M</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1616,7 @@
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,6 +1690,12 @@
       <name val="Verdana"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1703,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1725,6 +1740,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2040,25 +2056,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA523F66-4D43-4A68-87EF-5B690A9AB5C0}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2095,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2117,11 +2133,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2156,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2173,7 +2189,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2239,7 +2255,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2272,7 +2288,7 @@
         <v>506.93</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2305,7 +2321,7 @@
         <v>56.33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2338,7 +2354,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="I12" t="s">
         <v>25</v>
@@ -2353,7 +2369,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2372,7 +2388,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2405,7 +2421,7 @@
         <v>62.69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2487,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>64.42</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" s="14"/>
       <c r="I18" t="s">
         <v>36</v>
@@ -2519,7 +2535,7 @@
         <v>37.869999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2538,7 +2554,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2571,7 +2587,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2604,7 +2620,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2637,7 +2653,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2670,7 +2686,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2703,7 +2719,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="I25" t="s">
         <v>48</v>
@@ -2718,7 +2734,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="I26" t="s">
         <v>49</v>
@@ -2733,7 +2749,7 @@
         <v>387.95</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -2752,7 +2768,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2785,9 +2801,9 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>518</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2806,7 +2822,7 @@
         <v>86.44</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>12</v>
@@ -2818,9 +2834,9 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -2839,10 +2855,10 @@
         <v>20.52</v>
       </c>
       <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
         <v>57</v>
-      </c>
-      <c r="J30" t="s">
-        <v>58</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2851,9 +2867,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2872,10 +2888,10 @@
         <v>26.84</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2884,9 +2900,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -2905,10 +2921,10 @@
         <v>13.6</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2917,13 +2933,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="I33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2932,19 +2948,19 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -2963,9 +2979,9 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -2984,9 +3000,9 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
@@ -3005,9 +3021,9 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
@@ -3026,9 +3042,9 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -3047,33 +3063,33 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -3092,9 +3108,9 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -3113,9 +3129,9 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -3134,9 +3150,9 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -3155,9 +3171,9 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -3176,558 +3192,638 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="19">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45.65</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" ref="F52:F54" si="1">D52*E52</f>
+        <v>45.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>518</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>21.61</v>
+      </c>
+      <c r="F53" s="14">
+        <f>D53*E53</f>
+        <v>21.61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>519</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="19">
+        <v>1</v>
+      </c>
+      <c r="E54" s="19">
+        <v>6.13</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="1"/>
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>517</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>6.71</v>
+      </c>
+      <c r="F55" s="14">
+        <f>D55*E55</f>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="F51" s="14">
-        <f>D51*E51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="C57" s="4"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="F58" s="14">
+        <f>D58*E58</f>
+        <v>37.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <v>24</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1.58</v>
-      </c>
-      <c r="F54" s="14">
-        <f>D54*E54</f>
-        <v>37.92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="C60" s="4"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="12">
+        <v>325</v>
+      </c>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="12">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12">
         <v>325</v>
       </c>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12">
         <v>325</v>
       </c>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="12">
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12">
         <v>325</v>
       </c>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="12">
-        <v>325</v>
-      </c>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="C66" s="4"/>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B67" t="s">
         <v>85</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>208</v>
+      </c>
+      <c r="F67" s="14">
+        <f>D67*E67</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>87</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
         <v>208</v>
-      </c>
-      <c r="F63" s="14">
-        <f>D63*E63</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="6">
-        <v>208</v>
-      </c>
-      <c r="F64" s="14">
-        <f>D64*E64</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
-        <v>208</v>
-      </c>
-      <c r="F65" s="14">
-        <f>D65*E65</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E66" s="6"/>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>192.2</v>
       </c>
       <c r="F68" s="14">
         <f>D68*E68</f>
-        <v>192.2</v>
-      </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="6">
-        <v>192.2</v>
+        <v>208</v>
       </c>
       <c r="F69" s="14">
         <f>D69*E69</f>
-        <v>192.2</v>
-      </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>100</v>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" t="s">
         <v>94</v>
       </c>
-      <c r="C72" t="s">
-        <v>98</v>
-      </c>
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E73" s="6"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>101</v>
+      <c r="E72" s="6">
+        <v>192.2</v>
+      </c>
+      <c r="F72" s="14">
+        <f>D72*E72</f>
+        <v>192.2</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>192.2</v>
+      </c>
+      <c r="F73" s="14">
+        <f>D73*E73</f>
+        <v>192.2</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="6"/>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79">
+        <v>11098</v>
+      </c>
+      <c r="C79" t="s">
         <v>102</v>
       </c>
-      <c r="B75">
-        <v>11098</v>
-      </c>
-      <c r="C75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" s="6">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
         <v>4350</v>
-      </c>
-      <c r="F75" s="14">
-        <f>D75*E75</f>
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76">
-        <v>11101</v>
-      </c>
-      <c r="C76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" s="6">
-        <v>7650</v>
-      </c>
-      <c r="F76" s="14">
-        <f>D76*E76</f>
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6">
-        <v>15717.75</v>
-      </c>
-      <c r="F77" s="14">
-        <f>D77*E77</f>
-        <v>15717.75</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" s="6">
-        <v>9036</v>
-      </c>
-      <c r="F78" s="14">
-        <f>D78*E78</f>
-        <v>9036</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" s="6">
-        <v>350</v>
       </c>
       <c r="F79" s="14">
         <f>D79*E79</f>
-        <v>700</v>
-      </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80">
+        <v>11101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6">
+        <v>7650</v>
+      </c>
+      <c r="F80" s="14">
+        <f>D80*E80</f>
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6">
+        <v>15717.75</v>
+      </c>
+      <c r="F81" s="14">
+        <f>D81*E81</f>
+        <v>15717.75</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" s="6">
-        <v>2250</v>
+        <v>9036</v>
       </c>
       <c r="F82" s="14">
         <f>D82*E82</f>
+        <v>9036</v>
+      </c>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" s="6">
+        <v>350</v>
+      </c>
+      <c r="F83" s="14">
+        <f>D83*E83</f>
+        <v>700</v>
+      </c>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
         <v>2250</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="F86" s="14">
+        <f>D86*E86</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>3035</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" ref="F87" si="2">D87*E87</f>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>117</v>
       </c>
-      <c r="C83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" s="6">
-        <v>3035</v>
-      </c>
-      <c r="F83" s="14">
-        <f t="shared" ref="F83" si="1">D83*E83</f>
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+      <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>16</v>
+      </c>
+      <c r="F88" s="14">
+        <f t="shared" ref="F88:F89" si="3">D88*E88</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>119</v>
       </c>
-      <c r="C84" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" s="6">
-        <v>16</v>
-      </c>
-      <c r="F84" s="14">
-        <f t="shared" ref="F84:F85" si="2">D84*E84</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+      <c r="C89" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>26</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="12"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B85" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
-        <v>26</v>
-      </c>
-      <c r="F85" s="14">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E89" s="12"/>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D91" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3">
-        <f>SUM(F5:F88)</f>
-        <v>47894.03</v>
+      <c r="E95" s="5"/>
+      <c r="F95" s="3">
+        <f>SUM(F5:F92)</f>
+        <v>47974.130000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3740,16 +3836,17 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>3</v>
@@ -3767,23 +3864,24 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="5">
         <v>528</v>
@@ -3795,8 +3893,9 @@
         <f>D3*E3</f>
         <v>528</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3816,30 +3915,34 @@
         <f>D4*E4</f>
         <v>116.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>127</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="6">
         <v>140.4</v>
@@ -3851,16 +3954,17 @@
         <f t="shared" ref="F8:F17" si="0">D8*E8</f>
         <v>140.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="6">
         <v>5.95</v>
@@ -3872,16 +3976,17 @@
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="6">
         <v>16.16</v>
@@ -3893,16 +3998,17 @@
         <f t="shared" si="0"/>
         <v>16.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="6">
         <v>39.770000000000003</v>
@@ -3914,16 +4020,17 @@
         <f t="shared" si="0"/>
         <v>39.770000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="6">
         <v>9.18</v>
@@ -3935,16 +4042,17 @@
         <f t="shared" si="0"/>
         <v>9.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="6">
         <v>7.96</v>
@@ -3956,16 +4064,17 @@
         <f t="shared" si="0"/>
         <v>7.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="6">
         <v>4.1900000000000004</v>
@@ -3977,16 +4086,17 @@
         <f t="shared" si="0"/>
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D15" s="6">
         <v>22.73</v>
@@ -3998,16 +4108,17 @@
         <f t="shared" si="0"/>
         <v>22.73</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="6">
         <v>12.42</v>
@@ -4019,16 +4130,17 @@
         <f t="shared" si="0"/>
         <v>12.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="6">
         <v>46.07</v>
@@ -4040,26 +4152,29 @@
         <f t="shared" si="0"/>
         <v>46.07</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>148</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>150</v>
       </c>
       <c r="D20" s="6">
         <v>30.84</v>
@@ -4071,16 +4186,17 @@
         <f t="shared" ref="F20:F28" si="1">D20*E20</f>
         <v>61.68</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6">
         <v>52.97</v>
@@ -4092,16 +4208,17 @@
         <f t="shared" si="1"/>
         <v>105.94</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" s="6">
         <v>5.95</v>
@@ -4113,16 +4230,17 @@
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="6">
         <v>4.01</v>
@@ -4134,16 +4252,17 @@
         <f t="shared" si="1"/>
         <v>8.02</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="6">
         <v>9.18</v>
@@ -4155,19 +4274,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="6">
         <v>7.96</v>
@@ -4179,19 +4298,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="6">
         <v>22.73</v>
@@ -4203,16 +4322,17 @@
         <f t="shared" si="1"/>
         <v>45.46</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="6">
         <v>84.41</v>
@@ -4224,16 +4344,17 @@
         <f t="shared" si="1"/>
         <v>84.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" s="6">
         <v>84.41</v>
@@ -4245,26 +4366,29 @@
         <f t="shared" si="1"/>
         <v>84.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
       </c>
       <c r="D31" s="6">
         <v>122.55</v>
@@ -4276,16 +4400,17 @@
         <f t="shared" ref="F31:F37" si="2">D31*E31</f>
         <v>122.55</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" s="6">
         <v>67.16</v>
@@ -4297,16 +4422,17 @@
         <f t="shared" si="2"/>
         <v>67.16</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="6">
         <v>5.95</v>
@@ -4318,16 +4444,17 @@
         <f t="shared" si="2"/>
         <v>5.95</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D34" s="6">
         <v>4.01</v>
@@ -4339,16 +4466,17 @@
         <f t="shared" si="2"/>
         <v>4.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="6">
         <v>9.18</v>
@@ -4360,19 +4488,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" s="6">
         <v>7.96</v>
@@ -4384,19 +4512,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G36" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D37" s="6">
         <v>22.73</v>
@@ -4408,30 +4536,34 @@
         <f t="shared" si="2"/>
         <v>22.73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
         <v>166</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>168</v>
       </c>
       <c r="D41" s="6">
         <v>81.97</v>
@@ -4443,16 +4575,17 @@
         <f t="shared" ref="F41:F47" si="3">D41*E41</f>
         <v>81.97</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="6">
         <v>5.95</v>
@@ -4464,16 +4597,17 @@
         <f t="shared" si="3"/>
         <v>5.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="6">
         <v>4.01</v>
@@ -4485,16 +4619,17 @@
         <f t="shared" si="3"/>
         <v>4.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="6">
         <v>9.18</v>
@@ -4506,19 +4641,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="6">
         <v>7.96</v>
@@ -4530,19 +4665,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G45" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="6">
         <v>22.73</v>
@@ -4554,16 +4689,17 @@
         <f t="shared" si="3"/>
         <v>22.73</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D47" s="6">
         <v>117.41</v>
@@ -4575,26 +4711,29 @@
         <f t="shared" si="3"/>
         <v>117.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
         <v>171</v>
-      </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>173</v>
       </c>
       <c r="D50" s="6">
         <v>79.569999999999993</v>
@@ -4606,18 +4745,19 @@
         <f>D50*E50</f>
         <v>79.569999999999993</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="D51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E53">
         <f>SUM(E3:E51)</f>
@@ -4630,6 +4770,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4637,26 +4778,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4674,10 +4815,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4701,33 +4842,33 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4738,18 +4879,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
-      </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4760,18 +4901,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4782,18 +4923,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.2000000000000002</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4804,18 +4945,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4826,32 +4967,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
         <v>191</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>192</v>
-      </c>
-      <c r="C12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" t="s">
-        <v>194</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4862,18 +5003,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4884,21 +5025,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
         <v>198</v>
       </c>
-      <c r="B14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>200</v>
-      </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4911,18 +5052,18 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.3</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4935,21 +5076,21 @@
         <v>1150</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>204</v>
       </c>
-      <c r="B16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -4963,18 +5104,18 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.5</v>
       </c>
       <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
         <v>207</v>
-      </c>
-      <c r="C17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" t="s">
-        <v>209</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4987,29 +5128,29 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -5025,15 +5166,15 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.2</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -5050,15 +5191,15 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.3</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -5074,15 +5215,15 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.4000000000000004</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -5098,15 +5239,15 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.5</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -5122,15 +5263,15 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -5146,25 +5287,25 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -5180,15 +5321,15 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
         <v>225</v>
-      </c>
-      <c r="B28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -5204,25 +5345,25 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -5238,15 +5379,15 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
         <v>230</v>
-      </c>
-      <c r="B31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" t="s">
-        <v>232</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -5262,25 +5403,25 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.9000000000000004</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -5297,15 +5438,15 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
         <v>236</v>
-      </c>
-      <c r="B34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" t="s">
-        <v>238</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -5321,28 +5462,28 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.0999999999999996</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" t="s">
         <v>240</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>241</v>
-      </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" t="s">
-        <v>243</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5355,18 +5496,18 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5377,12 +5518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -5393,25 +5534,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.1100000000000003</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -5427,15 +5568,15 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" t="s">
         <v>250</v>
-      </c>
-      <c r="B41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" t="s">
-        <v>252</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -5451,15 +5592,15 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" t="s">
         <v>253</v>
-      </c>
-      <c r="B42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" t="s">
-        <v>255</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -5475,28 +5616,28 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5507,18 +5648,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5529,12 +5670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -5550,9 +5691,9 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10">
@@ -5560,15 +5701,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" t="s">
         <v>265</v>
-      </c>
-      <c r="B48" t="s">
-        <v>266</v>
-      </c>
-      <c r="C48" t="s">
-        <v>267</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -5584,15 +5725,15 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" t="s">
         <v>268</v>
-      </c>
-      <c r="B49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" t="s">
-        <v>270</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -5608,39 +5749,39 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.0999999999999996</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" t="s">
         <v>273</v>
-      </c>
-      <c r="B53" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" t="s">
-        <v>275</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -5656,15 +5797,15 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
         <v>276</v>
-      </c>
-      <c r="B54" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" t="s">
-        <v>278</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -5680,25 +5821,25 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" t="s">
         <v>280</v>
-      </c>
-      <c r="B56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C56" t="s">
-        <v>282</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -5714,15 +5855,15 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" t="s">
         <v>283</v>
-      </c>
-      <c r="B57" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" t="s">
-        <v>285</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -5738,25 +5879,25 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -5772,15 +5913,15 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
         <v>289</v>
-      </c>
-      <c r="B60" t="s">
-        <v>290</v>
-      </c>
-      <c r="C60" t="s">
-        <v>291</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -5796,25 +5937,25 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.4</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" t="s">
         <v>292</v>
-      </c>
-      <c r="B62" t="s">
-        <v>293</v>
-      </c>
-      <c r="C62" t="s">
-        <v>294</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -5830,15 +5971,15 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" t="s">
         <v>295</v>
-      </c>
-      <c r="B63" t="s">
-        <v>296</v>
-      </c>
-      <c r="C63" t="s">
-        <v>297</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -5854,15 +5995,15 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -5879,15 +6020,15 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -5904,15 +6045,15 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" t="s">
         <v>300</v>
-      </c>
-      <c r="B66" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" t="s">
-        <v>302</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -5929,15 +6070,15 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -5954,25 +6095,25 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" t="s">
         <v>307</v>
-      </c>
-      <c r="B69" t="s">
-        <v>308</v>
-      </c>
-      <c r="C69" t="s">
-        <v>309</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -5989,15 +6130,15 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B70" t="s">
+        <v>309</v>
+      </c>
+      <c r="C70" t="s">
         <v>310</v>
-      </c>
-      <c r="B70" t="s">
-        <v>311</v>
-      </c>
-      <c r="C70" t="s">
-        <v>312</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -6013,15 +6154,15 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" t="s">
         <v>313</v>
-      </c>
-      <c r="B71" t="s">
-        <v>314</v>
-      </c>
-      <c r="C71" t="s">
-        <v>315</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -6037,12 +6178,12 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -6050,15 +6191,15 @@
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -6074,15 +6215,15 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" t="s">
         <v>320</v>
-      </c>
-      <c r="B74" t="s">
-        <v>321</v>
-      </c>
-      <c r="C74" t="s">
-        <v>322</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -6098,15 +6239,15 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" t="s">
+        <v>322</v>
+      </c>
+      <c r="C75" t="s">
         <v>323</v>
-      </c>
-      <c r="B75" t="s">
-        <v>324</v>
-      </c>
-      <c r="C75" t="s">
-        <v>325</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -6122,26 +6263,26 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.7</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" t="s">
         <v>327</v>
-      </c>
-      <c r="B77" t="s">
-        <v>328</v>
-      </c>
-      <c r="C77" t="s">
-        <v>329</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -6157,15 +6298,15 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" t="s">
         <v>330</v>
-      </c>
-      <c r="B78" t="s">
-        <v>331</v>
-      </c>
-      <c r="C78" t="s">
-        <v>332</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -6181,15 +6322,15 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -6205,15 +6346,15 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5.8</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -6229,15 +6370,15 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.9</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C81" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -6253,19 +6394,19 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -6279,15 +6420,15 @@
         <v>0</v>
       </c>
       <c r="H83" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>343</v>
-      </c>
-      <c r="C84" t="s">
-        <v>344</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -6304,12 +6445,12 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -6325,32 +6466,32 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.1</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C88" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6361,28 +6502,28 @@
         <v>0</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6.3</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" t="s">
         <v>350</v>
-      </c>
-      <c r="B90" t="s">
-        <v>351</v>
-      </c>
-      <c r="C90" t="s">
-        <v>352</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -6398,15 +6539,15 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" t="s">
         <v>353</v>
-      </c>
-      <c r="B91" t="s">
-        <v>354</v>
-      </c>
-      <c r="C91" t="s">
-        <v>355</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -6422,25 +6563,25 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6.4</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -6456,12 +6597,12 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -6477,12 +6618,12 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -6498,12 +6639,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -6519,25 +6660,25 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6.5</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" t="s">
+        <v>360</v>
+      </c>
+      <c r="C98" t="s">
         <v>361</v>
-      </c>
-      <c r="B98" t="s">
-        <v>362</v>
-      </c>
-      <c r="C98" t="s">
-        <v>363</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -6553,15 +6694,15 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" t="s">
         <v>364</v>
-      </c>
-      <c r="B99" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99" t="s">
-        <v>366</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -6577,15 +6718,15 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" t="s">
         <v>367</v>
-      </c>
-      <c r="B100" t="s">
-        <v>368</v>
-      </c>
-      <c r="C100" t="s">
-        <v>369</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -6601,28 +6742,28 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.6</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6633,18 +6774,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" t="s">
+        <v>372</v>
+      </c>
+      <c r="C103" t="s">
         <v>373</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>374</v>
-      </c>
-      <c r="C103" t="s">
-        <v>375</v>
-      </c>
-      <c r="D103" t="s">
-        <v>376</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6657,18 +6798,18 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6679,28 +6820,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>378</v>
+      </c>
+      <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
         <v>380</v>
       </c>
-      <c r="B106" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" t="s">
-        <v>382</v>
-      </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6713,18 +6854,18 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B107" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C107" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6738,22 +6879,22 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6766,15 +6907,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C110">
         <v>1438</v>
       </c>
       <c r="D110" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6787,15 +6928,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C111" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D111" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F111" s="10">
         <v>0.747</v>
@@ -6805,15 +6946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C112" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D112" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6826,15 +6967,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C113" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6847,15 +6988,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>505</v>
+      </c>
+      <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
         <v>507</v>
-      </c>
-      <c r="C114" t="s">
-        <v>508</v>
-      </c>
-      <c r="D114" t="s">
-        <v>509</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6868,15 +7009,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C115" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D115" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6889,15 +7030,15 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6909,15 +7050,15 @@
       </c>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F117" s="10">
         <v>11.52</v>
@@ -6927,15 +7068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F118" s="10">
         <v>3.1</v>
@@ -6945,15 +7086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C119" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F119" s="10">
         <v>3.1</v>
@@ -6963,15 +7104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D120" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F120" s="10">
         <v>6.42</v>
@@ -6981,12 +7122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10">
@@ -6994,39 +7135,39 @@
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>406</v>
+      </c>
+      <c r="C125" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" t="s">
         <v>408</v>
-      </c>
-      <c r="C125" t="s">
-        <v>409</v>
-      </c>
-      <c r="D125" t="s">
-        <v>410</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7040,12 +7181,12 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -7061,12 +7202,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -7079,12 +7220,12 @@
       </c>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -7100,12 +7241,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -7121,12 +7262,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -7143,12 +7284,12 @@
       </c>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -7164,12 +7305,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C132" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -7185,15 +7326,15 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7204,26 +7345,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C136" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7231,18 +7372,18 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C137" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7250,18 +7391,18 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7269,29 +7410,29 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C141" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7301,15 +7442,15 @@
       </c>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C142" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7319,15 +7460,15 @@
       </c>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7337,15 +7478,15 @@
       </c>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C144" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7355,15 +7496,15 @@
       </c>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C145" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7373,15 +7514,15 @@
       </c>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C146" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D146" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7391,15 +7532,15 @@
       </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C147" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7409,15 +7550,15 @@
       </c>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C148" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7427,15 +7568,15 @@
       </c>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C149" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7459,24 +7600,24 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -7494,18 +7635,18 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7516,22 +7657,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -7547,12 +7688,12 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -7568,19 +7709,19 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -7596,12 +7737,12 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -7617,12 +7758,12 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -7638,12 +7779,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -7659,19 +7800,19 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -7687,12 +7828,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -7708,12 +7849,12 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -7729,22 +7870,22 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -7755,15 +7896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" t="s">
         <v>374</v>
-      </c>
-      <c r="B18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" t="s">
-        <v>376</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7776,15 +7917,15 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7795,22 +7936,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7823,15 +7964,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7845,22 +7986,22 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7873,15 +8014,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7894,15 +8035,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7912,15 +8053,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7933,15 +8074,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B28" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7954,15 +8095,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" t="s">
         <v>507</v>
-      </c>
-      <c r="B29" t="s">
-        <v>508</v>
-      </c>
-      <c r="C29" t="s">
-        <v>509</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7975,15 +8116,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7996,15 +8137,15 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -8016,15 +8157,15 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E32" s="10">
         <v>11.52</v>
@@ -8034,15 +8175,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C33" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E33" s="10">
         <v>3.1</v>
@@ -8052,15 +8193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E34" s="10">
         <v>3.1</v>
@@ -8070,15 +8211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E35" s="10">
         <v>6.42</v>
@@ -8088,12 +8229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -8101,15 +8242,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
@@ -8124,27 +8265,27 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -8162,18 +8303,18 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" t="s">
         <v>408</v>
-      </c>
-      <c r="B3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" t="s">
-        <v>410</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8187,12 +8328,12 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -8208,12 +8349,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -8224,14 +8365,17 @@
       <c r="E5" s="10">
         <v>77.25</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>77.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -8247,12 +8391,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -8268,12 +8412,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -8290,12 +8434,12 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -8311,12 +8455,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -8332,20 +8476,22 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8364,21 +8510,21 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -8395,22 +8541,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8420,15 +8566,15 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8442,15 +8588,15 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8463,15 +8609,15 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8484,15 +8630,15 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8505,15 +8651,15 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>457</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8526,15 +8672,15 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8547,30 +8693,30 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="17"/>
       <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14">
@@ -8578,12 +8724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -8599,12 +8745,12 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -8622,12 +8768,12 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -8643,12 +8789,12 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -8665,16 +8811,16 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
       <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8682,15 +8828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" t="s">
         <v>472</v>
-      </c>
-      <c r="B21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" t="s">
-        <v>474</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8703,15 +8849,15 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8725,15 +8871,15 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8746,22 +8892,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8769,19 +8915,19 @@
       <c r="E26" s="17"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8797,18 +8943,18 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8825,22 +8971,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="10">
         <v>1250</v>
@@ -8853,26 +8999,26 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D6" s="10">
         <v>19.3</v>
@@ -8885,15 +9031,15 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D7" s="10">
         <v>10.66</v>
@@ -8906,9 +9052,9 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8">
@@ -8919,18 +9065,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" t="s">
-        <v>491</v>
       </c>
       <c r="D9" s="10">
         <v>2.38</v>
@@ -8943,15 +9089,15 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D10" s="10">
         <v>13.98</v>
@@ -8964,23 +9110,23 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C13">
         <v>14130</v>
@@ -8996,12 +9142,12 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C14">
         <v>10035</v>
@@ -9017,12 +9163,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C15">
         <v>10034</v>
@@ -9038,12 +9184,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C16">
         <v>90051</v>
@@ -9059,15 +9205,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="10">
         <v>50</v>
@@ -9080,15 +9226,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="10">
         <v>30</v>
@@ -9101,78 +9247,78 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="10"/>
     </row>
   </sheetData>
@@ -9184,71 +9330,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E54574-7116-4DAA-8F32-09FF3060B5BB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>503</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>504</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>506</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41B11A-0DF1-4798-89AD-F2A7C86DA521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
     <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="560">
   <si>
     <t>Parts List</t>
   </si>
@@ -1489,9 +1488,6 @@
     <t>Custom box components</t>
   </si>
   <si>
-    <t>Standard Components</t>
-  </si>
-  <si>
     <t>Hinge (2 pack)</t>
   </si>
   <si>
@@ -1504,9 +1500,6 @@
     <t>281-243</t>
   </si>
   <si>
-    <t>Air Diffusers</t>
-  </si>
-  <si>
     <t>Need to know where this came from</t>
   </si>
   <si>
@@ -1540,9 +1533,6 @@
     <t>Diffuser Filters 500x300mm (4 Pack)</t>
   </si>
   <si>
-    <t>Filter Rail, Polycarbonate, 400mm</t>
-  </si>
-  <si>
     <t>Flange Extension, 70mm</t>
   </si>
   <si>
@@ -1595,12 +1585,144 @@
   </si>
   <si>
     <t>RS PRO Hybrid Stepper Stepper Motor, 12 V, 5mm Shaft Diameter</t>
+  </si>
+  <si>
+    <t>Foam Board</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Panel</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Window</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Window-Cover</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Window-Cover-Mount</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Middle-Door</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Middle-Door-Mount1</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Middle-Door-Mount2</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Middle-Door-Mount3</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Door-Latch</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Bottom-Door</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Bottom-Door-Mount1</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Bottom-Door-Mount2</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Bottom-Door-Mount3</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Front-Bottom-Door-Mount4</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Panel</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Door</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Door-Mount1</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Door-Mount2</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Door-Mount3</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Door-Mount4</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Left-Camera-Port</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Right-Panel</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Right-Crisp-Hatch</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Right-Door</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Right-Door-Mount1</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Right-Door-Mount2</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Right-Door-Mount3</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Back-Panel</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Back-Excitation-Hatch</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Back-Access-Hatch</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Back-Top-Heater-Mount</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Back-Bottom-Heater-Mount</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Top-Panel</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Top-Hatch</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Top-Back-Diffuser-Guide</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Top-Front-Diffuser-Guide</t>
+  </si>
+  <si>
+    <t>Incubation-Chamber-Top-Diffuser-Mount</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2039,7 +2161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA523F66-4D43-4A68-87EF-5B690A9AB5C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3736,7 +3858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741E1006-BAD7-452B-BB6F-66DE0A8B8BA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -5280,7 +5402,7 @@
         <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -5862,7 +5984,7 @@
         <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -5887,7 +6009,7 @@
         <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -6334,7 +6456,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -6718,10 +6840,10 @@
         <v>383</v>
       </c>
       <c r="B107" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C107" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D107" t="s">
         <v>376</v>
@@ -6828,10 +6950,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C113" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D113" t="s">
         <v>376</v>
@@ -6849,13 +6971,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C114" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D114" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -7126,7 +7248,7 @@
         <v>417</v>
       </c>
       <c r="C130" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -7452,7 +7574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4254C87-3552-48DB-A4D3-A11D0D20A17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7469,7 +7591,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7825,10 +7947,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C22" t="s">
         <v>376</v>
@@ -7935,10 +8057,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C28" t="s">
         <v>376</v>
@@ -7956,13 +8078,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8120,7 +8242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD0686C-D55F-4BC3-AD76-FD04FC2BAEB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8137,7 +8259,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -8273,7 +8395,7 @@
         <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -8357,7 +8479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207D8F4-BE86-4900-A685-997129932A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8425,7 +8547,7 @@
         <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C5" t="s">
         <v>376</v>
@@ -8790,11 +8912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D16802-A822-4AB2-AA89-C6DE1E84F2C8}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8808,7 +8930,7 @@
     <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -8825,14 +8947,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>482</v>
       </c>
@@ -8849,342 +8971,1004 @@
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F10" si="0">D3*E3</f>
+        <f t="shared" ref="F3" si="0">D3*E3</f>
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D6" s="10">
-        <v>19.3</v>
+        <v>94</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="10">
-        <v>10.66</v>
+        <v>94</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>21.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>524</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2.38</v>
+        <v>94</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10">
+        <f>D20*E20</f>
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>537</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>538</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>539</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>540</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>541</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <f>D31*E31</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>543</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>544</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>545</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>547</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>530</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10">
+        <f>D41*E41</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>549</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>552</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>553</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>554</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>555</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>556</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>557</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>558</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>485</v>
+      </c>
+      <c r="B58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" t="s">
+        <v>486</v>
+      </c>
+      <c r="D58" s="10">
+        <v>10.66</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="10">
+        <f>D58*E58</f>
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>488</v>
+      </c>
+      <c r="B59" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" s="10">
+        <v>2.38</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="10">
+        <f>D59*E59</f>
         <v>4.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" t="s">
+        <v>491</v>
+      </c>
+      <c r="D60" s="10">
+        <v>13.98</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10">
+        <f>D60*E60</f>
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>516</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>493</v>
       </c>
-      <c r="D10" s="10">
-        <v>13.98</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="B65" t="s">
         <v>494</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C65">
+        <v>14130</v>
+      </c>
+      <c r="D65" s="10">
+        <v>5890</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="10">
+        <f>D65*E65</f>
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>495</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B66" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66">
+        <v>10035</v>
+      </c>
+      <c r="D66" s="10">
+        <v>190</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" ref="F66:F70" si="1">D66*E66</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>496</v>
       </c>
-      <c r="C13">
-        <v>14130</v>
-      </c>
-      <c r="D13" s="10">
-        <v>5890</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <f>D13*E13</f>
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>497</v>
-      </c>
-      <c r="B14" t="s">
-        <v>496</v>
-      </c>
-      <c r="C14">
-        <v>10035</v>
-      </c>
-      <c r="D14" s="10">
-        <v>190</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F18" si="1">D14*E14</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B15" t="s">
-        <v>496</v>
-      </c>
-      <c r="C15">
+      <c r="B67" t="s">
+        <v>494</v>
+      </c>
+      <c r="C67">
         <v>10034</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D67" s="10">
         <v>36</v>
       </c>
-      <c r="E15">
+      <c r="E67">
         <v>4</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F67" s="10">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>499</v>
-      </c>
-      <c r="B16" t="s">
-        <v>496</v>
-      </c>
-      <c r="C16">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>497</v>
+      </c>
+      <c r="B68" t="s">
+        <v>494</v>
+      </c>
+      <c r="C68">
         <v>90051</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D68" s="10">
         <v>25</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>500</v>
-      </c>
-      <c r="B17" t="s">
-        <v>496</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="10">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>501</v>
-      </c>
-      <c r="B18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="10">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>498</v>
+      </c>
+      <c r="B69" t="s">
+        <v>494</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="10">
         <v>30</v>
       </c>
-      <c r="E18">
+      <c r="E69">
         <v>2</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
+      <c r="F69" s="10">
+        <f>D69*E69</f>
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>502</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F36" s="10"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D71" s="10"/>
+      <c r="F71" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E54574-7116-4DAA-8F32-09FF3060B5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -9224,7 +10008,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9232,7 +10016,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9240,7 +10024,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9248,7 +10032,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="558">
   <si>
     <t>Parts List</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Eluxi</t>
   </si>
   <si>
-    <t>Do we want to tell people not to get the OEM version?</t>
-  </si>
-  <si>
     <t>MPB Visible Fibre Laser 642nm, 1W OEM</t>
   </si>
   <si>
@@ -1461,9 +1458,6 @@
     <t>National Instruments</t>
   </si>
   <si>
-    <t>SBC-68A Noise Rejecting, Shielded I/) Connector Block</t>
-  </si>
-  <si>
     <t>782536-01</t>
   </si>
   <si>
@@ -1714,6 +1708,9 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>SBC-68A Noise Rejecting, Shielded I/O Connector Block</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3345,16 +3342,14 @@
         <f>D77*E77</f>
         <v>15717.75</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
         <v>108</v>
-      </c>
-      <c r="B78" t="s">
-        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
@@ -3369,16 +3364,14 @@
         <f>D78*E78</f>
         <v>9036</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
         <v>110</v>
-      </c>
-      <c r="B79" t="s">
-        <v>111</v>
       </c>
       <c r="C79" t="s">
         <v>106</v>
@@ -3402,19 +3395,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>113</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3429,13 +3422,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
         <v>115</v>
       </c>
-      <c r="B83" t="s">
-        <v>116</v>
-      </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3450,13 +3443,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
         <v>117</v>
       </c>
-      <c r="B84" t="s">
-        <v>118</v>
-      </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3471,13 +3464,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
         <v>119</v>
       </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3514,7 +3507,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D91" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="3">
@@ -3531,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -3559,23 +3552,23 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="5">
         <v>528</v>
@@ -3619,19 +3612,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
       </c>
       <c r="D8" s="6">
         <v>140.4</v>
@@ -3646,13 +3639,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
       </c>
       <c r="D9" s="6">
         <v>5.95</v>
@@ -3667,13 +3660,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>132</v>
       </c>
       <c r="D10" s="6">
         <v>16.16</v>
@@ -3688,13 +3681,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
       </c>
       <c r="D11" s="6">
         <v>39.770000000000003</v>
@@ -3709,13 +3702,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
       </c>
       <c r="D12" s="6">
         <v>9.18</v>
@@ -3730,13 +3723,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
       </c>
       <c r="D13" s="6">
         <v>7.96</v>
@@ -3751,13 +3744,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
       </c>
       <c r="D14" s="6">
         <v>4.1900000000000004</v>
@@ -3772,13 +3765,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
       </c>
       <c r="D15" s="6">
         <v>22.73</v>
@@ -3793,13 +3786,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
       </c>
       <c r="D16" s="6">
         <v>12.42</v>
@@ -3814,13 +3807,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
       </c>
       <c r="D17" s="6">
         <v>46.07</v>
@@ -3839,19 +3832,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>148</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
       </c>
       <c r="D20" s="6">
         <v>30.84</v>
@@ -3866,13 +3859,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>150</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
       </c>
       <c r="D21" s="6">
         <v>52.97</v>
@@ -3887,13 +3880,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
       </c>
       <c r="D22" s="6">
         <v>5.95</v>
@@ -3908,13 +3901,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
         <v>152</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>153</v>
       </c>
       <c r="D23" s="6">
         <v>4.01</v>
@@ -3929,13 +3922,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
       </c>
       <c r="D24" s="6">
         <v>9.18</v>
@@ -3948,18 +3941,18 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>137</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
       </c>
       <c r="D25" s="6">
         <v>7.96</v>
@@ -3972,18 +3965,18 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>142</v>
       </c>
       <c r="D26" s="6">
         <v>22.73</v>
@@ -3998,13 +3991,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>155</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>156</v>
       </c>
       <c r="D27" s="6">
         <v>84.41</v>
@@ -4019,13 +4012,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>157</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
       </c>
       <c r="D28" s="6">
         <v>84.41</v>
@@ -4044,19 +4037,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>160</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
       </c>
       <c r="D31" s="6">
         <v>122.55</v>
@@ -4071,13 +4064,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
         <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
       </c>
       <c r="D32" s="6">
         <v>67.16</v>
@@ -4092,13 +4085,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
       </c>
       <c r="D33" s="6">
         <v>5.95</v>
@@ -4113,13 +4106,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>152</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>153</v>
       </c>
       <c r="D34" s="6">
         <v>4.01</v>
@@ -4134,13 +4127,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="6">
         <v>9.18</v>
@@ -4153,18 +4146,18 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>137</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
       </c>
       <c r="D36" s="6">
         <v>7.96</v>
@@ -4177,18 +4170,18 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
       </c>
       <c r="D37" s="6">
         <v>22.73</v>
@@ -4211,19 +4204,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
         <v>166</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>167</v>
       </c>
       <c r="D41" s="6">
         <v>81.97</v>
@@ -4238,13 +4231,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
         <v>129</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
       </c>
       <c r="D42" s="6">
         <v>5.95</v>
@@ -4259,13 +4252,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>152</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>153</v>
       </c>
       <c r="D43" s="6">
         <v>4.01</v>
@@ -4280,13 +4273,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
         <v>135</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>136</v>
       </c>
       <c r="D44" s="6">
         <v>9.18</v>
@@ -4299,18 +4292,18 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
         <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
       </c>
       <c r="D45" s="6">
         <v>7.96</v>
@@ -4323,18 +4316,18 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
         <v>141</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>142</v>
       </c>
       <c r="D46" s="6">
         <v>22.73</v>
@@ -4349,13 +4342,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>168</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>169</v>
       </c>
       <c r="D47" s="6">
         <v>117.41</v>
@@ -4374,19 +4367,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
         <v>171</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>172</v>
       </c>
       <c r="D50" s="6">
         <v>79.569999999999993</v>
@@ -4409,7 +4402,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E53">
         <f>SUM(E3:E51)</f>
@@ -4429,7 +4422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -4445,10 +4438,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4466,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4503,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -4513,13 +4506,13 @@
         <v>2.1</v>
       </c>
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>178</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4532,16 +4525,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
         <v>180</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>181</v>
       </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4557,13 +4550,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="C7" t="s">
-        <v>184</v>
-      </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4579,13 +4572,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
         <v>185</v>
       </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4601,13 +4594,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
         <v>187</v>
       </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4627,23 +4620,23 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
         <v>190</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>191</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>192</v>
-      </c>
-      <c r="D12" t="s">
-        <v>193</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4654,18 +4647,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
         <v>195</v>
       </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4676,21 +4669,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
         <v>197</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>198</v>
       </c>
-      <c r="C14" t="s">
-        <v>199</v>
-      </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4708,13 +4701,13 @@
         <v>3.3</v>
       </c>
       <c r="B15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" t="s">
         <v>200</v>
       </c>
-      <c r="C15" t="s">
-        <v>201</v>
-      </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4727,21 +4720,21 @@
         <v>1150</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>204</v>
       </c>
-      <c r="C16" t="s">
-        <v>205</v>
-      </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -4760,13 +4753,13 @@
         <v>3.5</v>
       </c>
       <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
         <v>206</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>207</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4788,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -4798,10 +4791,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
         <v>210</v>
-      </c>
-      <c r="C20" t="s">
-        <v>211</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -4822,10 +4815,10 @@
         <v>4.2</v>
       </c>
       <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
         <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>213</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -4847,10 +4840,10 @@
         <v>4.3</v>
       </c>
       <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
         <v>214</v>
-      </c>
-      <c r="C22" t="s">
-        <v>215</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -4871,10 +4864,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
         <v>216</v>
-      </c>
-      <c r="C23" t="s">
-        <v>217</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -4895,10 +4888,10 @@
         <v>4.5</v>
       </c>
       <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
         <v>218</v>
-      </c>
-      <c r="C24" t="s">
-        <v>219</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -4919,10 +4912,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
         <v>220</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -4943,20 +4936,20 @@
         <v>4.7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
         <v>220</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -4974,13 +4967,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
         <v>224</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>225</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -5001,20 +4994,20 @@
         <v>4.8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
         <v>220</v>
-      </c>
-      <c r="C30" t="s">
-        <v>221</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -5032,13 +5025,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
         <v>229</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>230</v>
-      </c>
-      <c r="C31" t="s">
-        <v>231</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -5059,20 +5052,20 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
         <v>233</v>
       </c>
-      <c r="B33" t="s">
-        <v>234</v>
-      </c>
       <c r="C33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -5091,13 +5084,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
         <v>235</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" t="s">
-        <v>237</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -5118,23 +5111,23 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="s">
         <v>239</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>240</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>241</v>
-      </c>
-      <c r="D36" t="s">
-        <v>242</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5149,10 +5142,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
         <v>243</v>
-      </c>
-      <c r="B37" t="s">
-        <v>244</v>
       </c>
       <c r="C37" t="s">
         <v>93</v>
@@ -5171,10 +5164,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" t="s">
         <v>245</v>
-      </c>
-      <c r="D38" t="s">
-        <v>246</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -5190,20 +5183,20 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
         <v>210</v>
-      </c>
-      <c r="C40" t="s">
-        <v>211</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -5221,13 +5214,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
         <v>249</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>250</v>
-      </c>
-      <c r="C41" t="s">
-        <v>251</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -5245,13 +5238,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" t="s">
         <v>252</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>253</v>
-      </c>
-      <c r="C42" t="s">
-        <v>254</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -5269,20 +5262,20 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
         <v>257</v>
-      </c>
-      <c r="B44" t="s">
-        <v>258</v>
       </c>
       <c r="C44" t="s">
         <v>93</v>
@@ -5301,10 +5294,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
         <v>259</v>
-      </c>
-      <c r="B45" t="s">
-        <v>260</v>
       </c>
       <c r="C45" t="s">
         <v>93</v>
@@ -5323,10 +5316,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" t="s">
         <v>261</v>
-      </c>
-      <c r="C46" t="s">
-        <v>262</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -5344,7 +5337,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10">
@@ -5354,13 +5347,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" t="s">
         <v>264</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>265</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -5378,13 +5371,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s">
         <v>267</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>268</v>
-      </c>
-      <c r="C49" t="s">
-        <v>269</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -5409,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -5419,20 +5412,20 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" t="s">
         <v>272</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>273</v>
-      </c>
-      <c r="C53" t="s">
-        <v>274</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -5450,13 +5443,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
         <v>275</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>276</v>
-      </c>
-      <c r="C54" t="s">
-        <v>277</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -5477,20 +5470,20 @@
         <v>5.2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" t="s">
         <v>279</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>280</v>
-      </c>
-      <c r="C56" t="s">
-        <v>281</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -5508,13 +5501,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" t="s">
         <v>282</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>283</v>
-      </c>
-      <c r="C57" t="s">
-        <v>284</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -5535,20 +5528,20 @@
         <v>5.3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" t="s">
         <v>286</v>
       </c>
-      <c r="B59" t="s">
-        <v>287</v>
-      </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -5566,13 +5559,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
         <v>288</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>289</v>
-      </c>
-      <c r="C60" t="s">
-        <v>290</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -5593,20 +5586,20 @@
         <v>5.4</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" t="s">
         <v>291</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>292</v>
-      </c>
-      <c r="C62" t="s">
-        <v>293</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -5624,13 +5617,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" t="s">
         <v>294</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>295</v>
-      </c>
-      <c r="C63" t="s">
-        <v>296</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -5648,13 +5641,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -5673,13 +5666,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -5698,13 +5691,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" t="s">
         <v>299</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>300</v>
-      </c>
-      <c r="C66" t="s">
-        <v>301</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -5723,13 +5716,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" t="s">
         <v>302</v>
       </c>
-      <c r="B67" t="s">
-        <v>303</v>
-      </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -5748,23 +5741,23 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" t="s">
         <v>306</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>307</v>
-      </c>
-      <c r="C69" t="s">
-        <v>308</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
@@ -5783,13 +5776,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B70" t="s">
         <v>309</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>310</v>
-      </c>
-      <c r="C70" t="s">
-        <v>311</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -5807,13 +5800,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" t="s">
         <v>312</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>313</v>
-      </c>
-      <c r="C71" t="s">
-        <v>314</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
@@ -5831,10 +5824,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -5844,13 +5837,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" t="s">
         <v>317</v>
-      </c>
-      <c r="B73" t="s">
-        <v>313</v>
-      </c>
-      <c r="C73" t="s">
-        <v>318</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
@@ -5868,13 +5861,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" t="s">
         <v>319</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>320</v>
-      </c>
-      <c r="C74" t="s">
-        <v>321</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -5892,13 +5885,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" t="s">
         <v>322</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>323</v>
-      </c>
-      <c r="C75" t="s">
-        <v>324</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
@@ -5919,7 +5912,7 @@
         <v>5.7</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -5927,13 +5920,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" t="s">
         <v>326</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>327</v>
-      </c>
-      <c r="C77" t="s">
-        <v>328</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
@@ -5951,13 +5944,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" t="s">
         <v>329</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>330</v>
-      </c>
-      <c r="C78" t="s">
-        <v>331</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
@@ -5975,13 +5968,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" t="s">
         <v>332</v>
       </c>
-      <c r="B79" t="s">
-        <v>333</v>
-      </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
@@ -6002,10 +5995,10 @@
         <v>5.8</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" t="s">
         <v>334</v>
-      </c>
-      <c r="C80" t="s">
-        <v>335</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -6026,10 +6019,10 @@
         <v>5.9</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C81" t="s">
         <v>336</v>
-      </c>
-      <c r="C81" t="s">
-        <v>337</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -6047,17 +6040,17 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" t="s">
         <v>339</v>
-      </c>
-      <c r="C83" t="s">
-        <v>340</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
@@ -6071,15 +6064,15 @@
         <v>0</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" t="s">
         <v>342</v>
-      </c>
-      <c r="C84" t="s">
-        <v>343</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -6098,10 +6091,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
+        <v>343</v>
+      </c>
+      <c r="C85" t="s">
         <v>344</v>
-      </c>
-      <c r="C85" t="s">
-        <v>345</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -6126,7 +6119,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -6136,13 +6129,13 @@
         <v>6.1</v>
       </c>
       <c r="B88" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" t="s">
         <v>346</v>
       </c>
-      <c r="C88" t="s">
-        <v>347</v>
-      </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6153,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -6161,20 +6154,20 @@
         <v>6.3</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" t="s">
         <v>349</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>350</v>
-      </c>
-      <c r="C90" t="s">
-        <v>351</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -6192,13 +6185,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" t="s">
         <v>352</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>353</v>
-      </c>
-      <c r="C91" t="s">
-        <v>354</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -6219,20 +6212,20 @@
         <v>6.4</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B93" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" t="s">
         <v>210</v>
-      </c>
-      <c r="C93" t="s">
-        <v>211</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -6250,10 +6243,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" t="s">
         <v>292</v>
-      </c>
-      <c r="C94" t="s">
-        <v>293</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -6271,10 +6264,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
@@ -6292,10 +6285,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
+        <v>356</v>
+      </c>
+      <c r="C96" t="s">
         <v>357</v>
-      </c>
-      <c r="C96" t="s">
-        <v>358</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -6316,20 +6309,20 @@
         <v>6.5</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" t="s">
         <v>360</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>361</v>
-      </c>
-      <c r="C98" t="s">
-        <v>362</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -6347,13 +6340,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" t="s">
         <v>363</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>364</v>
-      </c>
-      <c r="C99" t="s">
-        <v>365</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -6371,13 +6364,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" t="s">
         <v>366</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>367</v>
-      </c>
-      <c r="C100" t="s">
-        <v>368</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
@@ -6398,17 +6391,17 @@
         <v>6.6</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>369</v>
+      </c>
+      <c r="B102" t="s">
         <v>370</v>
-      </c>
-      <c r="B102" t="s">
-        <v>371</v>
       </c>
       <c r="C102" t="s">
         <v>93</v>
@@ -6427,16 +6420,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" t="s">
         <v>372</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>373</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>374</v>
-      </c>
-      <c r="D103" t="s">
-        <v>375</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6451,10 +6444,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>375</v>
+      </c>
+      <c r="B104" t="s">
         <v>376</v>
-      </c>
-      <c r="B104" t="s">
-        <v>377</v>
       </c>
       <c r="C104" t="s">
         <v>93</v>
@@ -6476,23 +6469,23 @@
         <v>6.7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>378</v>
+      </c>
+      <c r="B106" t="s">
         <v>379</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>380</v>
       </c>
-      <c r="C106" t="s">
-        <v>381</v>
-      </c>
       <c r="D106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6507,16 +6500,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B107" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C107" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6532,20 +6525,20 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B108" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" t="s">
         <v>384</v>
       </c>
-      <c r="C109" t="s">
-        <v>385</v>
-      </c>
       <c r="D109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6560,13 +6553,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C110">
         <v>1438</v>
       </c>
       <c r="D110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6581,13 +6574,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" t="s">
         <v>388</v>
       </c>
-      <c r="C111" t="s">
-        <v>389</v>
-      </c>
       <c r="D111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F111" s="10">
         <v>0.747</v>
@@ -6599,13 +6592,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" t="s">
         <v>390</v>
       </c>
-      <c r="C112" t="s">
-        <v>391</v>
-      </c>
       <c r="D112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6620,13 +6613,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C113" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6641,13 +6634,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
+        <v>501</v>
+      </c>
+      <c r="C114" t="s">
+        <v>502</v>
+      </c>
+      <c r="D114" t="s">
         <v>503</v>
-      </c>
-      <c r="C114" t="s">
-        <v>504</v>
-      </c>
-      <c r="D114" t="s">
-        <v>505</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6662,13 +6655,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
+        <v>391</v>
+      </c>
+      <c r="C115" t="s">
         <v>392</v>
       </c>
-      <c r="C115" t="s">
-        <v>393</v>
-      </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6683,7 +6676,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C116" t="s">
         <v>93</v>
@@ -6703,13 +6696,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
+        <v>394</v>
+      </c>
+      <c r="C117" t="s">
         <v>395</v>
       </c>
-      <c r="C117" t="s">
-        <v>396</v>
-      </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F117" s="10">
         <v>11.52</v>
@@ -6721,13 +6714,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
+        <v>396</v>
+      </c>
+      <c r="C118" t="s">
         <v>397</v>
       </c>
-      <c r="C118" t="s">
-        <v>398</v>
-      </c>
       <c r="D118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F118" s="10">
         <v>3.1</v>
@@ -6739,13 +6732,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
+        <v>398</v>
+      </c>
+      <c r="C119" t="s">
         <v>399</v>
       </c>
-      <c r="C119" t="s">
-        <v>400</v>
-      </c>
       <c r="D119" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F119" s="10">
         <v>3.1</v>
@@ -6757,13 +6750,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
+        <v>400</v>
+      </c>
+      <c r="C120" t="s">
         <v>401</v>
       </c>
-      <c r="C120" t="s">
-        <v>402</v>
-      </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F120" s="10">
         <v>6.42</v>
@@ -6775,10 +6768,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D121" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10">
@@ -6786,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -6798,27 +6791,27 @@
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B124" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
+        <v>406</v>
+      </c>
+      <c r="C125" t="s">
         <v>407</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>408</v>
-      </c>
-      <c r="D125" t="s">
-        <v>409</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6834,10 +6827,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" t="s">
         <v>410</v>
-      </c>
-      <c r="C126" t="s">
-        <v>411</v>
       </c>
       <c r="D126" t="s">
         <v>11</v>
@@ -6855,10 +6848,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" t="s">
         <v>412</v>
-      </c>
-      <c r="C127" t="s">
-        <v>413</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -6873,10 +6866,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
@@ -6894,10 +6887,10 @@
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
@@ -6915,10 +6908,10 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
@@ -6937,10 +6930,10 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" t="s">
         <v>253</v>
-      </c>
-      <c r="C131" t="s">
-        <v>254</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
@@ -6958,10 +6951,10 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
+        <v>416</v>
+      </c>
+      <c r="C132" t="s">
         <v>417</v>
-      </c>
-      <c r="C132" t="s">
-        <v>418</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
@@ -6979,7 +6972,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C133" t="s">
         <v>93</v>
@@ -7002,20 +6995,20 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
+        <v>420</v>
+      </c>
+      <c r="C136" t="s">
         <v>421</v>
       </c>
-      <c r="C136" t="s">
-        <v>422</v>
-      </c>
       <c r="D136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7023,18 +7016,18 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
+        <v>422</v>
+      </c>
+      <c r="C137" t="s">
         <v>423</v>
       </c>
-      <c r="C137" t="s">
-        <v>424</v>
-      </c>
       <c r="D137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7042,18 +7035,18 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
+        <v>424</v>
+      </c>
+      <c r="C138" t="s">
         <v>425</v>
       </c>
-      <c r="C138" t="s">
-        <v>426</v>
-      </c>
       <c r="D138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7061,7 +7054,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.35">
@@ -7070,17 +7063,17 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
+        <v>427</v>
+      </c>
+      <c r="C141" t="s">
         <v>428</v>
-      </c>
-      <c r="C141" t="s">
-        <v>429</v>
       </c>
       <c r="D141" t="s">
         <v>57</v>
@@ -7095,10 +7088,10 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
+        <v>429</v>
+      </c>
+      <c r="C142" t="s">
         <v>430</v>
-      </c>
-      <c r="C142" t="s">
-        <v>431</v>
       </c>
       <c r="D142" t="s">
         <v>57</v>
@@ -7113,10 +7106,10 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
+        <v>431</v>
+      </c>
+      <c r="C143" t="s">
         <v>432</v>
-      </c>
-      <c r="C143" t="s">
-        <v>433</v>
       </c>
       <c r="D143" t="s">
         <v>57</v>
@@ -7131,10 +7124,10 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
+        <v>433</v>
+      </c>
+      <c r="C144" t="s">
         <v>434</v>
-      </c>
-      <c r="C144" t="s">
-        <v>435</v>
       </c>
       <c r="D144" t="s">
         <v>57</v>
@@ -7149,10 +7142,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
+        <v>435</v>
+      </c>
+      <c r="C145" t="s">
         <v>436</v>
-      </c>
-      <c r="C145" t="s">
-        <v>437</v>
       </c>
       <c r="D145" t="s">
         <v>57</v>
@@ -7167,10 +7160,10 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
+        <v>437</v>
+      </c>
+      <c r="C146" t="s">
         <v>438</v>
-      </c>
-      <c r="C146" t="s">
-        <v>439</v>
       </c>
       <c r="D146" t="s">
         <v>57</v>
@@ -7185,10 +7178,10 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
+        <v>439</v>
+      </c>
+      <c r="C147" t="s">
         <v>440</v>
-      </c>
-      <c r="C147" t="s">
-        <v>441</v>
       </c>
       <c r="D147" t="s">
         <v>57</v>
@@ -7203,10 +7196,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" t="s">
         <v>442</v>
-      </c>
-      <c r="C148" t="s">
-        <v>443</v>
       </c>
       <c r="D148" t="s">
         <v>57</v>
@@ -7221,10 +7214,10 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
+        <v>443</v>
+      </c>
+      <c r="C149" t="s">
         <v>444</v>
-      </c>
-      <c r="C149" t="s">
-        <v>445</v>
       </c>
       <c r="D149" t="s">
         <v>57</v>
@@ -7261,14 +7254,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -7286,18 +7279,18 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
         <v>346</v>
       </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7308,22 +7301,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
         <v>350</v>
-      </c>
-      <c r="B5" t="s">
-        <v>351</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7341,10 +7334,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="s">
         <v>353</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7362,17 +7355,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>211</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7390,10 +7383,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
         <v>292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>293</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7411,10 +7404,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -7432,10 +7425,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" t="s">
         <v>357</v>
-      </c>
-      <c r="B11" t="s">
-        <v>358</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7453,17 +7446,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
         <v>361</v>
-      </c>
-      <c r="B13" t="s">
-        <v>362</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7481,10 +7474,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
         <v>364</v>
-      </c>
-      <c r="B14" t="s">
-        <v>365</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7502,10 +7495,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
         <v>367</v>
-      </c>
-      <c r="B15" t="s">
-        <v>368</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7523,14 +7516,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -7549,13 +7542,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" t="s">
         <v>373</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>374</v>
-      </c>
-      <c r="C18" t="s">
-        <v>375</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7570,7 +7563,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -7589,20 +7582,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" t="s">
         <v>380</v>
       </c>
-      <c r="B21" t="s">
-        <v>381</v>
-      </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7617,13 +7610,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7639,20 +7632,20 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" t="s">
         <v>384</v>
       </c>
-      <c r="B24" t="s">
-        <v>385</v>
-      </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7667,13 +7660,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7688,13 +7681,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" t="s">
         <v>388</v>
       </c>
-      <c r="B26" t="s">
-        <v>389</v>
-      </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7706,13 +7699,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B27" t="s">
         <v>390</v>
       </c>
-      <c r="B27" t="s">
-        <v>391</v>
-      </c>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7727,13 +7720,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7748,13 +7741,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" t="s">
         <v>503</v>
-      </c>
-      <c r="B29" t="s">
-        <v>504</v>
-      </c>
-      <c r="C29" t="s">
-        <v>505</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7769,13 +7762,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" t="s">
         <v>392</v>
       </c>
-      <c r="B30" t="s">
-        <v>393</v>
-      </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7790,7 +7783,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -7810,13 +7803,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32" t="s">
         <v>395</v>
       </c>
-      <c r="B32" t="s">
-        <v>396</v>
-      </c>
       <c r="C32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E32" s="10">
         <v>11.52</v>
@@ -7828,13 +7821,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B33" t="s">
         <v>397</v>
       </c>
-      <c r="B33" t="s">
-        <v>398</v>
-      </c>
       <c r="C33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E33" s="10">
         <v>3.1</v>
@@ -7846,13 +7839,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34" t="s">
         <v>399</v>
       </c>
-      <c r="B34" t="s">
-        <v>400</v>
-      </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E34" s="10">
         <v>3.1</v>
@@ -7864,13 +7857,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B35" t="s">
         <v>401</v>
       </c>
-      <c r="B35" t="s">
-        <v>402</v>
-      </c>
       <c r="C35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E35" s="10">
         <v>6.42</v>
@@ -7882,10 +7875,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -7893,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -7929,14 +7922,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -7954,18 +7947,18 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" t="s">
         <v>407</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>408</v>
-      </c>
-      <c r="C3" t="s">
-        <v>409</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7981,10 +7974,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
         <v>410</v>
-      </c>
-      <c r="B4" t="s">
-        <v>411</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8002,10 +7995,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
         <v>412</v>
-      </c>
-      <c r="B5" t="s">
-        <v>413</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8020,10 +8013,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -8041,10 +8034,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8062,10 +8055,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8084,10 +8077,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
         <v>253</v>
-      </c>
-      <c r="B9" t="s">
-        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -8105,10 +8098,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" t="s">
         <v>417</v>
-      </c>
-      <c r="B10" t="s">
-        <v>418</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8126,7 +8119,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8153,7 +8146,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8189,20 +8182,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>447</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>448</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8214,13 +8207,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8236,13 +8229,13 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>451</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8257,13 +8250,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>453</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8278,13 +8271,13 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>455</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8299,13 +8292,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>457</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>458</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8320,13 +8313,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>460</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8355,27 +8348,21 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E13" s="17"/>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" t="s">
         <v>462</v>
-      </c>
-      <c r="B15" t="s">
-        <v>463</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8393,10 +8380,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" t="s">
         <v>464</v>
-      </c>
-      <c r="B16" t="s">
-        <v>465</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8416,10 +8403,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" t="s">
         <v>466</v>
-      </c>
-      <c r="B17" t="s">
-        <v>467</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -8437,10 +8424,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" t="s">
         <v>468</v>
-      </c>
-      <c r="B18" t="s">
-        <v>469</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -8466,7 +8453,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8476,13 +8463,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B21" t="s">
         <v>471</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>472</v>
-      </c>
-      <c r="C21" t="s">
-        <v>473</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8497,13 +8484,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8519,13 +8506,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8545,7 +8532,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
@@ -8553,7 +8540,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8585,7 +8572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8619,14 +8606,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8651,14 +8638,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8676,7 +8663,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8694,7 +8681,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8711,7 +8698,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8728,7 +8715,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -8745,7 +8732,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8762,7 +8749,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -8779,7 +8766,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -8796,7 +8783,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -8813,7 +8800,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -8830,7 +8817,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -8847,7 +8834,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -8864,7 +8851,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -8881,7 +8868,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -8898,13 +8885,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -8919,12 +8906,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -8941,7 +8928,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -8958,7 +8945,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -8975,7 +8962,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -8992,7 +8979,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -9009,7 +8996,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -9026,7 +9013,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -9043,7 +9030,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9060,13 +9047,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -9081,12 +9068,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -9103,7 +9090,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -9120,7 +9107,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -9137,7 +9124,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
@@ -9154,7 +9141,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9171,7 +9158,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9189,7 +9176,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9206,13 +9193,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9227,14 +9214,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
@@ -9252,7 +9239,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -9270,7 +9257,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -9288,7 +9275,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9306,7 +9293,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9324,12 +9311,12 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -9346,7 +9333,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -9363,7 +9350,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9380,7 +9367,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9398,7 +9385,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9420,20 +9407,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C58" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9448,13 +9435,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C59" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9469,13 +9456,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C60" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9490,22 +9477,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -9514,17 +9501,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B65" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9542,10 +9529,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9563,10 +9550,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B67" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9584,10 +9571,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9605,10 +9592,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -9655,7 +9642,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -9673,12 +9660,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9686,7 +9673,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9694,7 +9681,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9702,7 +9689,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamus-adm\Documents\github\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-9405" yWindow="-21705" windowWidth="38625" windowHeight="21225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="570">
   <si>
     <t>Parts List</t>
   </si>
@@ -1711,6 +1711,42 @@
   </si>
   <si>
     <t>SBC-68A Noise Rejecting, Shielded I/O Connector Block</t>
+  </si>
+  <si>
+    <t>ID25/M</t>
+  </si>
+  <si>
+    <t>Ø1/2" Post Holder</t>
+  </si>
+  <si>
+    <t>PH40/M</t>
+  </si>
+  <si>
+    <t>Ø1/2" Post</t>
+  </si>
+  <si>
+    <t>M6 Setscrew (5 pack)</t>
+  </si>
+  <si>
+    <t>SS6MS12</t>
+  </si>
+  <si>
+    <t>R2M</t>
+  </si>
+  <si>
+    <t>Post Collar</t>
+  </si>
+  <si>
+    <t>Post Collar (5 pack)</t>
+  </si>
+  <si>
+    <t>R2/M-P5</t>
+  </si>
+  <si>
+    <t>R2/M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Collar </t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1759,7 @@
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1797,6 +1833,12 @@
       <name val="Verdana"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1819,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1841,6 +1883,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2156,31 +2199,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2241,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2220,11 +2263,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2275,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2297,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +2319,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2298,7 +2341,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2320,7 +2363,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2385,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2365,12 +2408,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2379,7 +2422,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2401,7 +2444,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2423,7 +2466,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2445,7 +2488,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2467,11 +2510,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2479,7 +2522,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2501,7 +2544,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2523,7 +2566,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2545,7 +2588,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2567,7 +2610,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2589,15 +2632,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2605,7 +2648,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2627,7 +2670,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2651,7 +2694,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2673,7 +2716,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2695,7 +2738,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2717,21 +2760,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2752,7 +2795,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +2816,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2794,7 +2837,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2815,7 +2858,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2836,31 +2879,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2881,7 +2924,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2902,7 +2945,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2923,7 +2966,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2944,7 +2987,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2965,576 +3008,684 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="F51" s="14">
-        <f>D51*E51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="19">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45.65</v>
+      </c>
+      <c r="F52" s="14">
+        <f>E52*D52</f>
+        <v>45.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="19">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>5.58</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" ref="F53:F56" si="1">E53*D53</f>
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="19">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="19">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>4.58</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="1"/>
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="19">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3.85</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="1"/>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="C58" s="4"/>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54">
+      <c r="C59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
         <v>24</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E59" s="6">
         <v>1.58</v>
       </c>
-      <c r="F54" s="14">
-        <f>D54*E54</f>
+      <c r="F59" s="14">
+        <f>D59*E59</f>
         <v>37.92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="C61" s="4"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>79</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C62" t="s">
         <v>57</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="12">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12">
         <v>325</v>
       </c>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>80</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>57</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12">
         <v>325</v>
       </c>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>81</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>57</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="12">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12">
         <v>325</v>
       </c>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>82</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B65" t="s">
         <v>62</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>57</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="12">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12">
         <v>325</v>
       </c>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="C67" s="4"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>84</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
         <v>208</v>
-      </c>
-      <c r="F63" s="14">
-        <f>D63*E63</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="6">
-        <v>208</v>
-      </c>
-      <c r="F64" s="14">
-        <f>D64*E64</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
-        <v>208</v>
-      </c>
-      <c r="F65" s="14">
-        <f>D65*E65</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E66" s="6"/>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>192.2</v>
       </c>
       <c r="F68" s="14">
         <f>D68*E68</f>
-        <v>192.2</v>
-      </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="6">
-        <v>192.2</v>
+        <v>208</v>
       </c>
       <c r="F69" s="14">
         <f>D69*E69</f>
-        <v>192.2</v>
-      </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
+      <c r="E70" s="6">
+        <v>208</v>
+      </c>
+      <c r="F70" s="14">
+        <f>D70*E70</f>
+        <v>208</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E73" s="6"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>192.2</v>
+      </c>
+      <c r="F73" s="14">
+        <f>D73*E73</f>
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6">
+        <v>192.2</v>
+      </c>
+      <c r="F74" s="14">
+        <f>D74*E74</f>
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="6"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+      <c r="E79" s="6"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B75">
+      <c r="B80">
         <v>11098</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C80" t="s">
         <v>102</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" s="6">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6">
         <v>4350</v>
       </c>
-      <c r="F75" s="14">
-        <f>D75*E75</f>
+      <c r="F80" s="14">
+        <f>D80*E80</f>
         <v>4350</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B76">
+      <c r="B81">
         <v>11101</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>102</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" s="6">
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6">
         <v>7650</v>
       </c>
-      <c r="F76" s="14">
-        <f>D76*E76</f>
+      <c r="F81" s="14">
+        <f>D81*E81</f>
         <v>7650</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>105</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
         <v>106</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
         <v>15717.75</v>
-      </c>
-      <c r="F77" s="14">
-        <f>D77*E77</f>
-        <v>15717.75</v>
-      </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" s="6">
-        <v>9036</v>
-      </c>
-      <c r="F78" s="14">
-        <f>D78*E78</f>
-        <v>9036</v>
-      </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" s="6">
-        <v>350</v>
-      </c>
-      <c r="F79" s="14">
-        <f>D79*E79</f>
-        <v>700</v>
-      </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" s="6">
-        <v>2250</v>
       </c>
       <c r="F82" s="14">
         <f>D82*E82</f>
+        <v>15717.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>9036</v>
+      </c>
+      <c r="F83" s="14">
+        <f>D83*E83</f>
+        <v>9036</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6">
+        <v>350</v>
+      </c>
+      <c r="F84" s="14">
+        <f>D84*E84</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
         <v>2250</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="F87" s="14">
+        <f>D87*E87</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>115</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C88" t="s">
         <v>113</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
         <v>3035</v>
       </c>
-      <c r="F83" s="14">
-        <f t="shared" ref="F83" si="1">D83*E83</f>
+      <c r="F88" s="14">
+        <f t="shared" ref="F88" si="2">D88*E88</f>
         <v>3035</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>117</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C89" t="s">
         <v>113</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" s="6">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
         <v>16</v>
       </c>
-      <c r="F84" s="14">
-        <f t="shared" ref="F84:F85" si="2">D84*E84</f>
+      <c r="F89" s="14">
+        <f t="shared" ref="F89:F90" si="3">D89*E89</f>
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" t="s">
         <v>119</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C90" t="s">
         <v>113</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
         <v>26</v>
       </c>
-      <c r="F85" s="14">
-        <f t="shared" si="2"/>
+      <c r="F90" s="14">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E89" s="12"/>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D91" s="1" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="12"/>
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3">
-        <f>SUM(F5:F88)</f>
-        <v>47894.03</v>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3">
+        <f>SUM(F5:F93)</f>
+        <v>47957.53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3555,12 +3706,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
@@ -3581,7 +3732,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3602,21 +3753,21 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
@@ -3637,7 +3788,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -3658,7 +3809,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -3679,7 +3830,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>132</v>
       </c>
@@ -3700,7 +3851,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
@@ -3721,7 +3872,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
@@ -3742,7 +3893,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
@@ -3763,7 +3914,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>140</v>
       </c>
@@ -3784,7 +3935,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
@@ -3805,7 +3956,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
@@ -3826,136 +3977,129 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="D18" s="6">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <f>D18*E18</f>
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>30.84</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F28" si="1">D20*E20</f>
-        <v>61.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="6">
-        <v>52.97</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" s="6">
+        <f t="shared" ref="F21:F29" si="1">D21*E21</f>
+        <v>61.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6">
+        <v>52.97</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>5.95</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>4.01</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>9.18</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="6">
-        <v>7.96</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3968,57 +4112,60 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D26" s="6">
-        <v>22.73</v>
+        <v>7.96</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="1"/>
-        <v>45.46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D27" s="6">
-        <v>84.41</v>
+        <v>22.73</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="1"/>
-        <v>84.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="6">
         <v>84.41</v>
@@ -4031,386 +4178,464 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="6">
+        <v>84.41</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>84.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <f>D30*E30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D33" s="6">
         <v>122.55</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" ref="F31:F37" si="2">D31*E31</f>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" ref="F33:F39" si="2">D33*E33</f>
         <v>122.55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D34" s="6">
         <v>67.16</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
         <v>67.16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D35" s="6">
         <v>5.95</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
         <v>5.95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D36" s="6">
         <v>4.01</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
         <v>4.01</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D37" s="6">
         <v>9.18</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D38" s="6">
         <v>7.96</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D39" s="6">
         <v>22.73</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="2"/>
         <v>22.73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <f>D40*E40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D43" s="6">
         <v>81.97</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" ref="F41:F47" si="3">D41*E41</f>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43:F49" si="3">D43*E43</f>
         <v>81.97</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D44" s="6">
         <v>5.95</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>5.95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D45" s="6">
         <v>4.01</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="3"/>
         <v>4.01</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D46" s="6">
         <v>9.18</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>0</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F46" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D47" s="6">
         <v>7.96</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <v>0</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D48" s="6">
         <v>22.73</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
         <f t="shared" si="3"/>
         <v>22.73</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D49" s="6">
         <v>117.41</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="3"/>
         <v>117.41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E50" s="19">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14">
+        <f>D50*E50</f>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D53" s="6">
         <v>79.569999999999993</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
-        <f>D50*E50</f>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <f>D53*E53</f>
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="D51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="D54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E53">
-        <f>SUM(E3:E51)</f>
-        <v>36</v>
-      </c>
-      <c r="F53" s="6">
-        <f>SUM(F3:F51)</f>
-        <v>1884.7100000000005</v>
+      <c r="E56">
+        <f>SUM(E3:E54)</f>
+        <v>38</v>
+      </c>
+      <c r="F56" s="6">
+        <f>SUM(F3:F54)</f>
+        <v>1907.8800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4426,17 +4651,17 @@
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -4462,7 +4687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4486,12 +4711,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4501,7 +4726,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -4523,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -4545,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -4567,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.2000000000000002</v>
       </c>
@@ -4589,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -4611,11 +4836,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4625,7 +4850,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -4650,7 +4875,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>194</v>
       </c>
@@ -4672,7 +4897,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -4696,7 +4921,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.3</v>
       </c>
@@ -4723,7 +4948,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -4748,7 +4973,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.5</v>
       </c>
@@ -4772,11 +4997,11 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4786,7 +5011,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.0999999999999996</v>
       </c>
@@ -4810,7 +5035,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.2</v>
       </c>
@@ -4835,7 +5060,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.3</v>
       </c>
@@ -4859,7 +5084,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.4000000000000004</v>
       </c>
@@ -4883,7 +5108,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.5</v>
       </c>
@@ -4907,7 +5132,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -4931,7 +5156,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.7</v>
       </c>
@@ -4941,7 +5166,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>222</v>
       </c>
@@ -4965,7 +5190,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -4989,7 +5214,7 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.8</v>
       </c>
@@ -4999,7 +5224,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>227</v>
       </c>
@@ -5023,7 +5248,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -5047,7 +5272,7 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.9000000000000004</v>
       </c>
@@ -5057,7 +5282,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -5082,7 +5307,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -5106,7 +5331,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.0999999999999996</v>
       </c>
@@ -5116,7 +5341,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -5140,7 +5365,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -5162,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>244</v>
       </c>
@@ -5178,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.1100000000000003</v>
       </c>
@@ -5188,7 +5413,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>247</v>
       </c>
@@ -5212,7 +5437,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>248</v>
       </c>
@@ -5236,7 +5461,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>251</v>
       </c>
@@ -5260,7 +5485,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>254</v>
       </c>
@@ -5270,7 +5495,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>256</v>
       </c>
@@ -5292,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -5314,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>260</v>
       </c>
@@ -5335,7 +5560,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>262</v>
       </c>
@@ -5345,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>263</v>
       </c>
@@ -5369,7 +5594,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -5393,11 +5618,11 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -5407,7 +5632,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.0999999999999996</v>
       </c>
@@ -5417,7 +5642,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>271</v>
       </c>
@@ -5441,7 +5666,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>274</v>
       </c>
@@ -5465,7 +5690,7 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.2</v>
       </c>
@@ -5475,7 +5700,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>278</v>
       </c>
@@ -5499,7 +5724,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>281</v>
       </c>
@@ -5523,7 +5748,7 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.3</v>
       </c>
@@ -5533,7 +5758,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>285</v>
       </c>
@@ -5557,7 +5782,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>287</v>
       </c>
@@ -5581,7 +5806,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.4</v>
       </c>
@@ -5591,7 +5816,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>290</v>
       </c>
@@ -5615,7 +5840,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>293</v>
       </c>
@@ -5639,7 +5864,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>296</v>
       </c>
@@ -5664,7 +5889,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>297</v>
       </c>
@@ -5689,7 +5914,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>298</v>
       </c>
@@ -5714,7 +5939,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>301</v>
       </c>
@@ -5739,7 +5964,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -5749,7 +5974,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>305</v>
       </c>
@@ -5774,7 +5999,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>308</v>
       </c>
@@ -5798,7 +6023,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -5822,7 +6047,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>314</v>
       </c>
@@ -5835,7 +6060,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>316</v>
       </c>
@@ -5859,7 +6084,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>318</v>
       </c>
@@ -5883,7 +6108,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>321</v>
       </c>
@@ -5907,7 +6132,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.7</v>
       </c>
@@ -5918,7 +6143,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>325</v>
       </c>
@@ -5942,7 +6167,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>328</v>
       </c>
@@ -5966,7 +6191,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>331</v>
       </c>
@@ -5990,7 +6215,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5.8</v>
       </c>
@@ -6014,7 +6239,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.9</v>
       </c>
@@ -6038,14 +6263,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>337</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>338</v>
       </c>
@@ -6067,7 +6292,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>341</v>
       </c>
@@ -6089,7 +6314,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>343</v>
       </c>
@@ -6110,11 +6335,11 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -6124,7 +6349,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.1</v>
       </c>
@@ -6149,7 +6374,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6.3</v>
       </c>
@@ -6159,7 +6384,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>348</v>
       </c>
@@ -6183,7 +6408,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>351</v>
       </c>
@@ -6207,7 +6432,7 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6.4</v>
       </c>
@@ -6217,7 +6442,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>354</v>
       </c>
@@ -6241,7 +6466,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>291</v>
       </c>
@@ -6262,7 +6487,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>355</v>
       </c>
@@ -6283,7 +6508,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>356</v>
       </c>
@@ -6304,7 +6529,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6.5</v>
       </c>
@@ -6314,7 +6539,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>359</v>
       </c>
@@ -6338,7 +6563,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>362</v>
       </c>
@@ -6362,7 +6587,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>365</v>
       </c>
@@ -6386,7 +6611,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6.6</v>
       </c>
@@ -6396,7 +6621,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>369</v>
       </c>
@@ -6418,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>371</v>
       </c>
@@ -6442,7 +6667,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>375</v>
       </c>
@@ -6464,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.7</v>
       </c>
@@ -6474,7 +6699,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>378</v>
       </c>
@@ -6498,7 +6723,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>381</v>
       </c>
@@ -6523,14 +6748,14 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>382</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>383</v>
       </c>
@@ -6551,7 +6776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>385</v>
       </c>
@@ -6572,7 +6797,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>387</v>
       </c>
@@ -6590,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>389</v>
       </c>
@@ -6611,7 +6836,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>505</v>
       </c>
@@ -6632,7 +6857,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>501</v>
       </c>
@@ -6653,7 +6878,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>391</v>
       </c>
@@ -6674,7 +6899,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>393</v>
       </c>
@@ -6694,7 +6919,7 @@
       </c>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>394</v>
       </c>
@@ -6712,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>396</v>
       </c>
@@ -6730,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>398</v>
       </c>
@@ -6748,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>400</v>
       </c>
@@ -6766,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>402</v>
       </c>
@@ -6782,11 +7007,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -6796,14 +7021,14 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
         <v>405</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>406</v>
       </c>
@@ -6825,7 +7050,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>409</v>
       </c>
@@ -6846,7 +7071,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>411</v>
       </c>
@@ -6864,7 +7089,7 @@
       </c>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>413</v>
       </c>
@@ -6885,7 +7110,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>294</v>
       </c>
@@ -6906,7 +7131,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>415</v>
       </c>
@@ -6928,7 +7153,7 @@
       </c>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>252</v>
       </c>
@@ -6949,7 +7174,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>416</v>
       </c>
@@ -6970,7 +7195,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
         <v>418</v>
       </c>
@@ -6989,18 +7214,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
         <v>419</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>420</v>
       </c>
@@ -7019,7 +7244,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>422</v>
       </c>
@@ -7038,7 +7263,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>424</v>
       </c>
@@ -7057,18 +7282,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>426</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>427</v>
       </c>
@@ -7086,7 +7311,7 @@
       </c>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>429</v>
       </c>
@@ -7104,7 +7329,7 @@
       </c>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>431</v>
       </c>
@@ -7122,7 +7347,7 @@
       </c>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>433</v>
       </c>
@@ -7140,7 +7365,7 @@
       </c>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>435</v>
       </c>
@@ -7158,7 +7383,7 @@
       </c>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>437</v>
       </c>
@@ -7176,7 +7401,7 @@
       </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>439</v>
       </c>
@@ -7194,7 +7419,7 @@
       </c>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>441</v>
       </c>
@@ -7212,7 +7437,7 @@
       </c>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>443</v>
       </c>
@@ -7244,22 +7469,22 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>507</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -7282,7 +7507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -7304,14 +7529,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>347</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -7332,7 +7557,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -7353,14 +7578,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -7381,7 +7606,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -7402,7 +7627,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>355</v>
       </c>
@@ -7423,7 +7648,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>356</v>
       </c>
@@ -7444,14 +7669,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>358</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -7472,7 +7697,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -7493,7 +7718,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>366</v>
       </c>
@@ -7514,14 +7739,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>368</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>370</v>
       </c>
@@ -7540,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -7561,7 +7786,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>376</v>
       </c>
@@ -7580,14 +7805,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>377</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -7608,7 +7833,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>512</v>
       </c>
@@ -7630,14 +7855,14 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>382</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>383</v>
       </c>
@@ -7658,7 +7883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>385</v>
       </c>
@@ -7679,7 +7904,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>387</v>
       </c>
@@ -7697,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>389</v>
       </c>
@@ -7718,7 +7943,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>505</v>
       </c>
@@ -7739,7 +7964,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>501</v>
       </c>
@@ -7760,7 +7985,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>391</v>
       </c>
@@ -7781,7 +8006,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>393</v>
       </c>
@@ -7801,7 +8026,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>394</v>
       </c>
@@ -7819,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>396</v>
       </c>
@@ -7837,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>398</v>
       </c>
@@ -7855,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>400</v>
       </c>
@@ -7873,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>402</v>
       </c>
@@ -7889,12 +8114,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
@@ -7912,22 +8137,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>508</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -7950,7 +8175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>406</v>
       </c>
@@ -7972,7 +8197,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>409</v>
       </c>
@@ -7993,7 +8218,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>411</v>
       </c>
@@ -8011,7 +8236,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -8032,7 +8257,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -8053,7 +8278,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>415</v>
       </c>
@@ -8075,7 +8300,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -8096,7 +8321,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>416</v>
       </c>
@@ -8117,7 +8342,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>418</v>
       </c>
@@ -8149,21 +8374,21 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8180,14 +8405,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>446</v>
       </c>
@@ -8205,7 +8430,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -8227,7 +8452,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>449</v>
       </c>
@@ -8248,7 +8473,7 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>451</v>
       </c>
@@ -8269,7 +8494,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>453</v>
       </c>
@@ -8290,7 +8515,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>455</v>
       </c>
@@ -8311,7 +8536,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>458</v>
       </c>
@@ -8332,32 +8557,32 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>461</v>
       </c>
@@ -8378,7 +8603,7 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>463</v>
       </c>
@@ -8401,7 +8626,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>465</v>
       </c>
@@ -8422,7 +8647,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -8444,14 +8669,14 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
       <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>469</v>
       </c>
@@ -8461,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>470</v>
       </c>
@@ -8482,7 +8707,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>557</v>
       </c>
@@ -8504,7 +8729,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -8525,12 +8750,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>476</v>
       </c>
@@ -8538,7 +8763,7 @@
       <c r="F25" s="14"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -8548,19 +8773,19 @@
       <c r="E26" s="17"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8576,18 +8801,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8604,14 +8829,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -8632,18 +8857,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>514</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>519</v>
       </c>
@@ -8661,7 +8886,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>520</v>
       </c>
@@ -8679,7 +8904,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>521</v>
       </c>
@@ -8696,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>522</v>
       </c>
@@ -8713,7 +8938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>523</v>
       </c>
@@ -8730,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>524</v>
       </c>
@@ -8747,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>525</v>
       </c>
@@ -8764,7 +8989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>526</v>
       </c>
@@ -8781,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>528</v>
       </c>
@@ -8798,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>529</v>
       </c>
@@ -8815,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>530</v>
       </c>
@@ -8832,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -8849,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>532</v>
       </c>
@@ -8866,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>527</v>
       </c>
@@ -8883,7 +9108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>480</v>
       </c>
@@ -8904,12 +9129,12 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>533</v>
       </c>
@@ -8926,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>539</v>
       </c>
@@ -8943,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>534</v>
       </c>
@@ -8960,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>535</v>
       </c>
@@ -8977,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>536</v>
       </c>
@@ -8994,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>537</v>
       </c>
@@ -9011,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>538</v>
       </c>
@@ -9028,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -9045,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>480</v>
       </c>
@@ -9066,12 +9291,12 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>540</v>
       </c>
@@ -9088,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>541</v>
       </c>
@@ -9105,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>542</v>
       </c>
@@ -9122,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>543</v>
       </c>
@@ -9139,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>544</v>
       </c>
@@ -9156,7 +9381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>545</v>
       </c>
@@ -9174,7 +9399,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>527</v>
       </c>
@@ -9191,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>480</v>
       </c>
@@ -9212,14 +9437,14 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>517</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>546</v>
       </c>
@@ -9237,7 +9462,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>547</v>
       </c>
@@ -9255,7 +9480,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>548</v>
       </c>
@@ -9273,7 +9498,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>549</v>
       </c>
@@ -9291,7 +9516,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>550</v>
       </c>
@@ -9309,12 +9534,12 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>551</v>
       </c>
@@ -9331,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>552</v>
       </c>
@@ -9348,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>553</v>
       </c>
@@ -9365,7 +9590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>554</v>
       </c>
@@ -9383,7 +9608,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>555</v>
       </c>
@@ -9401,18 +9626,18 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>556</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>482</v>
       </c>
@@ -9433,7 +9658,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>485</v>
       </c>
@@ -9454,7 +9679,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>487</v>
       </c>
@@ -9475,7 +9700,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -9485,7 +9710,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>513</v>
       </c>
@@ -9495,18 +9720,18 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>490</v>
       </c>
@@ -9527,7 +9752,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>492</v>
       </c>
@@ -9548,7 +9773,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -9569,7 +9794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>494</v>
       </c>
@@ -9590,7 +9815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>495</v>
       </c>
@@ -9611,7 +9836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" s="10"/>
       <c r="F71" s="10"/>
     </row>
@@ -9629,18 +9854,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -9663,7 +9888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -9671,7 +9896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>498</v>
       </c>
@@ -9679,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -9687,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>500</v>
       </c>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamus-adm\Documents\github\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C82D9C-57FA-481A-A240-1711A87FDA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9405" yWindow="-21705" windowWidth="38625" windowHeight="21225" activeTab="1"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
     <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1752,7 +1753,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2198,11 +2199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,10 +3673,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -4644,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7462,7 +7463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8130,7 +8131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8367,7 +8368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8794,7 +8795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -9847,7 +9848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C82D9C-57FA-481A-A240-1711A87FDA88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0D11C-3A85-440F-9C1F-68B4EF99DCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -1060,9 +1060,6 @@
     <t>PAA634/SPL-S6</t>
   </si>
   <si>
-    <t>Not found on website</t>
-  </si>
-  <si>
     <t>1D or 2D Galvo System Linear Power Supply</t>
   </si>
   <si>
@@ -1748,6 +1745,9 @@
   </si>
   <si>
     <t xml:space="preserve">Post Collar </t>
+  </si>
+  <si>
+    <t>Not found on website Think this might not be from Throlabs</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -3026,7 +3026,7 @@
         <v>158</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>559</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>560</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>268</v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>562</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>563</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -3676,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -3980,13 +3980,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>566</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>567</v>
       </c>
       <c r="D18" s="6">
         <v>19.309999999999999</v>
@@ -4202,13 +4202,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D30" s="6">
         <v>3.86</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D40" s="6">
         <v>3.86</v>
@@ -4572,13 +4572,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D50" s="6">
         <v>3.86</v>
@@ -4648,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,7 +5291,7 @@
         <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -5873,7 +5873,7 @@
         <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -5898,7 +5898,7 @@
         <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -6290,15 +6290,15 @@
         <v>0</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>340</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" t="s">
         <v>341</v>
-      </c>
-      <c r="C84" t="s">
-        <v>342</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" t="s">
         <v>343</v>
-      </c>
-      <c r="C85" t="s">
-        <v>344</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -6345,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -6355,10 +6355,10 @@
         <v>6.1</v>
       </c>
       <c r="B88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88" t="s">
         <v>345</v>
-      </c>
-      <c r="C88" t="s">
-        <v>346</v>
       </c>
       <c r="D88" t="s">
         <v>178</v>
@@ -6380,20 +6380,20 @@
         <v>6.3</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" t="s">
         <v>348</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>349</v>
-      </c>
-      <c r="C90" t="s">
-        <v>350</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -6411,13 +6411,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>350</v>
+      </c>
+      <c r="B91" t="s">
         <v>351</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>352</v>
-      </c>
-      <c r="C91" t="s">
-        <v>353</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
         <v>209</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s">
         <v>148</v>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" t="s">
         <v>356</v>
-      </c>
-      <c r="C96" t="s">
-        <v>357</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -6535,20 +6535,20 @@
         <v>6.5</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>358</v>
+      </c>
+      <c r="B98" t="s">
         <v>359</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>360</v>
-      </c>
-      <c r="C98" t="s">
-        <v>361</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -6566,13 +6566,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" t="s">
         <v>362</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>363</v>
-      </c>
-      <c r="C99" t="s">
-        <v>364</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -6590,13 +6590,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" t="s">
         <v>365</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>366</v>
-      </c>
-      <c r="C100" t="s">
-        <v>367</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
@@ -6617,17 +6617,17 @@
         <v>6.6</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>368</v>
+      </c>
+      <c r="B102" t="s">
         <v>369</v>
-      </c>
-      <c r="B102" t="s">
-        <v>370</v>
       </c>
       <c r="C102" t="s">
         <v>93</v>
@@ -6646,16 +6646,16 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>370</v>
+      </c>
+      <c r="B103" t="s">
         <v>371</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>372</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>373</v>
-      </c>
-      <c r="D103" t="s">
-        <v>374</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6670,10 +6670,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" t="s">
         <v>375</v>
-      </c>
-      <c r="B104" t="s">
-        <v>376</v>
       </c>
       <c r="C104" t="s">
         <v>93</v>
@@ -6695,23 +6695,23 @@
         <v>6.7</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>377</v>
+      </c>
+      <c r="B106" t="s">
         <v>378</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>379</v>
       </c>
-      <c r="C106" t="s">
-        <v>380</v>
-      </c>
       <c r="D106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6726,16 +6726,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C107" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6751,20 +6751,20 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>382</v>
+      </c>
+      <c r="C109" t="s">
         <v>383</v>
       </c>
-      <c r="C109" t="s">
-        <v>384</v>
-      </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6779,13 +6779,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C110">
         <v>1438</v>
       </c>
       <c r="D110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6800,13 +6800,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" t="s">
         <v>387</v>
       </c>
-      <c r="C111" t="s">
-        <v>388</v>
-      </c>
       <c r="D111" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F111" s="10">
         <v>0.747</v>
@@ -6818,13 +6818,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" t="s">
         <v>389</v>
       </c>
-      <c r="C112" t="s">
-        <v>390</v>
-      </c>
       <c r="D112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6839,13 +6839,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C113" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>500</v>
+      </c>
+      <c r="C114" t="s">
         <v>501</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>502</v>
-      </c>
-      <c r="D114" t="s">
-        <v>503</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6881,13 +6881,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
+        <v>390</v>
+      </c>
+      <c r="C115" t="s">
         <v>391</v>
       </c>
-      <c r="C115" t="s">
-        <v>392</v>
-      </c>
       <c r="D115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
         <v>93</v>
@@ -6922,13 +6922,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>393</v>
+      </c>
+      <c r="C117" t="s">
         <v>394</v>
       </c>
-      <c r="C117" t="s">
-        <v>395</v>
-      </c>
       <c r="D117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F117" s="10">
         <v>11.52</v>
@@ -6940,13 +6940,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
+        <v>395</v>
+      </c>
+      <c r="C118" t="s">
         <v>396</v>
       </c>
-      <c r="C118" t="s">
-        <v>397</v>
-      </c>
       <c r="D118" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F118" s="10">
         <v>3.1</v>
@@ -6958,13 +6958,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" t="s">
         <v>398</v>
       </c>
-      <c r="C119" t="s">
-        <v>399</v>
-      </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F119" s="10">
         <v>3.1</v>
@@ -6976,13 +6976,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" t="s">
         <v>400</v>
       </c>
-      <c r="C120" t="s">
-        <v>401</v>
-      </c>
       <c r="D120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F120" s="10">
         <v>6.42</v>
@@ -6994,10 +6994,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10">
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -7017,27 +7017,27 @@
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>405</v>
+      </c>
+      <c r="C125" t="s">
         <v>406</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>407</v>
-      </c>
-      <c r="D125" t="s">
-        <v>408</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7053,10 +7053,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
+        <v>408</v>
+      </c>
+      <c r="C126" t="s">
         <v>409</v>
-      </c>
-      <c r="C126" t="s">
-        <v>410</v>
       </c>
       <c r="D126" t="s">
         <v>11</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
+        <v>410</v>
+      </c>
+      <c r="C127" t="s">
         <v>411</v>
-      </c>
-      <c r="C127" t="s">
-        <v>412</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
         <v>131</v>
@@ -7116,7 +7116,7 @@
         <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
@@ -7134,10 +7134,10 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C130" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>415</v>
+      </c>
+      <c r="C132" t="s">
         <v>416</v>
-      </c>
-      <c r="C132" t="s">
-        <v>417</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C133" t="s">
         <v>93</v>
@@ -7221,17 +7221,17 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>419</v>
+      </c>
+      <c r="C136" t="s">
         <v>420</v>
-      </c>
-      <c r="C136" t="s">
-        <v>421</v>
       </c>
       <c r="D136" t="s">
         <v>192</v>
@@ -7247,10 +7247,10 @@
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
+        <v>421</v>
+      </c>
+      <c r="C137" t="s">
         <v>422</v>
-      </c>
-      <c r="C137" t="s">
-        <v>423</v>
       </c>
       <c r="D137" t="s">
         <v>192</v>
@@ -7266,10 +7266,10 @@
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
+        <v>423</v>
+      </c>
+      <c r="C138" t="s">
         <v>424</v>
-      </c>
-      <c r="C138" t="s">
-        <v>425</v>
       </c>
       <c r="D138" t="s">
         <v>192</v>
@@ -7289,17 +7289,17 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
+        <v>426</v>
+      </c>
+      <c r="C141" t="s">
         <v>427</v>
-      </c>
-      <c r="C141" t="s">
-        <v>428</v>
       </c>
       <c r="D141" t="s">
         <v>57</v>
@@ -7314,10 +7314,10 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" t="s">
         <v>429</v>
-      </c>
-      <c r="C142" t="s">
-        <v>430</v>
       </c>
       <c r="D142" t="s">
         <v>57</v>
@@ -7332,10 +7332,10 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
+        <v>430</v>
+      </c>
+      <c r="C143" t="s">
         <v>431</v>
-      </c>
-      <c r="C143" t="s">
-        <v>432</v>
       </c>
       <c r="D143" t="s">
         <v>57</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>432</v>
+      </c>
+      <c r="C144" t="s">
         <v>433</v>
-      </c>
-      <c r="C144" t="s">
-        <v>434</v>
       </c>
       <c r="D144" t="s">
         <v>57</v>
@@ -7368,10 +7368,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" t="s">
         <v>435</v>
-      </c>
-      <c r="C145" t="s">
-        <v>436</v>
       </c>
       <c r="D145" t="s">
         <v>57</v>
@@ -7386,10 +7386,10 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" t="s">
         <v>437</v>
-      </c>
-      <c r="C146" t="s">
-        <v>438</v>
       </c>
       <c r="D146" t="s">
         <v>57</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" t="s">
         <v>439</v>
-      </c>
-      <c r="C147" t="s">
-        <v>440</v>
       </c>
       <c r="D147" t="s">
         <v>57</v>
@@ -7422,10 +7422,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" t="s">
         <v>441</v>
-      </c>
-      <c r="C148" t="s">
-        <v>442</v>
       </c>
       <c r="D148" t="s">
         <v>57</v>
@@ -7440,10 +7440,10 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" t="s">
         <v>443</v>
-      </c>
-      <c r="C149" t="s">
-        <v>444</v>
       </c>
       <c r="D149" t="s">
         <v>57</v>
@@ -7480,7 +7480,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7510,10 +7510,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" t="s">
         <v>345</v>
-      </c>
-      <c r="B3" t="s">
-        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>178</v>
@@ -7532,17 +7532,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
         <v>349</v>
-      </c>
-      <c r="B5" t="s">
-        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7560,10 +7560,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
         <v>352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>148</v>
@@ -7651,10 +7651,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" t="s">
         <v>356</v>
-      </c>
-      <c r="B11" t="s">
-        <v>357</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7672,17 +7672,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" t="s">
         <v>360</v>
-      </c>
-      <c r="B13" t="s">
-        <v>361</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
         <v>363</v>
-      </c>
-      <c r="B14" t="s">
-        <v>364</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7721,10 +7721,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" t="s">
         <v>366</v>
-      </c>
-      <c r="B15" t="s">
-        <v>367</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7742,14 +7742,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -7768,13 +7768,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" t="s">
         <v>372</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>373</v>
-      </c>
-      <c r="C18" t="s">
-        <v>374</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -7808,20 +7808,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
         <v>379</v>
       </c>
-      <c r="B21" t="s">
-        <v>380</v>
-      </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7836,13 +7836,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7858,20 +7858,20 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" t="s">
         <v>383</v>
       </c>
-      <c r="B24" t="s">
-        <v>384</v>
-      </c>
       <c r="C24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7886,13 +7886,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7907,13 +7907,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" t="s">
         <v>387</v>
       </c>
-      <c r="B26" t="s">
-        <v>388</v>
-      </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7925,13 +7925,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B27" t="s">
         <v>389</v>
       </c>
-      <c r="B27" t="s">
-        <v>390</v>
-      </c>
       <c r="C27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7946,13 +7946,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7967,13 +7967,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B29" t="s">
         <v>501</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>502</v>
-      </c>
-      <c r="C29" t="s">
-        <v>503</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7988,13 +7988,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" t="s">
         <v>391</v>
       </c>
-      <c r="B30" t="s">
-        <v>392</v>
-      </c>
       <c r="C30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -8029,13 +8029,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" t="s">
         <v>394</v>
       </c>
-      <c r="B32" t="s">
-        <v>395</v>
-      </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E32" s="10">
         <v>11.52</v>
@@ -8047,13 +8047,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" t="s">
         <v>396</v>
       </c>
-      <c r="B33" t="s">
-        <v>397</v>
-      </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E33" s="10">
         <v>3.1</v>
@@ -8065,13 +8065,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B34" t="s">
         <v>398</v>
       </c>
-      <c r="B34" t="s">
-        <v>399</v>
-      </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E34" s="10">
         <v>3.1</v>
@@ -8083,13 +8083,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" t="s">
         <v>400</v>
       </c>
-      <c r="B35" t="s">
-        <v>401</v>
-      </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E35" s="10">
         <v>6.42</v>
@@ -8101,10 +8101,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8148,7 +8148,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -8178,13 +8178,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
         <v>406</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>407</v>
-      </c>
-      <c r="C3" t="s">
-        <v>408</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8200,10 +8200,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
         <v>409</v>
-      </c>
-      <c r="B4" t="s">
-        <v>410</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8221,10 +8221,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" t="s">
         <v>411</v>
-      </c>
-      <c r="B5" t="s">
-        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -8263,7 +8263,7 @@
         <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8281,10 +8281,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8324,10 +8324,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" t="s">
         <v>416</v>
-      </c>
-      <c r="B10" t="s">
-        <v>417</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8408,20 +8408,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>446</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>447</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8433,13 +8433,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8455,13 +8455,13 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>450</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8476,13 +8476,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>452</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8497,13 +8497,13 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>454</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8518,13 +8518,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>456</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>457</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8539,13 +8539,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>459</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8578,17 +8578,17 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" t="s">
         <v>461</v>
-      </c>
-      <c r="B15" t="s">
-        <v>462</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8606,10 +8606,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" t="s">
         <v>463</v>
-      </c>
-      <c r="B16" t="s">
-        <v>464</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8629,10 +8629,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" t="s">
         <v>465</v>
-      </c>
-      <c r="B17" t="s">
-        <v>466</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -8650,10 +8650,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" t="s">
         <v>467</v>
-      </c>
-      <c r="B18" t="s">
-        <v>468</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8689,13 +8689,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" t="s">
         <v>470</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>471</v>
-      </c>
-      <c r="C21" t="s">
-        <v>472</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8710,13 +8710,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8732,13 +8732,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" t="s">
         <v>474</v>
       </c>
-      <c r="B23" t="s">
-        <v>475</v>
-      </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8832,14 +8832,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8864,14 +8864,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -9111,13 +9111,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" t="s">
         <v>480</v>
-      </c>
-      <c r="B20" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" t="s">
-        <v>481</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -9132,12 +9132,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -9256,7 +9256,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9273,13 +9273,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" t="s">
         <v>480</v>
-      </c>
-      <c r="B31" t="s">
-        <v>374</v>
-      </c>
-      <c r="C31" t="s">
-        <v>481</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -9294,12 +9294,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" t="s">
         <v>480</v>
-      </c>
-      <c r="B41" t="s">
-        <v>374</v>
-      </c>
-      <c r="C41" t="s">
-        <v>481</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9440,14 +9440,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9537,12 +9537,12 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9633,20 +9633,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>481</v>
+      </c>
+      <c r="B58" t="s">
+        <v>373</v>
+      </c>
+      <c r="C58" t="s">
         <v>482</v>
-      </c>
-      <c r="B58" t="s">
-        <v>374</v>
-      </c>
-      <c r="C58" t="s">
-        <v>483</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9661,13 +9661,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>484</v>
+      </c>
+      <c r="B59" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" t="s">
         <v>485</v>
-      </c>
-      <c r="B59" t="s">
-        <v>374</v>
-      </c>
-      <c r="C59" t="s">
-        <v>486</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9682,13 +9682,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>486</v>
+      </c>
+      <c r="B60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" t="s">
         <v>487</v>
-      </c>
-      <c r="B60" t="s">
-        <v>374</v>
-      </c>
-      <c r="C60" t="s">
-        <v>488</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9703,22 +9703,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -9727,17 +9727,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65" t="s">
         <v>490</v>
-      </c>
-      <c r="B65" t="s">
-        <v>491</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9755,10 +9755,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9776,10 +9776,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9797,10 +9797,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9818,10 +9818,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0D11C-3A85-440F-9C1F-68B4EF99DCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0E64D-C35D-4B11-8A12-7B8DDBE01496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="515">
   <si>
     <t>Parts List</t>
   </si>
@@ -559,9 +559,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Part name</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>ASI</t>
   </si>
   <si>
-    <t>2.1.42</t>
-  </si>
-  <si>
     <t>ABTS-1031 STILT (4 Pack)</t>
   </si>
   <si>
@@ -607,9 +601,6 @@
     <t>Cairn-dichroic-ASI stage custom rig</t>
   </si>
   <si>
-    <t>3.1.31</t>
-  </si>
-  <si>
     <t>Sample Holder</t>
   </si>
   <si>
@@ -628,9 +619,6 @@
     <t>DASI/US/PZ2500-IOM</t>
   </si>
   <si>
-    <t>3.2/3.6</t>
-  </si>
-  <si>
     <t>Infinity Cube</t>
   </si>
   <si>
@@ -646,9 +634,6 @@
     <t>Marked as SPECIAL, could be issue for reproducability</t>
   </si>
   <si>
-    <t>3.2.4 etc</t>
-  </si>
-  <si>
     <t>Filter Cube</t>
   </si>
   <si>
@@ -706,12 +691,6 @@
     <t>Bertrand-lens</t>
   </si>
   <si>
-    <t>4.7.1</t>
-  </si>
-  <si>
-    <t>4.7.2</t>
-  </si>
-  <si>
     <t>f = 50 mm, Ø1" Achromatic Doublet, ARC: 400 - 700 nm</t>
   </si>
   <si>
@@ -721,12 +700,6 @@
     <t>Astig-lens</t>
   </si>
   <si>
-    <t>4.8.1</t>
-  </si>
-  <si>
-    <t>4.8.2</t>
-  </si>
-  <si>
     <t>f = 1000.0 mm, Ø1", N-BK7 Mounted Plano-Convex Round Cyl Lens</t>
   </si>
   <si>
@@ -736,15 +709,9 @@
     <t>cam-emission-interface</t>
   </si>
   <si>
-    <t>4.9.1</t>
-  </si>
-  <si>
     <t>30 mm Cage Plate</t>
   </si>
   <si>
-    <t>4.9.2</t>
-  </si>
-  <si>
     <t>C-Mount Extension Tube, 10 mm Long</t>
   </si>
   <si>
@@ -754,9 +721,6 @@
     <t>camera-and-mount</t>
   </si>
   <si>
-    <t>4.10.1</t>
-  </si>
-  <si>
     <t>Zyla 4.2 Plus Camera-link</t>
   </si>
   <si>
@@ -766,9 +730,6 @@
     <t>Andor</t>
   </si>
   <si>
-    <t>4.10.2</t>
-  </si>
-  <si>
     <t>20 - Camera mount</t>
   </si>
   <si>
@@ -781,42 +742,24 @@
     <t>mounting-optomech</t>
   </si>
   <si>
-    <t>4.11.1</t>
-  </si>
-  <si>
-    <t>4.11.2</t>
-  </si>
-  <si>
     <t>Cage Assembly Rod, 4" Long</t>
   </si>
   <si>
     <t>ER4</t>
   </si>
   <si>
-    <t>4.11.3</t>
-  </si>
-  <si>
     <t>Cage Assembly Rod, 3" Long</t>
   </si>
   <si>
     <t>ER3</t>
   </si>
   <si>
-    <t>4.11.4</t>
-  </si>
-  <si>
     <t>focalPathEnclosure</t>
   </si>
   <si>
-    <t>4.11.4.1</t>
-  </si>
-  <si>
     <t>focalPathLid</t>
   </si>
   <si>
-    <t>4.11.4.4</t>
-  </si>
-  <si>
     <t>focalEnclosure-body</t>
   </si>
   <si>
@@ -829,18 +772,12 @@
     <t>M3 screws, 20mm</t>
   </si>
   <si>
-    <t>4.11.5</t>
-  </si>
-  <si>
     <t>Ø12.7 mm Pedestal Post Holder</t>
   </si>
   <si>
     <t>PH30E/M</t>
   </si>
   <si>
-    <t>4.11.6</t>
-  </si>
-  <si>
     <t>Ø12.7 mm Optical Post, L = 40 mm</t>
   </si>
   <si>
@@ -853,18 +790,12 @@
     <t>2d-galvo-in-housing</t>
   </si>
   <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
     <t>2D Large Beam (10 mm) Diameter Galvo System</t>
   </si>
   <si>
     <t>GVS212/M</t>
   </si>
   <si>
-    <t>5.1.2</t>
-  </si>
-  <si>
     <t>30 mm Cage Adapter for 10 mm Galvo System</t>
   </si>
   <si>
@@ -874,18 +805,12 @@
     <t>KCB2EC_M-with-mirror</t>
   </si>
   <si>
-    <t>5.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Right-Angle Kinematic Elliptical Mirror Mount</t>
   </si>
   <si>
     <t>KCB2EC/M</t>
   </si>
   <si>
-    <t>5.2.2</t>
-  </si>
-  <si>
     <t>2" Broadband Dielectric Elliptical Mirror, 400 - 750 nm</t>
   </si>
   <si>
@@ -895,117 +820,69 @@
     <t>CXY1-with-200mmTubeLens</t>
   </si>
   <si>
-    <t>5.3.1</t>
-  </si>
-  <si>
     <t>30 mm Cage System, XY Translating Lens Mount for Ø1" Optics</t>
   </si>
   <si>
-    <t>5.3.2</t>
-  </si>
-  <si>
     <t>f = 200.0 mm, Ø1" Achromatic Doublet, ARC: 400 - 1100 nm</t>
   </si>
   <si>
     <t>AC254-200-AB</t>
   </si>
   <si>
-    <t>5.4.1</t>
-  </si>
-  <si>
     <t>Cage Assembly Rod, 6" Long</t>
   </si>
   <si>
     <t>ER6</t>
   </si>
   <si>
-    <t>5.4.2</t>
-  </si>
-  <si>
     <t>SM1 Lens Tube</t>
   </si>
   <si>
     <t>SM1L40</t>
   </si>
   <si>
-    <t>5.4.3</t>
-  </si>
-  <si>
-    <t>5.4.6</t>
-  </si>
-  <si>
-    <t>5.4.7</t>
-  </si>
-  <si>
     <t>Ø12.7 mm Optical Post, L = 100 mm</t>
   </si>
   <si>
     <t>TR100/M</t>
   </si>
   <si>
-    <t>5.4.8</t>
-  </si>
-  <si>
     <t>Ø12.7 mm Post Holder</t>
   </si>
   <si>
-    <t>5.4.4</t>
-  </si>
-  <si>
     <t>1"post-75mm</t>
   </si>
   <si>
-    <t>5.4.4.1</t>
-  </si>
-  <si>
     <t>Clamping Fork for Ø1.5" Pedestal Post</t>
   </si>
   <si>
     <t>PF175B</t>
   </si>
   <si>
-    <t>5.4.4.2</t>
-  </si>
-  <si>
     <t>Ø25.0 mm Pillar Post, L = 75 mm</t>
   </si>
   <si>
     <t>RS75/M</t>
   </si>
   <si>
-    <t>5.4.4.3</t>
-  </si>
-  <si>
     <t>Ø25 mm Post Holder, L = 50 mm</t>
   </si>
   <si>
     <t>RSH2/M</t>
   </si>
   <si>
-    <t>5.4.5</t>
-  </si>
-  <si>
     <t>1"post-50mm</t>
   </si>
   <si>
-    <t>5.4.5.1</t>
-  </si>
-  <si>
     <t>RSHT2/M</t>
   </si>
   <si>
-    <t>5.4.5.2</t>
-  </si>
-  <si>
     <t>Ø25.0 mm Pillar Post, L = 50 mm</t>
   </si>
   <si>
     <t>RS50/M</t>
   </si>
   <si>
-    <t>5.4.5.3</t>
-  </si>
-  <si>
     <t>Mounting Base, 50 mm x 75 mm x 10 mm</t>
   </si>
   <si>
@@ -1015,27 +892,18 @@
     <t>mirror-galvo-spacer</t>
   </si>
   <si>
-    <t>5.7.1</t>
-  </si>
-  <si>
     <t>Cage Assembly Rod, 2" Long</t>
   </si>
   <si>
     <t>ER2</t>
   </si>
   <si>
-    <t>5.7.2</t>
-  </si>
-  <si>
     <t>Cage Assembly Rod, 1" Long</t>
   </si>
   <si>
     <t>ER1</t>
   </si>
   <si>
-    <t>5.7.3</t>
-  </si>
-  <si>
     <t>30 mm to 60 mm Cage Plate Adapter</t>
   </si>
   <si>
@@ -1081,27 +949,18 @@
     <t>zoom-tube-lens</t>
   </si>
   <si>
-    <t>6.3.1</t>
-  </si>
-  <si>
     <t>SM1 Zoom Housing for Ø1" Optics</t>
   </si>
   <si>
     <t>SM1NR1</t>
   </si>
   <si>
-    <t>6.3.2</t>
-  </si>
-  <si>
     <t>N-BK7 Best Form Lens, Ø1", f = 100 mm, ARC: 650-1050 nm</t>
   </si>
   <si>
     <t>LBF254-100-B</t>
   </si>
   <si>
-    <t>6.4.1</t>
-  </si>
-  <si>
     <t>60 mm Cage Plate</t>
   </si>
   <si>
@@ -1114,27 +973,18 @@
     <t>support-post</t>
   </si>
   <si>
-    <t>6.5.1</t>
-  </si>
-  <si>
     <t>Ø12.7 mm Pedestal Post Holder, L=104.7 mm</t>
   </si>
   <si>
     <t>PH100E/M</t>
   </si>
   <si>
-    <t>6.5.2</t>
-  </si>
-  <si>
     <t>Clamping Fork</t>
   </si>
   <si>
     <t>CF125C/M</t>
   </si>
   <si>
-    <t>6.5.3</t>
-  </si>
-  <si>
     <t>Ø12.7 mm Optical Post, L = 150 mm</t>
   </si>
   <si>
@@ -1144,15 +994,9 @@
     <t>motorMountingBits</t>
   </si>
   <si>
-    <t>6.6.1</t>
-  </si>
-  <si>
     <t>Zoom-housing-custom-pulley</t>
   </si>
   <si>
-    <t>6.6.2</t>
-  </si>
-  <si>
     <t>RS PRO, Timing Belt, 115 Teeth, 233.68mm Length X 6mm Width</t>
   </si>
   <si>
@@ -1162,25 +1006,16 @@
     <t>RS</t>
   </si>
   <si>
-    <t>6.6.3</t>
-  </si>
-  <si>
     <t>Motor-cage-coupler</t>
   </si>
   <si>
     <t>motor</t>
   </si>
   <si>
-    <t>6.7.1</t>
-  </si>
-  <si>
     <t>pulley-RS-778-4714</t>
   </si>
   <si>
     <t>778-4714</t>
-  </si>
-  <si>
-    <t>6.7.2</t>
   </si>
   <si>
     <t>Focus-shifter electronics</t>
@@ -3026,7 +2861,7 @@
         <v>158</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -3044,10 +2879,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -3065,10 +2900,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>11</v>
@@ -3086,10 +2921,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -3107,10 +2942,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -3676,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -3980,13 +3815,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="D18" s="6">
         <v>19.309999999999999</v>
@@ -4202,13 +4037,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="D30" s="6">
         <v>3.86</v>
@@ -4385,13 +4220,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="D40" s="6">
         <v>3.86</v>
@@ -4572,13 +4407,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="D50" s="6">
         <v>3.86</v>
@@ -4646,90 +4481,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>546</v>
+      </c>
+      <c r="F2" s="10">
+        <f>D2*E2</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>546</v>
-      </c>
-      <c r="G2" s="10">
-        <f>E2*F2</f>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>175</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.1</v>
       </c>
       <c r="B5" t="s">
         <v>176</v>
@@ -4737,2724 +4563,2457 @@
       <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F74" si="0">D5*E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>178</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <f t="shared" ref="G5:G74" si="0">E5*F5</f>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>181</v>
       </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>182</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>183</v>
       </c>
-      <c r="D7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>184</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>185</v>
       </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>187</v>
       </c>
-      <c r="D9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G12" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
         <v>189</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1045</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1150</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10">
+        <v>278</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>1112</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>12445.6</v>
+      </c>
+      <c r="F17" s="10">
+        <f>D17*E17</f>
+        <v>12445.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>31.65</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>157.9</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>157.9</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>156.05000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>156.05000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>372.53</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>372.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>86.84</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>86.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>86.84</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>86.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>60.87</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>86.84</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>86.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>96.58</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>12.67</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="0"/>
+        <v>12.67</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>13.45</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="0"/>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>12650</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="0"/>
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>31.65</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="0"/>
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="F14" s="10">
-        <v>1045</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3.3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1150</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16">
+      <c r="E41" s="10">
+        <v>5.48</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="0"/>
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="F16" s="10">
-        <v>278</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>1112</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3.5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>12445.6</v>
-      </c>
-      <c r="G17" s="10">
-        <f>E17*F17</f>
-        <v>12445.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E42" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>6.01</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="0"/>
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>18.66</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="0"/>
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
+        <v>3.84</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>2606.0100000000002</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="0"/>
+        <v>2606.0100000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="0"/>
+        <v>149.33000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
+        <v>183.01</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="0"/>
+        <v>183.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10">
+        <v>148.91999999999999</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="0"/>
+        <v>148.91999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>140.4</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="0"/>
+        <v>77.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>31.65</v>
-      </c>
-      <c r="G20" s="10">
-        <f t="shared" si="0"/>
-        <v>31.65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4.2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>157.9</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="0"/>
-        <v>157.9</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4.3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10">
-        <v>156.05000000000001</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="0"/>
-        <v>156.05000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4.5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>372.53</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="0"/>
-        <v>372.53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10">
-        <v>86.84</v>
-      </c>
-      <c r="G25" s="10">
-        <f t="shared" si="0"/>
-        <v>86.84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4.7</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>86.84</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" si="0"/>
-        <v>86.84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E62" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="0"/>
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10">
+        <v>35.46</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="0"/>
+        <v>35.46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>223</v>
       </c>
-      <c r="B28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10">
-        <v>60.87</v>
-      </c>
-      <c r="G28" s="10">
-        <f t="shared" si="0"/>
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4.8</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>86.84</v>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" si="0"/>
-        <v>86.84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>96.58</v>
-      </c>
-      <c r="G31" s="10">
-        <f t="shared" si="0"/>
-        <v>96.58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" t="s">
-        <v>509</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="B64" t="s">
+        <v>454</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10">
         <v>12.67</v>
       </c>
-      <c r="G33" s="10">
-        <f t="shared" si="0"/>
+      <c r="F64" s="10">
+        <f t="shared" si="0"/>
+        <v>25.34</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>454</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10">
         <v>12.67</v>
       </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>13.45</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="0"/>
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" t="s">
-        <v>241</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>12650</v>
-      </c>
-      <c r="G36" s="10">
-        <f t="shared" si="0"/>
-        <v>12650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10">
-        <v>31.65</v>
-      </c>
-      <c r="G40" s="10">
-        <f t="shared" si="0"/>
-        <v>31.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" t="s">
-        <v>250</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="10">
-        <v>5.48</v>
-      </c>
-      <c r="G41" s="10">
-        <f t="shared" si="0"/>
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G42" s="10">
-        <f t="shared" si="0"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>254</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>260</v>
-      </c>
-      <c r="C46" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10">
-        <v>6.01</v>
-      </c>
-      <c r="G46" s="10">
-        <f t="shared" si="0"/>
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>262</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="10">
-        <v>18.66</v>
-      </c>
-      <c r="G48" s="10">
-        <f t="shared" si="0"/>
-        <v>18.66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="F65" s="10">
+        <f t="shared" si="0"/>
+        <v>12.67</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>267</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B66" t="s">
         <v>268</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10">
-        <v>3.84</v>
-      </c>
-      <c r="G49" s="10">
-        <f t="shared" si="0"/>
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>5</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>4.54</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10">
+        <v>5.95</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B69" t="s">
         <v>272</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10">
+        <v>12.75</v>
+      </c>
+      <c r="F69" s="10">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>273</v>
       </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="10">
-        <v>2606.0100000000002</v>
-      </c>
-      <c r="G53" s="10">
-        <f t="shared" si="0"/>
-        <v>2606.0100000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B70" t="s">
         <v>274</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10">
+        <v>19.48</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" si="0"/>
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>275</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B71" t="s">
         <v>276</v>
       </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="10">
-        <v>149.33000000000001</v>
-      </c>
-      <c r="G54" s="10">
-        <f t="shared" si="0"/>
-        <v>149.33000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>5.2</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10">
+        <v>24.96</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="0"/>
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" t="s">
-        <v>280</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="10">
-        <v>183.01</v>
-      </c>
-      <c r="G56" s="10">
-        <f t="shared" si="0"/>
-        <v>183.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" t="s">
-        <v>282</v>
-      </c>
-      <c r="C57" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="10">
-        <v>148.91999999999999</v>
-      </c>
-      <c r="G57" s="10">
-        <f t="shared" si="0"/>
-        <v>148.91999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>5.3</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>285</v>
-      </c>
-      <c r="B59" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="10">
-        <v>140.4</v>
-      </c>
-      <c r="G59" s="10">
-        <f t="shared" si="0"/>
-        <v>140.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>287</v>
-      </c>
-      <c r="B60" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10">
-        <v>77.25</v>
-      </c>
-      <c r="G60" s="10">
-        <f t="shared" si="0"/>
-        <v>77.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>5.4</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" t="s">
-        <v>291</v>
-      </c>
-      <c r="C62" t="s">
-        <v>292</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62" s="10">
-        <v>6.68</v>
-      </c>
-      <c r="G62" s="10">
-        <f t="shared" si="0"/>
-        <v>26.72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" t="s">
-        <v>294</v>
-      </c>
-      <c r="C63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="10">
-        <v>35.46</v>
-      </c>
-      <c r="G63" s="10">
-        <f t="shared" si="0"/>
-        <v>35.46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" t="s">
-        <v>509</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" s="10">
-        <v>12.67</v>
-      </c>
-      <c r="G64" s="10">
-        <f t="shared" si="0"/>
-        <v>25.34</v>
-      </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" t="s">
-        <v>509</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="10">
-        <v>12.67</v>
-      </c>
-      <c r="G65" s="10">
-        <f t="shared" si="0"/>
-        <v>12.67</v>
-      </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>298</v>
-      </c>
-      <c r="B66" t="s">
-        <v>299</v>
-      </c>
-      <c r="C66" t="s">
-        <v>300</v>
-      </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="10">
-        <v>4.54</v>
-      </c>
-      <c r="G66" s="10">
-        <f t="shared" si="0"/>
-        <v>4.54</v>
-      </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>301</v>
-      </c>
-      <c r="B67" t="s">
-        <v>302</v>
-      </c>
-      <c r="C67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="10">
-        <v>5.95</v>
-      </c>
-      <c r="G67" s="10">
-        <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>303</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69" t="s">
-        <v>306</v>
-      </c>
-      <c r="C69" t="s">
-        <v>307</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="10">
-        <v>12.75</v>
-      </c>
-      <c r="G69" s="10">
-        <f t="shared" si="0"/>
-        <v>12.75</v>
-      </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>308</v>
-      </c>
-      <c r="B70" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" t="s">
-        <v>310</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="10">
-        <v>19.48</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" si="0"/>
-        <v>19.48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>311</v>
-      </c>
-      <c r="B71" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="10">
-        <v>24.96</v>
-      </c>
-      <c r="G71" s="10">
-        <f t="shared" si="0"/>
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>315</v>
-      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>316</v>
+      <c r="E72" s="11"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1</v>
-      </c>
-      <c r="F73" s="13">
+        <v>11</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
         <v>24.96</v>
       </c>
-      <c r="G73" s="10">
+      <c r="F73" s="10">
         <f t="shared" si="0"/>
         <v>24.96</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>318</v>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>279</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C74" t="s">
-        <v>320</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="13">
+        <v>11</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13">
         <v>17.850000000000001</v>
       </c>
-      <c r="G74" s="10">
+      <c r="F74" s="10">
         <f t="shared" si="0"/>
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>321</v>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>323</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1</v>
-      </c>
-      <c r="F75" s="13">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13">
         <v>5.64</v>
       </c>
-      <c r="G75" s="10">
-        <f t="shared" ref="G75:G133" si="1">E75*F75</f>
+      <c r="F75" s="10">
+        <f t="shared" ref="F75:F133" si="1">D75*E75</f>
         <v>5.64</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>5.7</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>324</v>
-      </c>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="10"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77">
+        <v>11</v>
+      </c>
+      <c r="D77">
         <v>4</v>
       </c>
+      <c r="E77" s="10">
+        <v>4.71</v>
+      </c>
       <c r="F77" s="10">
-        <v>4.71</v>
-      </c>
-      <c r="G77" s="10">
         <f t="shared" si="1"/>
         <v>18.84</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="D78">
         <v>4</v>
       </c>
+      <c r="E78" s="10">
+        <v>3.9</v>
+      </c>
       <c r="F78" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="G78" s="10">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="10">
+        <v>31.65</v>
       </c>
       <c r="F79" s="10">
-        <v>31.65</v>
-      </c>
-      <c r="G79" s="10">
         <f t="shared" si="1"/>
         <v>31.65</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>5.8</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>333</v>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" t="s">
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>334</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="10">
+        <v>28.57</v>
       </c>
       <c r="F80" s="10">
-        <v>28.57</v>
-      </c>
-      <c r="G80" s="10">
         <f t="shared" si="1"/>
         <v>28.57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>5.9</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>335</v>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" t="s">
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>336</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10">
+        <v>131.29</v>
       </c>
       <c r="F81" s="10">
-        <v>131.29</v>
-      </c>
-      <c r="G81" s="10">
         <f t="shared" si="1"/>
         <v>131.29</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>337</v>
-      </c>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>294</v>
+      </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>339</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="D83">
         <v>2</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10">
+      <c r="E83" s="10"/>
+      <c r="F83" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>296</v>
+      </c>
       <c r="B84" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>341</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10">
+        <v>392.53</v>
       </c>
       <c r="F84" s="10">
-        <v>392.53</v>
-      </c>
-      <c r="G84" s="10">
         <f t="shared" si="1"/>
         <v>392.53</v>
       </c>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>298</v>
+      </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>343</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="D85">
         <v>2</v>
       </c>
+      <c r="E85" s="10">
+        <v>46.46</v>
+      </c>
       <c r="F85" s="10">
-        <v>46.46</v>
-      </c>
-      <c r="G85" s="10">
         <f t="shared" si="1"/>
         <v>92.92</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="10"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>6</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>505</v>
-      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="10"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>6.1</v>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>300</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C88" t="s">
-        <v>345</v>
-      </c>
-      <c r="D88" t="s">
-        <v>178</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10">
-        <f t="shared" ref="G88:G121" si="2">E88*F88</f>
+        <v>177</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10">
+        <f t="shared" ref="F88:F121" si="2">D88*E88</f>
         <v>0</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>6.3</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>346</v>
-      </c>
+      <c r="G88" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E89" s="10"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
+        <v>161.51</v>
       </c>
       <c r="F90" s="10">
-        <v>161.51</v>
-      </c>
-      <c r="G90" s="10">
         <f t="shared" si="2"/>
         <v>161.51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="B91" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
-        <v>352</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
+        <v>42.81</v>
       </c>
       <c r="F91" s="10">
-        <v>42.81</v>
-      </c>
-      <c r="G91" s="10">
         <f t="shared" si="2"/>
         <v>42.81</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>6.4</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>246</v>
-      </c>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>353</v>
+        <v>204</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="D93">
         <v>2</v>
       </c>
+      <c r="E93" s="10">
+        <v>31.65</v>
+      </c>
       <c r="F93" s="10">
-        <v>31.65</v>
-      </c>
-      <c r="G93" s="10">
         <f t="shared" si="2"/>
         <v>63.3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>263</v>
+      </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="D94">
         <v>4</v>
       </c>
+      <c r="E94" s="10">
+        <v>6.68</v>
+      </c>
       <c r="F94" s="10">
-        <v>6.68</v>
-      </c>
-      <c r="G94" s="10">
         <f t="shared" si="2"/>
         <v>26.72</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>307</v>
+      </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <v>30.84</v>
       </c>
       <c r="F95" s="10">
-        <v>30.84</v>
-      </c>
-      <c r="G95" s="10">
         <f t="shared" si="2"/>
         <v>30.84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>308</v>
+      </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="C96" t="s">
-        <v>356</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <v>21.71</v>
       </c>
       <c r="F96" s="10">
-        <v>21.71</v>
-      </c>
-      <c r="G96" s="10">
         <f t="shared" si="2"/>
         <v>21.71</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>6.5</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>357</v>
-      </c>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="C98" t="s">
-        <v>360</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <v>20.3</v>
       </c>
       <c r="F98" s="10">
-        <v>20.3</v>
-      </c>
-      <c r="G98" s="10">
         <f t="shared" si="2"/>
         <v>20.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
-      </c>
-      <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <v>8.77</v>
       </c>
       <c r="F99" s="10">
-        <v>8.77</v>
-      </c>
-      <c r="G99" s="10">
         <f t="shared" si="2"/>
         <v>8.77</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="C100" t="s">
-        <v>366</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <v>5.5</v>
       </c>
       <c r="F100" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="G100" s="10">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>6.6</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>367</v>
-      </c>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" t="s">
         <v>97</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="B103" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
-      </c>
-      <c r="D103" t="s">
-        <v>373</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <v>2.75</v>
       </c>
       <c r="F103" s="10">
-        <v>2.75</v>
-      </c>
-      <c r="G103" s="10">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s">
-        <v>375</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>93</v>
-      </c>
-      <c r="D104" t="s">
         <v>97</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>6.7</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>376</v>
-      </c>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="10"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="C106" t="s">
-        <v>379</v>
-      </c>
-      <c r="D106" t="s">
-        <v>373</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10">
+        <v>6.18</v>
       </c>
       <c r="F106" s="10">
-        <v>6.18</v>
-      </c>
-      <c r="G106" s="10">
         <f t="shared" si="2"/>
         <v>6.18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="B107" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="C107" t="s">
-        <v>510</v>
-      </c>
-      <c r="D107" t="s">
-        <v>373</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="10">
+        <v>23.13</v>
       </c>
       <c r="F107" s="10">
-        <v>23.13</v>
-      </c>
-      <c r="G107" s="10">
         <f t="shared" si="2"/>
         <v>23.13</v>
       </c>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>327</v>
+      </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="C109" t="s">
-        <v>383</v>
-      </c>
-      <c r="D109" t="s">
-        <v>373</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="10">
+        <v>17</v>
       </c>
       <c r="F109" s="10">
-        <v>17</v>
-      </c>
-      <c r="G109" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>384</v>
-      </c>
-      <c r="C110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110">
         <v>1438</v>
       </c>
-      <c r="D110" t="s">
-        <v>385</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
+      <c r="C110" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10">
+        <v>18.5</v>
       </c>
       <c r="F110" s="10">
-        <v>18.5</v>
-      </c>
-      <c r="G110" s="10">
         <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>331</v>
+      </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="C111" t="s">
-        <v>387</v>
-      </c>
-      <c r="D111" t="s">
-        <v>373</v>
+        <v>321</v>
+      </c>
+      <c r="E111" s="10">
+        <v>0.747</v>
       </c>
       <c r="F111" s="10">
-        <v>0.747</v>
-      </c>
-      <c r="G111" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>333</v>
+      </c>
       <c r="B112" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>389</v>
-      </c>
-      <c r="D112" t="s">
-        <v>373</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10">
+        <v>11.85</v>
       </c>
       <c r="F112" s="10">
-        <v>11.85</v>
-      </c>
-      <c r="G112" s="10">
         <f t="shared" si="2"/>
         <v>11.85</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>449</v>
+      </c>
       <c r="B113" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="C113" t="s">
-        <v>503</v>
-      </c>
-      <c r="D113" t="s">
-        <v>373</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10">
+        <v>9.6999999999999993</v>
       </c>
       <c r="F113" s="10">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G113" s="10">
         <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>445</v>
+      </c>
       <c r="B114" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="C114" t="s">
-        <v>501</v>
-      </c>
-      <c r="D114" t="s">
-        <v>502</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10">
+        <v>1.72</v>
       </c>
       <c r="F114" s="10">
-        <v>1.72</v>
-      </c>
-      <c r="G114" s="10">
         <f t="shared" si="2"/>
         <v>1.72</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>335</v>
+      </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="C115" t="s">
-        <v>391</v>
-      </c>
-      <c r="D115" t="s">
-        <v>373</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10">
+        <v>5.25</v>
       </c>
       <c r="F115" s="10">
-        <v>5.25</v>
-      </c>
-      <c r="G115" s="10">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>337</v>
+      </c>
       <c r="B116" t="s">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>93</v>
-      </c>
-      <c r="D116" t="s">
         <v>97</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10">
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>338</v>
+      </c>
       <c r="B117" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="C117" t="s">
-        <v>394</v>
-      </c>
-      <c r="D117" t="s">
-        <v>373</v>
+        <v>321</v>
+      </c>
+      <c r="E117" s="10">
+        <v>11.52</v>
       </c>
       <c r="F117" s="10">
-        <v>11.52</v>
-      </c>
-      <c r="G117" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>340</v>
+      </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="C118" t="s">
-        <v>396</v>
-      </c>
-      <c r="D118" t="s">
-        <v>373</v>
+        <v>321</v>
+      </c>
+      <c r="E118" s="10">
+        <v>3.1</v>
       </c>
       <c r="F118" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G118" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>342</v>
+      </c>
       <c r="B119" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="C119" t="s">
-        <v>398</v>
-      </c>
-      <c r="D119" t="s">
-        <v>373</v>
+        <v>321</v>
+      </c>
+      <c r="E119" s="10">
+        <v>3.1</v>
       </c>
       <c r="F119" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G119" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>344</v>
+      </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
-        <v>400</v>
-      </c>
-      <c r="D120" t="s">
-        <v>373</v>
+        <v>321</v>
+      </c>
+      <c r="E120" s="10">
+        <v>6.42</v>
       </c>
       <c r="F120" s="10">
-        <v>6.42</v>
-      </c>
-      <c r="G120" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>401</v>
-      </c>
-      <c r="D121" t="s">
-        <v>373</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>7</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>403</v>
-      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
-        <v>404</v>
-      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>350</v>
+      </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="C125" t="s">
-        <v>406</v>
-      </c>
-      <c r="D125" t="s">
-        <v>407</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10">
+        <v>1013</v>
       </c>
       <c r="F125" s="10">
-        <v>1013</v>
-      </c>
-      <c r="G125" s="10">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>353</v>
+      </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="C126" t="s">
-        <v>409</v>
-      </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="10">
+        <v>49.91</v>
       </c>
       <c r="F126" s="10">
-        <v>49.91</v>
-      </c>
-      <c r="G126" s="10">
         <f t="shared" si="1"/>
         <v>49.91</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>355</v>
+      </c>
       <c r="B127" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="C127" t="s">
-        <v>411</v>
-      </c>
-      <c r="D127" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" s="10">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="10">
         <v>77.25</v>
       </c>
-      <c r="G127" s="10"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>357</v>
+      </c>
       <c r="B128" t="s">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
-      </c>
-      <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="10">
+        <v>16.16</v>
       </c>
       <c r="F128" s="10">
-        <v>16.16</v>
-      </c>
-      <c r="G128" s="10">
         <f t="shared" si="1"/>
         <v>16.16</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>265</v>
+      </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="C129" t="s">
-        <v>413</v>
-      </c>
-      <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="10">
+        <v>11.01</v>
       </c>
       <c r="F129" s="10">
-        <v>11.01</v>
-      </c>
-      <c r="G129" s="10">
         <f t="shared" si="1"/>
         <v>11.01</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>359</v>
+      </c>
       <c r="B130" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="C130" t="s">
-        <v>509</v>
-      </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="10">
+        <v>12.67</v>
       </c>
       <c r="F130" s="10">
-        <v>12.67</v>
-      </c>
-      <c r="G130" s="10">
         <f t="shared" si="1"/>
         <v>12.67</v>
       </c>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>236</v>
+      </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C131" t="s">
-        <v>253</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="D131">
         <v>4</v>
       </c>
+      <c r="E131" s="10">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F131" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G131" s="10">
         <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>360</v>
+      </c>
       <c r="B132" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="C132" t="s">
-        <v>416</v>
-      </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10">
+        <v>14.57</v>
       </c>
       <c r="F132" s="10">
-        <v>14.57</v>
-      </c>
-      <c r="G132" s="10">
         <f t="shared" si="1"/>
         <v>14.57</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
-        <v>417</v>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B133" t="s">
+        <v>93</v>
       </c>
       <c r="C133" t="s">
-        <v>93</v>
-      </c>
-      <c r="D133" t="s">
         <v>97</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10">
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>418</v>
-      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>364</v>
+      </c>
       <c r="B136" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="C136" t="s">
-        <v>420</v>
-      </c>
-      <c r="D136" t="s">
-        <v>192</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G136" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>366</v>
+      </c>
       <c r="B137" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="C137" t="s">
-        <v>422</v>
-      </c>
-      <c r="D137" t="s">
-        <v>192</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" s="10"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G137" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>368</v>
+      </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="C138" t="s">
-        <v>424</v>
-      </c>
-      <c r="D138" t="s">
-        <v>192</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G138" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="7" t="s">
-        <v>425</v>
-      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E140" s="10"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>371</v>
+      </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="C141" t="s">
-        <v>427</v>
-      </c>
-      <c r="D141" t="s">
         <v>57</v>
       </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141" s="12">
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" s="12">
         <v>550</v>
       </c>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>373</v>
+      </c>
       <c r="B142" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="C142" t="s">
-        <v>429</v>
-      </c>
-      <c r="D142" t="s">
         <v>57</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" s="12">
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" s="12">
         <v>300</v>
       </c>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>375</v>
+      </c>
       <c r="B143" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="C143" t="s">
-        <v>431</v>
-      </c>
-      <c r="D143" t="s">
         <v>57</v>
       </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" s="12">
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" s="12">
         <v>300</v>
       </c>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>377</v>
+      </c>
       <c r="B144" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>433</v>
-      </c>
-      <c r="D144" t="s">
         <v>57</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" s="12">
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" s="12">
         <v>225</v>
       </c>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>379</v>
+      </c>
       <c r="B145" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
-        <v>435</v>
-      </c>
-      <c r="D145" t="s">
         <v>57</v>
       </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" s="12">
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" s="12">
         <v>325</v>
       </c>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>381</v>
+      </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="C146" t="s">
-        <v>437</v>
-      </c>
-      <c r="D146" t="s">
         <v>57</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" s="12">
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" s="12">
         <v>325</v>
       </c>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>383</v>
+      </c>
       <c r="B147" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="C147" t="s">
-        <v>439</v>
-      </c>
-      <c r="D147" t="s">
         <v>57</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" s="12">
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="12">
         <v>625</v>
       </c>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>385</v>
+      </c>
       <c r="B148" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
-      </c>
-      <c r="D148" t="s">
         <v>57</v>
       </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" s="12">
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" s="12">
         <v>325</v>
       </c>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>387</v>
+      </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
-      </c>
-      <c r="D149" t="s">
         <v>57</v>
       </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149" s="12">
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" s="12">
         <v>325</v>
       </c>
-      <c r="H149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7480,14 +7039,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -7510,13 +7069,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7527,22 +7086,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7560,10 +7119,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7581,17 +7140,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7609,10 +7168,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7630,7 +7189,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>148</v>
@@ -7651,10 +7210,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7672,17 +7231,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7700,10 +7259,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7721,10 +7280,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7742,14 +7301,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -7768,13 +7327,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7789,7 +7348,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -7808,20 +7367,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7836,13 +7395,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7858,20 +7417,20 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7886,13 +7445,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7907,13 +7466,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7925,13 +7484,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7946,13 +7505,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="B28" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="C28" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7967,13 +7526,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="B29" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="C29" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7988,13 +7547,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -8009,7 +7568,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -8029,13 +7588,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E32" s="10">
         <v>11.52</v>
@@ -8047,13 +7606,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E33" s="10">
         <v>3.1</v>
@@ -8065,13 +7624,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E34" s="10">
         <v>3.1</v>
@@ -8083,13 +7642,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E35" s="10">
         <v>6.42</v>
@@ -8101,10 +7660,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="C36" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -8112,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8148,14 +7707,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -8178,13 +7737,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8200,10 +7759,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8221,10 +7780,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -8239,7 +7798,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -8260,10 +7819,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8281,10 +7840,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8303,10 +7862,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -8324,10 +7883,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8345,7 +7904,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8408,20 +7967,20 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8433,13 +7992,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8455,13 +8014,13 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8476,13 +8035,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8497,13 +8056,13 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8518,13 +8077,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8539,13 +8098,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8578,17 +8137,17 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8606,10 +8165,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8629,10 +8188,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -8650,10 +8209,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -8679,7 +8238,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14">
@@ -8689,13 +8248,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8710,13 +8269,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8732,13 +8291,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="B23" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8758,7 +8317,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
@@ -8766,7 +8325,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8832,14 +8391,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8864,14 +8423,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8889,7 +8448,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8907,7 +8466,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8924,7 +8483,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8941,7 +8500,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -8958,7 +8517,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8975,7 +8534,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -8992,7 +8551,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -9009,7 +8568,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -9026,7 +8585,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -9043,7 +8602,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -9060,7 +8619,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -9077,7 +8636,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -9094,7 +8653,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -9111,13 +8670,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -9132,12 +8691,12 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -9154,7 +8713,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -9171,7 +8730,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -9188,7 +8747,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -9205,7 +8764,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
@@ -9222,7 +8781,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -9239,7 +8798,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
@@ -9256,7 +8815,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9273,13 +8832,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="B31" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -9294,12 +8853,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -9316,7 +8875,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -9333,7 +8892,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -9350,7 +8909,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
@@ -9367,7 +8926,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9384,7 +8943,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9402,7 +8961,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9419,13 +8978,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="B41" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9440,14 +8999,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
@@ -9465,7 +9024,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -9483,7 +9042,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -9501,7 +9060,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>548</v>
+        <v>493</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9519,7 +9078,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>549</v>
+        <v>494</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9537,12 +9096,12 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -9559,7 +9118,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -9576,7 +9135,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9593,7 +9152,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9611,7 +9170,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9633,20 +9192,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9661,13 +9220,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C59" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9682,13 +9241,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9703,22 +9262,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -9727,17 +9286,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9755,10 +9314,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9776,10 +9335,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9797,10 +9356,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9818,10 +9377,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -9868,7 +9427,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -9891,7 +9450,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9899,7 +9458,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9907,7 +9466,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9915,7 +9474,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0E64D-C35D-4B11-8A12-7B8DDBE01496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0774415-93EC-48FC-8CEC-3884A2771BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -3511,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -4483,13 +4483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -5230,7 +5230,9 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
       <c r="F44" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5249,7 +5251,9 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
       <c r="F45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6492,12 +6496,15 @@
       <c r="C117" t="s">
         <v>321</v>
       </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
       <c r="E117" s="10">
         <v>11.52</v>
       </c>
       <c r="F117" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -6510,12 +6517,15 @@
       <c r="C118" t="s">
         <v>321</v>
       </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
       <c r="E118" s="10">
         <v>3.1</v>
       </c>
       <c r="F118" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -6528,12 +6538,15 @@
       <c r="C119" t="s">
         <v>321</v>
       </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
       <c r="E119" s="10">
         <v>3.1</v>
       </c>
       <c r="F119" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -6546,12 +6559,15 @@
       <c r="C120" t="s">
         <v>321</v>
       </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
       <c r="E120" s="10">
         <v>6.42</v>
       </c>
       <c r="F120" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6768,7 +6784,9 @@
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="E133" s="10"/>
+      <c r="E133" s="10">
+        <v>0</v>
+      </c>
       <c r="F133" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7026,7 +7044,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7319,7 +7337,9 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7359,7 +7379,9 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7579,7 +7601,9 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7596,12 +7620,15 @@
       <c r="C32" t="s">
         <v>321</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
       <c r="E32" s="10">
         <v>11.52</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7614,12 +7641,15 @@
       <c r="C33" t="s">
         <v>321</v>
       </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
       <c r="E33" s="10">
         <v>3.1</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7632,12 +7662,15 @@
       <c r="C34" t="s">
         <v>321</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34" s="10">
         <v>3.1</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7650,12 +7683,15 @@
       <c r="C35" t="s">
         <v>321</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35" s="10">
         <v>6.42</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7694,7 +7730,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7794,7 +7830,10 @@
       <c r="E5" s="10">
         <v>77.25</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>77.25</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7915,7 +7954,9 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7931,7 +7972,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,20 +8272,14 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
-      <c r="F19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0774415-93EC-48FC-8CEC-3884A2771BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
     <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="521">
   <si>
     <t>Parts List</t>
   </si>
@@ -631,9 +630,6 @@
     <t>SPECIAL</t>
   </si>
   <si>
-    <t>Marked as SPECIAL, could be issue for reproducability</t>
-  </si>
-  <si>
     <t>Filter Cube</t>
   </si>
   <si>
@@ -1583,12 +1579,33 @@
   </si>
   <si>
     <t>Not found on website Think this might not be from Throlabs</t>
+  </si>
+  <si>
+    <t>Objective Bushing</t>
+  </si>
+  <si>
+    <t>RAO-0004-1</t>
+  </si>
+  <si>
+    <t>Marked as SPECIAL. What were the modifications requested</t>
+  </si>
+  <si>
+    <t>Red hookup wire</t>
+  </si>
+  <si>
+    <t>Black hookup wire</t>
+  </si>
+  <si>
+    <t>884-0837</t>
+  </si>
+  <si>
+    <t>874-0374</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2034,32 +2051,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2094,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2099,11 +2116,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2128,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2150,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2172,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +2194,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +2216,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2238,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2244,12 +2261,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2258,7 +2275,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2280,7 +2297,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2302,7 +2319,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2324,7 +2341,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2346,11 +2363,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2358,7 +2375,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2380,7 +2397,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2419,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2424,7 +2441,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2463,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2468,15 +2485,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2484,7 +2501,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2506,7 +2523,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2530,7 +2547,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2569,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2574,7 +2591,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2596,21 +2613,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2631,7 +2648,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2669,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2694,7 +2711,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2715,31 +2732,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2760,7 +2777,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2781,7 +2798,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2802,7 +2819,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2823,7 +2840,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2844,11 +2861,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2856,12 +2873,12 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -2877,12 +2894,12 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>503</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>504</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -2898,12 +2915,12 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>11</v>
@@ -2919,12 +2936,12 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>506</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>507</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -2940,12 +2957,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -2961,7 +2978,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2969,14 +2986,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -2997,17 +3014,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3025,7 +3042,7 @@
       </c>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3043,7 +3060,7 @@
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3061,7 +3078,7 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3079,17 +3096,17 @@
       </c>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3110,7 +3127,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3131,7 +3148,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3153,19 +3170,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3186,7 +3203,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3207,7 +3224,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -3223,7 +3240,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -3239,7 +3256,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -3255,11 +3272,11 @@
       <c r="E77" s="6"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>100</v>
       </c>
@@ -3267,7 +3284,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>101</v>
       </c>
@@ -3289,7 +3306,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>103</v>
       </c>
@@ -3311,7 +3328,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>104</v>
       </c>
@@ -3332,7 +3349,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>107</v>
       </c>
@@ -3353,7 +3370,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -3374,18 +3391,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -3406,7 +3423,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>114</v>
       </c>
@@ -3427,7 +3444,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>116</v>
       </c>
@@ -3448,7 +3465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>118</v>
       </c>
@@ -3469,29 +3486,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D96" s="1" t="s">
         <v>120</v>
       </c>
@@ -3508,20 +3525,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3542,12 +3559,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3589,21 +3606,21 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -3645,7 +3662,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -3666,7 +3683,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>132</v>
       </c>
@@ -3687,7 +3704,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
@@ -3708,7 +3725,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
@@ -3729,7 +3746,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
@@ -3750,7 +3767,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>140</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
@@ -3813,15 +3830,15 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>510</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>511</v>
       </c>
       <c r="D18" s="6">
         <v>19.309999999999999</v>
@@ -3834,13 +3851,13 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -3861,7 +3878,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>149</v>
       </c>
@@ -3882,7 +3899,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>128</v>
       </c>
@@ -3903,7 +3920,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>134</v>
       </c>
@@ -3948,7 +3965,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>136</v>
       </c>
@@ -3972,7 +3989,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>140</v>
       </c>
@@ -3993,7 +4010,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>154</v>
       </c>
@@ -4014,7 +4031,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>156</v>
       </c>
@@ -4035,15 +4052,15 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D30" s="6">
         <v>3.86</v>
@@ -4059,13 +4076,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>159</v>
       </c>
@@ -4086,7 +4103,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>161</v>
       </c>
@@ -4107,7 +4124,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>128</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>151</v>
       </c>
@@ -4149,7 +4166,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
@@ -4173,7 +4190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>136</v>
       </c>
@@ -4197,7 +4214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>140</v>
       </c>
@@ -4218,15 +4235,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D40" s="6">
         <v>3.86</v>
@@ -4242,17 +4259,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>165</v>
       </c>
@@ -4273,7 +4290,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>128</v>
       </c>
@@ -4294,7 +4311,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
@@ -4315,7 +4332,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
@@ -4339,7 +4356,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>136</v>
       </c>
@@ -4363,7 +4380,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>140</v>
       </c>
@@ -4384,7 +4401,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>167</v>
       </c>
@@ -4405,15 +4422,15 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D50" s="6">
         <v>3.86</v>
@@ -4426,13 +4443,13 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
@@ -4453,15 +4470,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>172</v>
       </c>
@@ -4480,24 +4497,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -4520,7 +4537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4541,19 +4558,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -4561,18 +4578,18 @@
         <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F74" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F75" si="0">D5*E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -4580,7 +4597,7 @@
         <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4591,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -4599,7 +4616,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4610,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -4618,7 +4635,7 @@
         <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4629,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -4637,7 +4654,7 @@
         <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4648,18 +4665,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -4677,11 +4694,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -4699,11 +4714,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -4724,7 +4737,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -4745,15 +4758,15 @@
         <v>1150</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>198</v>
-      </c>
-      <c r="B16" t="s">
-        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>189</v>
@@ -4770,369 +4783,373 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
         <v>200</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>201</v>
       </c>
-      <c r="C17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <v>12445.6</v>
       </c>
-      <c r="F17" s="10">
-        <f>D17*E17</f>
+      <c r="F18" s="10">
+        <f>D18*E18</f>
         <v>12445.6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>203</v>
-      </c>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
         <v>204</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>31.65</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>205</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>31.65</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="0"/>
-        <v>31.65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>206</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>157.9</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>157.9</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>207</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>157.9</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>157.9</v>
-      </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>208</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>156.05000000000001</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>156.05000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>209</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>156.05000000000001</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
-        <v>156.05000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
         <v>210</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>211</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="0"/>
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
         <v>212</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>372.53</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>372.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>213</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>372.53</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="0"/>
-        <v>372.53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>214</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>86.84</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>86.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
         <v>86.84</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>86.84</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>60.87</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
         <v>214</v>
       </c>
-      <c r="B27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
         <v>86.84</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>86.84</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>60.87</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="0"/>
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>86.84</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" si="0"/>
-        <v>86.84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
         <v>220</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>96.58</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>96.58</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
-        <v>96.58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>222</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>12.67</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="0"/>
+        <v>12.67</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>223</v>
       </c>
-      <c r="B33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>12.67</v>
-      </c>
-      <c r="F33" s="10">
-        <f t="shared" si="0"/>
-        <v>12.67</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
         <v>224</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>13.45</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>13.45</v>
-      </c>
-      <c r="F34" s="10">
-        <f t="shared" si="0"/>
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>227</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
         <v>228</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>12650</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="0"/>
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>229</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>12650</v>
-      </c>
-      <c r="F36" s="10">
-        <f t="shared" si="0"/>
-        <v>12650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>232</v>
-      </c>
       <c r="D38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10">
@@ -5140,107 +5157,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <v>31.65</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="0"/>
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10">
-        <v>31.65</v>
-      </c>
-      <c r="F40" s="10">
-        <f t="shared" si="0"/>
-        <v>31.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>234</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5.48</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="0"/>
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>235</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" s="10">
-        <v>5.48</v>
-      </c>
-      <c r="F41" s="10">
-        <f t="shared" si="0"/>
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
         <v>236</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F42" s="10">
-        <f t="shared" si="0"/>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>238</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>240</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -5259,1284 +5271,1282 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
         <v>241</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>6.01</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="0"/>
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>242</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10">
-        <v>6.01</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" si="0"/>
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
         <v>244</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
+        <v>18.66</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="0"/>
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>245</v>
       </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="10">
-        <v>18.66</v>
-      </c>
-      <c r="F48" s="10">
-        <f t="shared" si="0"/>
-        <v>18.66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
         <v>246</v>
       </c>
-      <c r="B49" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
         <v>3.84</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>248</v>
-      </c>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>249</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
         <v>250</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>2606.0100000000002</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="0"/>
+        <v>2606.0100000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>251</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10">
-        <v>2606.0100000000002</v>
-      </c>
-      <c r="F53" s="10">
-        <f t="shared" si="0"/>
-        <v>2606.0100000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
         <v>252</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>149.33000000000001</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="0"/>
+        <v>149.33000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10">
-        <v>149.33000000000001</v>
-      </c>
-      <c r="F54" s="10">
-        <f t="shared" si="0"/>
-        <v>149.33000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>254</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
         <v>255</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10">
+        <v>183.01</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="0"/>
+        <v>183.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>256</v>
       </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10">
-        <v>183.01</v>
-      </c>
-      <c r="F56" s="10">
-        <f t="shared" si="0"/>
-        <v>183.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
         <v>257</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>148.91999999999999</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="0"/>
+        <v>148.91999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10">
-        <v>148.91999999999999</v>
-      </c>
-      <c r="F57" s="10">
-        <f t="shared" si="0"/>
-        <v>148.91999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>259</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
+        <v>140.4</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>260</v>
       </c>
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10">
-        <v>140.4</v>
-      </c>
-      <c r="F59" s="10">
-        <f t="shared" si="0"/>
-        <v>140.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
         <v>261</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" si="0"/>
+        <v>77.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>262</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="10">
-        <v>77.25</v>
-      </c>
-      <c r="F60" s="10">
-        <f t="shared" si="0"/>
-        <v>77.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63" t="s">
         <v>263</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="0"/>
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>264</v>
       </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" s="10">
-        <v>6.68</v>
-      </c>
-      <c r="F62" s="10">
-        <f t="shared" si="0"/>
-        <v>26.72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B64" t="s">
         <v>265</v>
       </c>
-      <c r="B63" t="s">
-        <v>266</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10">
         <v>35.46</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <f t="shared" si="0"/>
         <v>35.46</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" t="s">
-        <v>454</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
         <v>2</v>
-      </c>
-      <c r="E64" s="10">
-        <v>12.67</v>
-      </c>
-      <c r="F64" s="10">
-        <f t="shared" si="0"/>
-        <v>25.34</v>
-      </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" t="s">
-        <v>454</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
       </c>
       <c r="E65" s="10">
         <v>12.67</v>
       </c>
       <c r="F65" s="10">
         <f t="shared" si="0"/>
+        <v>25.34</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" t="s">
+        <v>453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
         <v>12.67</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="F66" s="10">
+        <f t="shared" si="0"/>
+        <v>12.67</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" t="s">
         <v>267</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10">
+        <v>4.54</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>268</v>
       </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10">
-        <v>4.54</v>
-      </c>
-      <c r="F66" s="10">
-        <f t="shared" si="0"/>
-        <v>4.54</v>
-      </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10">
+        <v>5.95</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B67" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="10">
-        <v>5.95</v>
-      </c>
-      <c r="F67" s="10">
-        <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
         <v>271</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10">
+        <v>12.75</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>272</v>
       </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="10">
-        <v>12.75</v>
-      </c>
-      <c r="F69" s="10">
-        <f t="shared" si="0"/>
-        <v>12.75</v>
-      </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
         <v>273</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10">
+        <v>19.48</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="0"/>
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>274</v>
       </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10">
-        <v>19.48</v>
-      </c>
-      <c r="F70" s="10">
-        <f t="shared" si="0"/>
-        <v>19.48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
         <v>275</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10">
+        <v>24.96</v>
+      </c>
+      <c r="F72" s="10">
+        <f t="shared" si="0"/>
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13">
         <v>24.96</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F74" s="10">
         <f t="shared" si="0"/>
         <v>24.96</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="9">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13">
-        <v>24.96</v>
-      </c>
-      <c r="F73" s="10">
-        <f t="shared" si="0"/>
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
         <v>279</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="0"/>
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>280</v>
       </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="13">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F74" s="10">
-        <f t="shared" si="0"/>
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
         <v>281</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
+        <v>5.64</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" ref="F76:F136" si="1">D76*E76</f>
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13">
-        <v>5.64</v>
-      </c>
-      <c r="F75" s="10">
-        <f t="shared" ref="F75:F133" si="1">D75*E75</f>
-        <v>5.64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>283</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B78" t="s">
         <v>284</v>
       </c>
-      <c r="B77" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77">
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
         <v>4</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>4.71</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <f t="shared" si="1"/>
         <v>18.84</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" t="s">
         <v>286</v>
       </c>
-      <c r="B78" t="s">
-        <v>287</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
         <v>4</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>3.9</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" s="10">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="10">
         <v>31.65</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <f t="shared" si="1"/>
         <v>31.65</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" t="s">
         <v>289</v>
       </c>
-      <c r="B80" t="s">
-        <v>290</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10">
         <v>28.57</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <f t="shared" si="1"/>
         <v>28.57</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" t="s">
         <v>291</v>
       </c>
-      <c r="B81" t="s">
-        <v>292</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10">
         <v>131.29</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <f t="shared" si="1"/>
         <v>131.29</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>293</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
         <v>294</v>
       </c>
-      <c r="B83" t="s">
-        <v>295</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83">
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
         <v>2</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="G84" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>295</v>
+      </c>
+      <c r="B85" t="s">
         <v>296</v>
       </c>
-      <c r="B84" t="s">
-        <v>297</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" s="10">
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10">
         <v>392.53</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <f t="shared" si="1"/>
         <v>392.53</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" t="s">
         <v>298</v>
       </c>
-      <c r="B85" t="s">
-        <v>299</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85">
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
         <v>2</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>46.46</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <f t="shared" si="1"/>
         <v>92.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>450</v>
-      </c>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>299</v>
+      </c>
+      <c r="B89" t="s">
         <v>300</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10">
+        <f t="shared" ref="F89:F124" si="2">D89*E89</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C88" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10">
-        <f t="shared" ref="F88:F121" si="2">D88*E88</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>302</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
         <v>303</v>
       </c>
-      <c r="B90" t="s">
-        <v>304</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" s="10">
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
         <v>161.51</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <f t="shared" si="2"/>
         <v>161.51</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" t="s">
         <v>305</v>
       </c>
-      <c r="B91" t="s">
-        <v>306</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" s="10">
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
         <v>42.81</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <f t="shared" si="2"/>
         <v>42.81</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" t="s">
         <v>204</v>
       </c>
-      <c r="B93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93">
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
         <v>2</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E94" s="10">
         <v>31.65</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F94" s="10">
         <f t="shared" si="2"/>
         <v>63.3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
         <v>263</v>
       </c>
-      <c r="B94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94">
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
         <v>4</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E95" s="10">
         <v>6.68</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F95" s="10">
         <f t="shared" si="2"/>
         <v>26.72</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>307</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>306</v>
+      </c>
+      <c r="B96" t="s">
         <v>148</v>
       </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" s="10">
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
         <v>30.84</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <f t="shared" si="2"/>
         <v>30.84</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" t="s">
         <v>308</v>
       </c>
-      <c r="B96" t="s">
-        <v>309</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" s="10">
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
         <v>21.71</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F97" s="10">
         <f t="shared" si="2"/>
         <v>21.71</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>310</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
         <v>311</v>
       </c>
-      <c r="B98" t="s">
-        <v>312</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" s="10">
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
         <v>20.3</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F99" s="10">
         <f t="shared" si="2"/>
         <v>20.3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>312</v>
+      </c>
+      <c r="B100" t="s">
         <v>313</v>
       </c>
-      <c r="B99" t="s">
-        <v>314</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" s="10">
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
         <v>8.77</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F100" s="10">
         <f t="shared" si="2"/>
         <v>8.77</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" t="s">
         <v>315</v>
       </c>
-      <c r="B100" t="s">
-        <v>316</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" s="10">
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
         <v>5.5</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F101" s="10">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>317</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>318</v>
-      </c>
-      <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
         <v>97</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" t="s">
         <v>319</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C104" t="s">
         <v>320</v>
       </c>
-      <c r="C103" t="s">
-        <v>321</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" s="10">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
         <v>2.75</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F104" s="10">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>322</v>
-      </c>
-      <c r="B104" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" t="s">
         <v>97</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>323</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B107" t="s">
         <v>324</v>
       </c>
-      <c r="B106" t="s">
-        <v>325</v>
-      </c>
-      <c r="C106" t="s">
-        <v>321</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106" s="10">
+      <c r="C107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="10">
         <v>6.18</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F107" s="10">
         <f t="shared" si="2"/>
         <v>6.18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>456</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>455</v>
       </c>
-      <c r="C107" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" s="10">
+      <c r="B108" t="s">
+        <v>454</v>
+      </c>
+      <c r="C108" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="10">
         <v>23.13</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F108" s="10">
         <f t="shared" si="2"/>
         <v>23.13</v>
       </c>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>326</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B110" t="s">
         <v>327</v>
       </c>
-      <c r="B109" t="s">
-        <v>328</v>
-      </c>
-      <c r="C109" t="s">
-        <v>321</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" s="10">
+      <c r="C110" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10">
         <v>17</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F110" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111">
+        <v>1438</v>
+      </c>
+      <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="B110">
-        <v>1438</v>
-      </c>
-      <c r="C110" t="s">
-        <v>330</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" s="10">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="10">
         <v>18.5</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F111" s="10">
         <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>330</v>
+      </c>
+      <c r="B112" t="s">
         <v>331</v>
       </c>
-      <c r="B111" t="s">
-        <v>332</v>
-      </c>
-      <c r="C111" t="s">
-        <v>321</v>
-      </c>
-      <c r="E111" s="10">
+      <c r="C112" t="s">
+        <v>320</v>
+      </c>
+      <c r="E112" s="10">
         <v>0.747</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F112" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" t="s">
         <v>333</v>
       </c>
-      <c r="B112" t="s">
-        <v>334</v>
-      </c>
-      <c r="C112" t="s">
-        <v>321</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" s="10">
+      <c r="C113" t="s">
+        <v>320</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10">
         <v>11.85</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F113" s="10">
         <f t="shared" si="2"/>
         <v>11.85</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>449</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>448</v>
       </c>
-      <c r="C113" t="s">
-        <v>321</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" s="10">
+      <c r="B114" t="s">
+        <v>447</v>
+      </c>
+      <c r="C114" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F114" s="10">
         <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>444</v>
+      </c>
+      <c r="B115" t="s">
         <v>445</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C115" t="s">
         <v>446</v>
       </c>
-      <c r="C114" t="s">
-        <v>447</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" s="10">
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10">
         <v>1.72</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F115" s="10">
         <f t="shared" si="2"/>
         <v>1.72</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" t="s">
         <v>335</v>
       </c>
-      <c r="B115" t="s">
-        <v>336</v>
-      </c>
-      <c r="C115" t="s">
-        <v>321</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" s="10">
+      <c r="C116" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10">
         <v>5.25</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F116" s="10">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>337</v>
-      </c>
-      <c r="B116" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>336</v>
+      </c>
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" t="s">
         <v>97</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10">
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>337</v>
+      </c>
+      <c r="B118" t="s">
         <v>338</v>
       </c>
-      <c r="B117" t="s">
-        <v>339</v>
-      </c>
-      <c r="C117" t="s">
-        <v>321</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" s="10">
+      <c r="C118" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="10">
         <v>11.52</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F118" s="10">
         <f t="shared" si="2"/>
         <v>11.52</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" t="s">
         <v>340</v>
       </c>
-      <c r="B118" t="s">
-        <v>341</v>
-      </c>
-      <c r="C118" t="s">
-        <v>321</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="F118" s="10">
-        <f t="shared" si="2"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>342</v>
-      </c>
-      <c r="B119" t="s">
-        <v>343</v>
-      </c>
       <c r="C119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -6549,388 +6559,393 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" s="10">
-        <v>6.42</v>
+        <v>3.1</v>
       </c>
       <c r="F120" s="10">
         <f t="shared" si="2"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>343</v>
+      </c>
+      <c r="B121" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="10">
         <v>6.42</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>346</v>
-      </c>
-      <c r="C121" t="s">
-        <v>321</v>
-      </c>
-      <c r="E121" s="10"/>
       <c r="F121" s="10">
         <f t="shared" si="2"/>
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>345</v>
+      </c>
+      <c r="C122" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G122" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>518</v>
+      </c>
+      <c r="B123" t="s">
+        <v>519</v>
+      </c>
+      <c r="C123" t="s">
+        <v>320</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="10">
+        <v>6.27</v>
+      </c>
+      <c r="F123" s="10">
+        <f t="shared" si="2"/>
+        <v>6.27</v>
+      </c>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>517</v>
+      </c>
+      <c r="B124" t="s">
+        <v>520</v>
+      </c>
+      <c r="C124" t="s">
+        <v>320</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="10">
+        <v>6.27</v>
+      </c>
+      <c r="F124" s="10">
+        <f t="shared" si="2"/>
+        <v>6.27</v>
+      </c>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>349</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B128" t="s">
         <v>350</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C128" t="s">
         <v>351</v>
       </c>
-      <c r="C125" t="s">
-        <v>352</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" s="10">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="10">
         <v>1013</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F128" s="10">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>352</v>
+      </c>
+      <c r="B129" t="s">
         <v>353</v>
       </c>
-      <c r="B126" t="s">
-        <v>354</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" s="10">
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="10">
         <v>49.91</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F129" s="10">
         <f t="shared" si="1"/>
         <v>49.91</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>354</v>
+      </c>
+      <c r="B130" t="s">
         <v>355</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="10">
+        <v>77.25</v>
+      </c>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>356</v>
       </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127" s="10">
-        <v>77.25</v>
-      </c>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>357</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="C128" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128" s="10">
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" s="10">
         <v>16.16</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F131" s="10">
         <f t="shared" si="1"/>
         <v>16.16</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>265</v>
-      </c>
-      <c r="B129" t="s">
-        <v>358</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129" s="10">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10">
         <v>11.01</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F132" s="10">
         <f t="shared" si="1"/>
         <v>11.01</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>359</v>
-      </c>
-      <c r="B130" t="s">
-        <v>454</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" s="10">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>358</v>
+      </c>
+      <c r="B133" t="s">
+        <v>453</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="10">
         <v>12.67</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F133" s="10">
         <f t="shared" si="1"/>
         <v>12.67</v>
       </c>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" t="s">
         <v>236</v>
       </c>
-      <c r="B131" t="s">
-        <v>237</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131">
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134">
         <v>4</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E134" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F134" s="10">
         <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>359</v>
+      </c>
+      <c r="B135" t="s">
         <v>360</v>
       </c>
-      <c r="B132" t="s">
-        <v>361</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" s="10">
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" s="10">
         <v>14.57</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F135" s="10">
         <f t="shared" si="1"/>
         <v>14.57</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="s">
         <v>97</v>
       </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133" s="10">
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" s="10">
         <v>0</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F136" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>364</v>
-      </c>
-      <c r="B136" t="s">
-        <v>365</v>
-      </c>
-      <c r="C136" t="s">
-        <v>189</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>366</v>
-      </c>
-      <c r="B137" t="s">
-        <v>367</v>
-      </c>
-      <c r="C137" t="s">
-        <v>189</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>368</v>
-      </c>
-      <c r="B138" t="s">
-        <v>369</v>
-      </c>
-      <c r="C138" t="s">
-        <v>189</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>363</v>
+      </c>
+      <c r="B139" t="s">
+        <v>364</v>
+      </c>
+      <c r="C139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>370</v>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>365</v>
+      </c>
+      <c r="B140" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>367</v>
+      </c>
+      <c r="B141" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>370</v>
+      </c>
+      <c r="B144" t="s">
         <v>371</v>
-      </c>
-      <c r="B141" t="s">
-        <v>372</v>
-      </c>
-      <c r="C141" t="s">
-        <v>57</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141" s="12">
-        <v>550</v>
-      </c>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>373</v>
-      </c>
-      <c r="B142" t="s">
-        <v>374</v>
-      </c>
-      <c r="C142" t="s">
-        <v>57</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142" s="12">
-        <v>300</v>
-      </c>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>375</v>
-      </c>
-      <c r="B143" t="s">
-        <v>376</v>
-      </c>
-      <c r="C143" t="s">
-        <v>57</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143" s="12">
-        <v>300</v>
-      </c>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>377</v>
-      </c>
-      <c r="B144" t="s">
-        <v>378</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -6939,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="E144" s="12">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B145" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -6957,16 +6972,16 @@
         <v>1</v>
       </c>
       <c r="E145" s="12">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B146" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -6975,16 +6990,16 @@
         <v>1</v>
       </c>
       <c r="E146" s="12">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B147" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -6993,16 +7008,16 @@
         <v>1</v>
       </c>
       <c r="E147" s="12">
-        <v>625</v>
+        <v>225</v>
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B148" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -7015,12 +7030,12 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B149" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -7032,6 +7047,60 @@
         <v>325</v>
       </c>
       <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>382</v>
+      </c>
+      <c r="B150" t="s">
+        <v>383</v>
+      </c>
+      <c r="C150" t="s">
+        <v>57</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" s="12">
+        <v>625</v>
+      </c>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>384</v>
+      </c>
+      <c r="B151" t="s">
+        <v>385</v>
+      </c>
+      <c r="C151" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="12">
+        <v>325</v>
+      </c>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>386</v>
+      </c>
+      <c r="B152" t="s">
+        <v>387</v>
+      </c>
+      <c r="C152" t="s">
+        <v>57</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" s="12">
+        <v>325</v>
+      </c>
+      <c r="G152" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7040,29 +7109,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>173</v>
       </c>
@@ -7085,12 +7154,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
         <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
       </c>
       <c r="C3" t="s">
         <v>177</v>
@@ -7107,19 +7176,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
         <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7135,12 +7204,12 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
         <v>305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>306</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7156,19 +7225,19 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7184,12 +7253,12 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" t="s">
-        <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7205,9 +7274,9 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>148</v>
@@ -7226,12 +7295,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" t="s">
         <v>308</v>
-      </c>
-      <c r="B11" t="s">
-        <v>309</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7247,19 +7316,19 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" t="s">
         <v>311</v>
-      </c>
-      <c r="B13" t="s">
-        <v>312</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7275,12 +7344,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" t="s">
         <v>313</v>
-      </c>
-      <c r="B14" t="s">
-        <v>314</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7296,12 +7365,12 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
         <v>315</v>
-      </c>
-      <c r="B15" t="s">
-        <v>316</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7317,16 +7386,16 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -7345,15 +7414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" t="s">
         <v>319</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>320</v>
-      </c>
-      <c r="C18" t="s">
-        <v>321</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7366,9 +7435,9 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -7387,22 +7456,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" t="s">
         <v>324</v>
       </c>
-      <c r="B21" t="s">
-        <v>325</v>
-      </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7415,15 +7484,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7437,22 +7506,22 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" t="s">
         <v>327</v>
       </c>
-      <c r="B24" t="s">
-        <v>328</v>
-      </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7465,15 +7534,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7486,15 +7555,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" t="s">
         <v>331</v>
       </c>
-      <c r="B26" t="s">
-        <v>332</v>
-      </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7504,15 +7573,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
         <v>333</v>
       </c>
-      <c r="B27" t="s">
-        <v>334</v>
-      </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7525,15 +7594,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7546,15 +7615,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" t="s">
         <v>445</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>446</v>
-      </c>
-      <c r="C29" t="s">
-        <v>447</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7567,15 +7636,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" t="s">
         <v>335</v>
       </c>
-      <c r="B30" t="s">
-        <v>336</v>
-      </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7588,9 +7657,9 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -7610,15 +7679,15 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
         <v>338</v>
       </c>
-      <c r="B32" t="s">
-        <v>339</v>
-      </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -7631,15 +7700,15 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" t="s">
         <v>340</v>
       </c>
-      <c r="B33" t="s">
-        <v>341</v>
-      </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -7652,15 +7721,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" t="s">
         <v>342</v>
       </c>
-      <c r="B34" t="s">
-        <v>343</v>
-      </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -7673,15 +7742,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" t="s">
         <v>344</v>
       </c>
-      <c r="B35" t="s">
-        <v>345</v>
-      </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -7694,12 +7763,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -7707,15 +7776,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
@@ -7726,29 +7795,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>173</v>
       </c>
@@ -7771,15 +7840,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
         <v>350</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>351</v>
-      </c>
-      <c r="C3" t="s">
-        <v>352</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7793,12 +7862,12 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" t="s">
         <v>353</v>
-      </c>
-      <c r="B4" t="s">
-        <v>354</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7814,12 +7883,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" t="s">
         <v>355</v>
-      </c>
-      <c r="B5" t="s">
-        <v>356</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7835,9 +7904,9 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -7856,12 +7925,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -7877,12 +7946,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7899,12 +7968,12 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
         <v>236</v>
-      </c>
-      <c r="B9" t="s">
-        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7920,12 +7989,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" t="s">
         <v>360</v>
-      </c>
-      <c r="B10" t="s">
-        <v>361</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -7941,9 +8010,9 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -7968,28 +8037,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8006,22 +8075,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>390</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>391</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8031,15 +8100,15 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8053,15 +8122,15 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8074,15 +8143,15 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>396</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8095,15 +8164,15 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>398</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8116,15 +8185,15 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>400</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>401</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8137,15 +8206,15 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>403</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8158,37 +8227,37 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" t="s">
         <v>405</v>
-      </c>
-      <c r="B15" t="s">
-        <v>406</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -8204,12 +8273,12 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" t="s">
         <v>407</v>
-      </c>
-      <c r="B16" t="s">
-        <v>408</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8227,12 +8296,12 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" t="s">
         <v>409</v>
-      </c>
-      <c r="B17" t="s">
-        <v>410</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -8248,12 +8317,12 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" t="s">
         <v>411</v>
-      </c>
-      <c r="B18" t="s">
-        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -8270,26 +8339,26 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E19" s="17"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" t="s">
         <v>414</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>415</v>
-      </c>
-      <c r="C21" t="s">
-        <v>416</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -8302,15 +8371,15 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -8324,15 +8393,15 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" t="s">
         <v>418</v>
       </c>
-      <c r="B23" t="s">
-        <v>419</v>
-      </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -8345,22 +8414,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E24" s="17"/>
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="14"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8368,19 +8437,19 @@
       <c r="E26" s="17"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8389,25 +8458,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8424,16 +8493,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8452,73 +8521,73 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>463</v>
       </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>464</v>
       </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>465</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8533,43 +8602,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>467</v>
       </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>468</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -8584,111 +8653,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>470</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>475</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>476</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>471</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -8703,15 +8772,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" t="s">
         <v>424</v>
-      </c>
-      <c r="B20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C20" t="s">
-        <v>425</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -8724,117 +8793,117 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>476</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>482</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>477</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>483</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>478</v>
       </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>479</v>
       </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>480</v>
       </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>481</v>
       </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>482</v>
-      </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
@@ -8848,9 +8917,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -8865,15 +8934,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" t="s">
         <v>424</v>
-      </c>
-      <c r="B31" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" t="s">
-        <v>425</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -8886,82 +8955,82 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>484</v>
       </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>485</v>
       </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>486</v>
       </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>487</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>488</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -8976,9 +9045,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -8994,9 +9063,9 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9011,15 +9080,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" t="s">
         <v>424</v>
-      </c>
-      <c r="B41" t="s">
-        <v>321</v>
-      </c>
-      <c r="C41" t="s">
-        <v>425</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9032,70 +9101,70 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>490</v>
       </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>491</v>
       </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>492</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>493</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9111,9 +9180,9 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9129,48 +9198,48 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>494</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>495</v>
       </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>496</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>497</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9185,9 +9254,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9203,9 +9272,9 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9221,26 +9290,26 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" t="s">
         <v>426</v>
-      </c>
-      <c r="B58" t="s">
-        <v>321</v>
-      </c>
-      <c r="C58" t="s">
-        <v>427</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9253,15 +9322,15 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" t="s">
         <v>429</v>
-      </c>
-      <c r="B59" t="s">
-        <v>321</v>
-      </c>
-      <c r="C59" t="s">
-        <v>430</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9274,15 +9343,15 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" t="s">
         <v>431</v>
-      </c>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-      <c r="C60" t="s">
-        <v>432</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9295,43 +9364,43 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>433</v>
+      </c>
+      <c r="B65" t="s">
         <v>434</v>
-      </c>
-      <c r="B65" t="s">
-        <v>435</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9347,12 +9416,12 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9368,12 +9437,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9389,12 +9458,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9410,12 +9479,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -9431,7 +9500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D71" s="10"/>
       <c r="F71" s="10"/>
     </row>
@@ -9442,25 +9511,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -9483,33 +9552,33 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>441</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>442</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>443</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>444</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451B0B28-818B-4AA1-B32C-AE492C203C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
     <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="523">
   <si>
     <t>Parts List</t>
   </si>
@@ -1600,12 +1601,18 @@
   </si>
   <si>
     <t>874-0374</t>
+  </si>
+  <si>
+    <t>Jumper wires</t>
+  </si>
+  <si>
+    <t>505-3396</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2051,32 +2058,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2094,7 +2101,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2116,11 +2123,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +2135,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +2157,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2179,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2201,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +2223,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2245,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2261,12 +2268,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2275,7 +2282,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2297,7 +2304,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2319,7 +2326,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2341,7 +2348,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2363,11 +2370,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2375,7 +2382,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2397,7 +2404,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2426,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2441,7 +2448,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2470,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2485,15 +2492,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2501,7 +2508,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2523,7 +2530,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2547,7 +2554,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2569,7 +2576,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2591,7 +2598,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2613,21 +2620,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2648,7 +2655,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2690,7 +2697,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2711,7 +2718,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2732,31 +2739,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2798,7 +2805,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2840,7 +2847,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2861,11 +2868,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2873,7 +2880,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>158</v>
       </c>
@@ -2894,7 +2901,7 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>502</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>504</v>
       </c>
@@ -2936,7 +2943,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>505</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>508</v>
       </c>
@@ -2978,7 +2985,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2986,14 +2993,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3014,17 +3021,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3042,7 +3049,7 @@
       </c>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3060,7 +3067,7 @@
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3078,7 +3085,7 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3096,17 +3103,17 @@
       </c>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3170,19 +3177,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -3240,7 +3247,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -3256,7 +3263,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -3272,11 +3279,11 @@
       <c r="E77" s="6"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>100</v>
       </c>
@@ -3284,7 +3291,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>101</v>
       </c>
@@ -3306,7 +3313,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>103</v>
       </c>
@@ -3328,7 +3335,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>104</v>
       </c>
@@ -3349,7 +3356,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>107</v>
       </c>
@@ -3370,7 +3377,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -3391,18 +3398,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -3423,7 +3430,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>114</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>116</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>118</v>
       </c>
@@ -3486,29 +3493,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D96" s="1" t="s">
         <v>120</v>
       </c>
@@ -3525,20 +3532,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3559,12 +3566,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3606,21 +3613,21 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>128</v>
       </c>
@@ -3662,7 +3669,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>132</v>
       </c>
@@ -3704,7 +3711,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
@@ -3725,7 +3732,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
@@ -3746,7 +3753,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
@@ -3767,7 +3774,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>140</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
@@ -3809,7 +3816,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>509</v>
       </c>
@@ -3851,13 +3858,13 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>149</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>128</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>151</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>134</v>
       </c>
@@ -3965,7 +3972,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>136</v>
       </c>
@@ -3989,7 +3996,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>140</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>154</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>156</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>512</v>
       </c>
@@ -4076,13 +4083,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>159</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>161</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>128</v>
       </c>
@@ -4145,7 +4152,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>151</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>136</v>
       </c>
@@ -4214,7 +4221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>140</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>512</v>
       </c>
@@ -4259,17 +4266,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>164</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>165</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>128</v>
       </c>
@@ -4311,7 +4318,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>136</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>140</v>
       </c>
@@ -4401,7 +4408,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>167</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>512</v>
       </c>
@@ -4443,13 +4450,13 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
@@ -4470,15 +4477,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>172</v>
       </c>
@@ -4497,24 +4504,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -4537,7 +4544,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4558,19 +4565,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -4608,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -4627,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -4665,18 +4672,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -4696,7 +4703,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -4716,7 +4723,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -4737,7 +4744,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -4783,7 +4790,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>514</v>
       </c>
@@ -4803,7 +4810,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -4824,18 +4831,18 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>202</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -4856,7 +4863,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -4878,7 +4885,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -4920,7 +4927,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>213</v>
       </c>
@@ -4962,14 +4969,14 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>215</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -4990,7 +4997,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>216</v>
       </c>
@@ -5011,14 +5018,14 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>213</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -5060,14 +5067,14 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>221</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -5089,7 +5096,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -5110,14 +5117,14 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>225</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>226</v>
       </c>
@@ -5138,7 +5145,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>229</v>
       </c>
@@ -5157,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>230</v>
       </c>
@@ -5173,14 +5180,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>232</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -5201,7 +5208,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -5222,7 +5229,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -5243,14 +5250,14 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>237</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>238</v>
       </c>
@@ -5271,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -5292,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -5323,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -5344,7 +5351,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>245</v>
       </c>
@@ -5365,25 +5372,25 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>248</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -5404,7 +5411,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>251</v>
       </c>
@@ -5425,14 +5432,14 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>254</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -5474,14 +5481,14 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>259</v>
       </c>
@@ -5502,7 +5509,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>260</v>
       </c>
@@ -5523,14 +5530,14 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>232</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>262</v>
       </c>
@@ -5551,7 +5558,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>264</v>
       </c>
@@ -5572,7 +5579,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -5594,7 +5601,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>222</v>
       </c>
@@ -5616,7 +5623,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -5638,7 +5645,7 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>268</v>
       </c>
@@ -5660,14 +5667,14 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>269</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -5689,7 +5696,7 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -5710,7 +5717,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>274</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>276</v>
       </c>
@@ -5741,7 +5748,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -5762,7 +5769,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>280</v>
       </c>
@@ -5804,7 +5811,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>282</v>
       </c>
@@ -5812,7 +5819,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>283</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -5875,7 +5882,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>288</v>
       </c>
@@ -5896,7 +5903,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>290</v>
       </c>
@@ -5917,14 +5924,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>292</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>293</v>
       </c>
@@ -5946,7 +5953,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -5968,7 +5975,7 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>297</v>
       </c>
@@ -5989,18 +5996,18 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>449</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>299</v>
       </c>
@@ -6020,14 +6027,14 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>302</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>304</v>
       </c>
@@ -6069,14 +6076,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>232</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -6097,7 +6104,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -6118,7 +6125,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>306</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>307</v>
       </c>
@@ -6160,14 +6167,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>309</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>310</v>
       </c>
@@ -6188,7 +6195,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>312</v>
       </c>
@@ -6209,7 +6216,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>314</v>
       </c>
@@ -6230,14 +6237,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>317</v>
       </c>
@@ -6256,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>318</v>
       </c>
@@ -6277,7 +6284,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>321</v>
       </c>
@@ -6296,14 +6303,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -6324,7 +6331,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>455</v>
       </c>
@@ -6346,14 +6353,14 @@
       </c>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -6374,7 +6381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>328</v>
       </c>
@@ -6395,7 +6402,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>330</v>
       </c>
@@ -6413,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -6434,7 +6441,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>448</v>
       </c>
@@ -6455,7 +6462,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>444</v>
       </c>
@@ -6476,7 +6483,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>334</v>
       </c>
@@ -6497,7 +6504,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>336</v>
       </c>
@@ -6517,7 +6524,7 @@
       </c>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>337</v>
       </c>
@@ -6538,7 +6545,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>339</v>
       </c>
@@ -6559,7 +6566,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>341</v>
       </c>
@@ -6580,7 +6587,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>343</v>
       </c>
@@ -6601,23 +6608,29 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>521</v>
+      </c>
+      <c r="B122" t="s">
+        <v>522</v>
       </c>
       <c r="C122" t="s">
         <v>320</v>
       </c>
-      <c r="E122" s="10"/>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="10">
+        <v>4.59</v>
+      </c>
       <c r="F122" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.59</v>
+      </c>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>518</v>
       </c>
@@ -6639,7 +6652,7 @@
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>517</v>
       </c>
@@ -6661,25 +6674,25 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>347</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>348</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>349</v>
       </c>
@@ -6701,7 +6714,7 @@
       </c>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>352</v>
       </c>
@@ -6722,7 +6735,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>354</v>
       </c>
@@ -6738,9 +6751,12 @@
       <c r="E130" s="10">
         <v>77.25</v>
       </c>
-      <c r="F130" s="10"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F130" s="10">
+        <f t="shared" si="1"/>
+        <v>77.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>356</v>
       </c>
@@ -6761,7 +6777,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>264</v>
       </c>
@@ -6782,7 +6798,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>358</v>
       </c>
@@ -6804,7 +6820,7 @@
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>235</v>
       </c>
@@ -6825,7 +6841,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>359</v>
       </c>
@@ -6846,7 +6862,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>361</v>
       </c>
@@ -6867,18 +6883,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>362</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>363</v>
       </c>
@@ -6895,7 +6911,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>365</v>
       </c>
@@ -6912,7 +6928,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>367</v>
       </c>
@@ -6929,18 +6945,18 @@
       <c r="F141" s="10"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>369</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>370</v>
       </c>
@@ -6958,7 +6974,7 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>372</v>
       </c>
@@ -6976,7 +6992,7 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>374</v>
       </c>
@@ -6994,7 +7010,7 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>376</v>
       </c>
@@ -7012,7 +7028,7 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>378</v>
       </c>
@@ -7030,7 +7046,7 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>380</v>
       </c>
@@ -7048,7 +7064,7 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>382</v>
       </c>
@@ -7066,7 +7082,7 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>384</v>
       </c>
@@ -7084,7 +7100,7 @@
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>386</v>
       </c>
@@ -7109,29 +7125,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>450</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>173</v>
       </c>
@@ -7154,7 +7170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -7176,14 +7192,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -7204,7 +7220,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -7225,14 +7241,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>232</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -7253,7 +7269,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -7274,7 +7290,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>306</v>
       </c>
@@ -7295,7 +7311,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>307</v>
       </c>
@@ -7316,14 +7332,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>309</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>310</v>
       </c>
@@ -7344,7 +7360,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -7386,14 +7402,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>316</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -7414,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -7435,7 +7451,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>321</v>
       </c>
@@ -7456,14 +7472,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -7484,7 +7500,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -7506,14 +7522,14 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -7534,7 +7550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>328</v>
       </c>
@@ -7555,7 +7571,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>330</v>
       </c>
@@ -7573,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>332</v>
       </c>
@@ -7594,7 +7610,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>448</v>
       </c>
@@ -7615,7 +7631,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>444</v>
       </c>
@@ -7636,7 +7652,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -7657,7 +7673,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>336</v>
       </c>
@@ -7679,7 +7695,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>337</v>
       </c>
@@ -7700,7 +7716,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>339</v>
       </c>
@@ -7721,7 +7737,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>341</v>
       </c>
@@ -7742,7 +7758,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>343</v>
       </c>
@@ -7763,7 +7779,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>345</v>
       </c>
@@ -7779,12 +7795,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="4"/>
@@ -7795,29 +7811,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>451</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>173</v>
       </c>
@@ -7840,7 +7856,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -7862,7 +7878,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>352</v>
       </c>
@@ -7883,7 +7899,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -7904,7 +7920,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>356</v>
       </c>
@@ -7925,7 +7941,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>264</v>
       </c>
@@ -7946,7 +7962,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -7968,7 +7984,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -7989,7 +8005,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -8010,7 +8026,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>361</v>
       </c>
@@ -8037,28 +8053,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8075,14 +8091,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>388</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>389</v>
       </c>
@@ -8100,7 +8116,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>391</v>
       </c>
@@ -8122,7 +8138,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>392</v>
       </c>
@@ -8143,7 +8159,7 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>394</v>
       </c>
@@ -8164,7 +8180,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>396</v>
       </c>
@@ -8185,7 +8201,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>398</v>
       </c>
@@ -8206,7 +8222,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>401</v>
       </c>
@@ -8227,32 +8243,32 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>403</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>404</v>
       </c>
@@ -8273,7 +8289,7 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>406</v>
       </c>
@@ -8296,7 +8312,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -8317,7 +8333,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>410</v>
       </c>
@@ -8339,18 +8355,18 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>413</v>
       </c>
@@ -8371,7 +8387,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>500</v>
       </c>
@@ -8393,7 +8409,7 @@
       </c>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>417</v>
       </c>
@@ -8414,12 +8430,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>419</v>
       </c>
@@ -8427,7 +8443,7 @@
       <c r="F25" s="14"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>420</v>
       </c>
@@ -8437,19 +8453,19 @@
       <c r="E26" s="17"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8458,25 +8474,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8493,14 +8509,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>421</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -8521,18 +8537,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -8550,7 +8566,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>463</v>
       </c>
@@ -8568,7 +8584,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>464</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>465</v>
       </c>
@@ -8602,7 +8618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>466</v>
       </c>
@@ -8619,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>467</v>
       </c>
@@ -8636,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>468</v>
       </c>
@@ -8653,7 +8669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>469</v>
       </c>
@@ -8670,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>471</v>
       </c>
@@ -8687,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -8704,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>473</v>
       </c>
@@ -8721,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>474</v>
       </c>
@@ -8738,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>475</v>
       </c>
@@ -8755,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>470</v>
       </c>
@@ -8772,7 +8788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>423</v>
       </c>
@@ -8793,12 +8809,12 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>476</v>
       </c>
@@ -8815,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>482</v>
       </c>
@@ -8832,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>477</v>
       </c>
@@ -8849,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>478</v>
       </c>
@@ -8866,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>479</v>
       </c>
@@ -8883,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>480</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>481</v>
       </c>
@@ -8917,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>470</v>
       </c>
@@ -8934,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>423</v>
       </c>
@@ -8955,12 +8971,12 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>483</v>
       </c>
@@ -8977,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>484</v>
       </c>
@@ -8994,7 +9010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>485</v>
       </c>
@@ -9011,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>486</v>
       </c>
@@ -9028,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>487</v>
       </c>
@@ -9045,7 +9061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>488</v>
       </c>
@@ -9063,7 +9079,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>470</v>
       </c>
@@ -9080,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>423</v>
       </c>
@@ -9101,14 +9117,14 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>460</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>489</v>
       </c>
@@ -9126,7 +9142,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>490</v>
       </c>
@@ -9144,7 +9160,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>491</v>
       </c>
@@ -9162,7 +9178,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>492</v>
       </c>
@@ -9180,7 +9196,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>493</v>
       </c>
@@ -9198,12 +9214,12 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>494</v>
       </c>
@@ -9220,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>495</v>
       </c>
@@ -9237,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>496</v>
       </c>
@@ -9254,7 +9270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>497</v>
       </c>
@@ -9272,7 +9288,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>498</v>
       </c>
@@ -9290,18 +9306,18 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>499</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -9322,7 +9338,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>428</v>
       </c>
@@ -9343,7 +9359,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>430</v>
       </c>
@@ -9364,7 +9380,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>439</v>
       </c>
@@ -9374,7 +9390,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>456</v>
       </c>
@@ -9384,18 +9400,18 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>432</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>433</v>
       </c>
@@ -9416,7 +9432,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>435</v>
       </c>
@@ -9437,7 +9453,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>436</v>
       </c>
@@ -9458,7 +9474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>437</v>
       </c>
@@ -9479,7 +9495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>438</v>
       </c>
@@ -9500,7 +9516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" s="10"/>
       <c r="F71" s="10"/>
     </row>
@@ -9511,25 +9527,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -9552,7 +9568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>440</v>
       </c>
@@ -9560,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>441</v>
       </c>
@@ -9568,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -9576,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>443</v>
       </c>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451B0B28-818B-4AA1-B32C-AE492C203C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
     <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="520">
   <si>
     <t>Parts List</t>
   </si>
@@ -322,9 +321,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
     <t>488 nm mount</t>
   </si>
   <si>
@@ -607,12 +603,6 @@
     <t>DASI/I-3091</t>
   </si>
   <si>
-    <t>Cairn</t>
-  </si>
-  <si>
-    <t>Cairn or ASI?</t>
-  </si>
-  <si>
     <t>Motorized Stage</t>
   </si>
   <si>
@@ -1075,12 +1065,6 @@
     <t>453-886</t>
   </si>
   <si>
-    <t>Wires</t>
-  </si>
-  <si>
-    <t>Clarify</t>
-  </si>
-  <si>
     <t>microscope-pathA-imageAutofocus</t>
   </si>
   <si>
@@ -1607,12 +1591,18 @@
   </si>
   <si>
     <t>505-3396</t>
+  </si>
+  <si>
+    <t>Cairn research</t>
+  </si>
+  <si>
+    <t>Protolabs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
@@ -2058,32 +2048,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2091,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2123,11 +2113,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2135,7 +2125,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2157,7 +2147,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2179,7 +2169,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2201,7 +2191,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +2213,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2245,7 +2235,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2268,12 +2258,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2282,7 +2272,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2304,7 +2294,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2326,7 +2316,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2348,7 +2338,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2370,11 +2360,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2382,7 +2372,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2404,7 +2394,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2426,7 +2416,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2448,7 +2438,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2460,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2492,15 +2482,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2498,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2530,7 +2520,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2554,7 +2544,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2576,7 +2566,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2598,7 +2588,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2620,21 +2610,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2655,7 +2645,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2676,7 +2666,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2697,7 +2687,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2718,7 +2708,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2739,31 +2729,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2784,7 +2774,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2805,7 +2795,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2826,7 +2816,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2847,7 +2837,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2868,11 +2858,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2880,12 +2870,12 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -2901,12 +2891,12 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -2922,12 +2912,12 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>11</v>
@@ -2943,12 +2933,12 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -2964,12 +2954,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -2985,7 +2975,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2993,14 +2983,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3021,17 +3011,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3049,7 +3039,7 @@
       </c>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3067,7 +3057,7 @@
       </c>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3085,7 +3075,7 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3103,17 +3093,17 @@
       </c>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3134,7 +3124,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3155,7 +3145,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3177,19 +3167,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +3187,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>519</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3210,15 +3200,15 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>519</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3231,15 +3221,15 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
         <v>96</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" t="s">
-        <v>97</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3247,15 +3237,15 @@
       <c r="E75" s="6"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3263,15 +3253,15 @@
       <c r="E76" s="6"/>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3279,27 +3269,27 @@
       <c r="E77" s="6"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>11098</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3313,15 +3303,15 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81">
         <v>11101</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3335,15 +3325,15 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
         <v>104</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>105</v>
-      </c>
-      <c r="C82" t="s">
-        <v>106</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3356,15 +3346,15 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
         <v>107</v>
       </c>
-      <c r="B83" t="s">
-        <v>108</v>
-      </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3377,15 +3367,15 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" t="s">
         <v>109</v>
       </c>
-      <c r="B84" t="s">
-        <v>110</v>
-      </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -3398,26 +3388,26 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>112</v>
-      </c>
-      <c r="C87" t="s">
-        <v>113</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3430,15 +3420,15 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
         <v>114</v>
       </c>
-      <c r="B88" t="s">
-        <v>115</v>
-      </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3451,15 +3441,15 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
         <v>116</v>
       </c>
-      <c r="B89" t="s">
-        <v>117</v>
-      </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3472,15 +3462,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
         <v>118</v>
       </c>
-      <c r="B90" t="s">
-        <v>119</v>
-      </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3493,31 +3483,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="3">
@@ -3532,20 +3522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3563,23 +3553,23 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5">
         <v>528</v>
@@ -3592,7 +3582,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3613,29 +3603,29 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>126</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
       </c>
       <c r="D8" s="6">
         <v>140.4</v>
@@ -3648,15 +3638,15 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="6">
         <v>5.95</v>
@@ -3669,15 +3659,15 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>131</v>
       </c>
       <c r="D10" s="6">
         <v>16.16</v>
@@ -3690,15 +3680,15 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
       </c>
       <c r="D11" s="6">
         <v>39.770000000000003</v>
@@ -3711,15 +3701,15 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
       </c>
       <c r="D12" s="6">
         <v>9.18</v>
@@ -3732,15 +3722,15 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>136</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
       </c>
       <c r="D13" s="6">
         <v>7.96</v>
@@ -3753,15 +3743,15 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>138</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
       </c>
       <c r="D14" s="6">
         <v>4.1900000000000004</v>
@@ -3774,15 +3764,15 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>140</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
       </c>
       <c r="D15" s="6">
         <v>22.73</v>
@@ -3795,15 +3785,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
       </c>
       <c r="D16" s="6">
         <v>12.42</v>
@@ -3816,15 +3806,15 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
       </c>
       <c r="D17" s="6">
         <v>46.07</v>
@@ -3837,15 +3827,15 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D18" s="6">
         <v>19.309999999999999</v>
@@ -3858,21 +3848,21 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
       </c>
       <c r="D21" s="6">
         <v>30.84</v>
@@ -3885,15 +3875,15 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>150</v>
       </c>
       <c r="D22" s="6">
         <v>52.97</v>
@@ -3906,15 +3896,15 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
         <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
       </c>
       <c r="D23" s="6">
         <v>5.95</v>
@@ -3927,15 +3917,15 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>151</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
       </c>
       <c r="D24" s="6">
         <v>4.01</v>
@@ -3948,15 +3938,15 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
       </c>
       <c r="D25" s="6">
         <v>9.18</v>
@@ -3969,18 +3959,18 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>136</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
       </c>
       <c r="D26" s="6">
         <v>7.96</v>
@@ -3993,18 +3983,18 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>141</v>
       </c>
       <c r="D27" s="6">
         <v>22.73</v>
@@ -4017,15 +4007,15 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>154</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
       </c>
       <c r="D28" s="6">
         <v>84.41</v>
@@ -4038,15 +4028,15 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
         <v>156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>157</v>
       </c>
       <c r="D29" s="6">
         <v>84.41</v>
@@ -4059,15 +4049,15 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D30" s="6">
         <v>3.86</v>
@@ -4080,24 +4070,24 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>159</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>160</v>
       </c>
       <c r="D33" s="6">
         <v>122.55</v>
@@ -4110,15 +4100,15 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>161</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>162</v>
       </c>
       <c r="D34" s="6">
         <v>67.16</v>
@@ -4131,15 +4121,15 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
         <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
       </c>
       <c r="D35" s="6">
         <v>5.95</v>
@@ -4152,15 +4142,15 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>151</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
       </c>
       <c r="D36" s="6">
         <v>4.01</v>
@@ -4173,15 +4163,15 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="6">
         <v>9.18</v>
@@ -4194,18 +4184,18 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
         <v>136</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
       </c>
       <c r="D38" s="6">
         <v>7.96</v>
@@ -4218,18 +4208,18 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
       </c>
       <c r="D39" s="6">
         <v>22.73</v>
@@ -4242,15 +4232,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D40" s="6">
         <v>3.86</v>
@@ -4263,28 +4253,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>166</v>
       </c>
       <c r="D43" s="6">
         <v>81.97</v>
@@ -4297,15 +4287,15 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
       </c>
       <c r="D44" s="6">
         <v>5.95</v>
@@ -4318,15 +4308,15 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>152</v>
       </c>
       <c r="D45" s="6">
         <v>4.01</v>
@@ -4339,15 +4329,15 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
       </c>
       <c r="D46" s="6">
         <v>9.18</v>
@@ -4360,18 +4350,18 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
       </c>
       <c r="D47" s="6">
         <v>7.96</v>
@@ -4384,18 +4374,18 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>140</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
       </c>
       <c r="D48" s="6">
         <v>22.73</v>
@@ -4408,15 +4398,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>168</v>
       </c>
       <c r="D49" s="6">
         <v>117.41</v>
@@ -4429,15 +4419,15 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D50" s="6">
         <v>3.86</v>
@@ -4450,21 +4440,21 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
         <v>170</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>171</v>
       </c>
       <c r="D53" s="6">
         <v>79.569999999999993</v>
@@ -4477,17 +4467,17 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="D54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56">
         <f>SUM(E3:E54)</f>
@@ -4504,26 +4494,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4541,10 +4531,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4565,27 +4555,27 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4596,15 +4586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>178</v>
       </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4615,15 +4605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
         <v>180</v>
       </c>
-      <c r="B7" t="s">
-        <v>181</v>
-      </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4634,15 +4624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
         <v>182</v>
       </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4653,15 +4643,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
         <v>184</v>
       </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4672,26 +4662,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
         <v>187</v>
       </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4703,15 +4693,15 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4723,15 +4713,15 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4744,15 +4734,15 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4765,18 +4755,18 @@
         <v>1150</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4790,15 +4780,15 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4810,15 +4800,15 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4831,23 +4821,23 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -4863,12 +4853,12 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -4885,12 +4875,12 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -4906,12 +4896,12 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -4927,12 +4917,12 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -4948,12 +4938,12 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -4969,19 +4959,19 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -4997,12 +4987,12 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -5018,19 +5008,19 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -5046,12 +5036,12 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -5067,19 +5057,19 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -5096,12 +5086,12 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -5117,22 +5107,22 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -5145,15 +5135,15 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -5164,12 +5154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -5180,19 +5170,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -5208,12 +5198,12 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -5229,12 +5219,12 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -5250,22 +5240,22 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5278,15 +5268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5299,12 +5289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -5320,9 +5310,9 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10">
@@ -5330,12 +5320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -5351,12 +5341,12 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -5372,30 +5362,30 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -5411,12 +5401,12 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -5432,19 +5422,19 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -5460,12 +5450,12 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -5481,19 +5471,19 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -5509,12 +5499,12 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -5530,19 +5520,19 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5558,12 +5548,12 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -5579,12 +5569,12 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B65" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -5601,12 +5591,12 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -5623,12 +5613,12 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -5645,12 +5635,12 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -5667,19 +5657,19 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -5696,12 +5686,12 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -5717,12 +5707,12 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -5738,9 +5728,9 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5748,12 +5738,12 @@
       <c r="E73" s="11"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" t="s">
         <v>274</v>
-      </c>
-      <c r="B74" t="s">
-        <v>277</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -5769,12 +5759,12 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -5790,12 +5780,12 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -5811,20 +5801,20 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -5840,12 +5830,12 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -5861,12 +5851,12 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -5882,12 +5872,12 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -5903,12 +5893,12 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -5924,19 +5914,19 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -5950,15 +5940,15 @@
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -5975,12 +5965,12 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -5996,26 +5986,26 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -6027,19 +6017,19 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B91" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -6055,12 +6045,12 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -6076,19 +6066,19 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -6104,12 +6094,12 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -6125,12 +6115,12 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -6146,12 +6136,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -6167,19 +6157,19 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -6195,12 +6185,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -6216,12 +6206,12 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -6237,22 +6227,22 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B103" t="s">
         <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6263,15 +6253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C104" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -6284,15 +6274,15 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B105" t="s">
         <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -6303,22 +6293,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -6331,15 +6321,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B108" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C108" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -6353,22 +6343,22 @@
       </c>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -6381,15 +6371,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B111">
         <v>1438</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6402,15 +6392,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E112" s="10">
         <v>0.747</v>
@@ -6420,15 +6410,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C113" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -6441,15 +6431,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B114" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C114" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -6462,15 +6452,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B115" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C115" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -6483,15 +6473,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -6504,15 +6494,15 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B117" t="s">
         <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6524,15 +6514,15 @@
       </c>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C118" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -6545,15 +6535,15 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -6566,15 +6556,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C120" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -6587,15 +6577,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6608,15 +6598,15 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B122" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6630,15 +6620,15 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B123" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C123" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -6652,15 +6642,15 @@
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B124" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -6674,33 +6664,33 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C128" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -6714,12 +6704,12 @@
       </c>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B129" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -6735,12 +6725,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B130" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -6756,12 +6746,12 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -6777,12 +6767,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -6798,12 +6788,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B133" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -6820,12 +6810,12 @@
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -6841,12 +6831,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -6862,15 +6852,15 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B136" t="s">
         <v>93</v>
       </c>
       <c r="C136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6883,26 +6873,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B139" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6911,15 +6901,15 @@
       <c r="F139" s="10"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B140" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -6928,15 +6918,15 @@
       <c r="F140" s="10"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B141" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>518</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6945,23 +6935,23 @@
       <c r="F141" s="10"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B144" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C144" t="s">
         <v>57</v>
@@ -6974,12 +6964,12 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B145" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -6992,12 +6982,12 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B146" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -7010,12 +7000,12 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B147" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -7028,12 +7018,12 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B148" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -7046,12 +7036,12 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B149" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -7064,12 +7054,12 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B150" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -7082,12 +7072,12 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B151" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C151" t="s">
         <v>57</v>
@@ -7100,12 +7090,12 @@
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B152" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C152" t="s">
         <v>57</v>
@@ -7125,31 +7115,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -7167,44 +7157,42 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F36" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F38" si="0">D3*E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7220,12 +7208,12 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7241,19 +7229,19 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7269,12 +7257,12 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7290,12 +7278,12 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -7311,12 +7299,12 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7332,19 +7320,19 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7360,12 +7348,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7381,12 +7369,12 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -7402,43 +7390,41 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
         <v>317</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C18" t="s">
-        <v>320</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7451,43 +7437,41 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7500,15 +7484,15 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B22" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7522,22 +7506,22 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7550,15 +7534,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B25">
         <v>1438</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7571,15 +7555,15 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E26" s="10">
         <v>0.747</v>
@@ -7589,15 +7573,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7610,15 +7594,15 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7631,15 +7615,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C29" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7652,15 +7636,15 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7673,37 +7657,35 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -7716,15 +7698,15 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -7737,15 +7719,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -7758,15 +7740,15 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -7779,30 +7761,70 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>516</v>
+      </c>
+      <c r="B36" t="s">
+        <v>517</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>4.59</v>
+      </c>
       <c r="F36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+        <v>4.59</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" t="s">
+        <v>514</v>
+      </c>
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>6.27</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="0"/>
+        <v>6.27</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>512</v>
+      </c>
+      <c r="B38" t="s">
+        <v>515</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>6.27</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="0"/>
+        <v>6.27</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
   </sheetData>
@@ -7811,31 +7833,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -7853,18 +7875,18 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7878,12 +7900,12 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7899,12 +7921,12 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7920,12 +7942,12 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -7941,12 +7963,12 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -7962,12 +7984,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -7984,12 +8006,12 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -8005,12 +8027,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -8026,15 +8048,15 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8053,28 +8075,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8091,22 +8113,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8116,15 +8138,15 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8138,15 +8160,15 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -8159,15 +8181,15 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D7" s="16">
         <v>2</v>
@@ -8180,15 +8202,15 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -8201,15 +8223,15 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8222,15 +8244,15 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8243,59 +8265,90 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2812.14</v>
+      </c>
+      <c r="F13" s="14">
+        <f>D13*E13</f>
+        <v>2812.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>468.18</v>
+      </c>
+      <c r="F14" s="14">
+        <f>D14*E14</f>
+        <v>468.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>403</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>404</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>35.19</v>
+      </c>
+      <c r="F15" s="14">
+        <f>D15*E15</f>
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>405</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2812.14</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="0"/>
-        <v>2812.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>406</v>
       </c>
-      <c r="B16" t="s">
-        <v>407</v>
-      </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -8303,169 +8356,129 @@
         <v>1</v>
       </c>
       <c r="E16" s="17">
-        <v>468.18</v>
+        <v>2815.97</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="0"/>
-        <v>468.18</v>
+        <f>D16*E16</f>
+        <v>2815.97</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E17" s="17"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>408</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>409</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17">
-        <v>35.19</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="0"/>
-        <v>35.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
         <v>410</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>630</v>
+      </c>
+      <c r="F19" s="14">
+        <f>D19*E19</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" t="s">
         <v>411</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
-        <v>2815.97</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="0"/>
-        <v>2815.97</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="C20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>330</v>
+      </c>
+      <c r="F20" s="14">
+        <f>D20*E20</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>412</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>413</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>141</v>
+      </c>
+      <c r="F21" s="14">
+        <f>D21*E21</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E22" s="17"/>
+      <c r="F22" s="14"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>415</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17">
-        <v>630</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>500</v>
-      </c>
-      <c r="B22" t="s">
-        <v>416</v>
-      </c>
-      <c r="C22" t="s">
-        <v>415</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17">
-        <v>330</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" t="s">
-        <v>415</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17">
-        <v>141</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>420</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8474,25 +8487,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8509,16 +8522,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
@@ -8537,20 +8550,20 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8566,9 +8579,9 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8584,9 +8597,9 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8601,9 +8614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8618,9 +8631,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -8635,9 +8648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8652,9 +8665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -8669,78 +8682,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>469</v>
       </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>473</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>474</v>
-      </c>
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -8754,9 +8767,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -8771,9 +8784,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -8788,15 +8801,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D20" s="10">
         <v>19.3</v>
@@ -8809,117 +8822,117 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>477</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>476</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>482</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>477</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>479</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>481</v>
-      </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
@@ -8933,9 +8946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -8950,15 +8963,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D31" s="10">
         <v>19.3</v>
@@ -8971,14 +8984,14 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
@@ -8993,9 +9006,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
@@ -9010,9 +9023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -9027,9 +9040,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
@@ -9044,9 +9057,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -9061,9 +9074,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -9079,9 +9092,9 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
@@ -9096,15 +9109,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D41" s="10">
         <v>19.3</v>
@@ -9117,16 +9130,16 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
@@ -9142,9 +9155,9 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -9160,9 +9173,9 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -9178,9 +9191,9 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -9196,9 +9209,9 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -9214,14 +9227,14 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -9236,9 +9249,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -9253,9 +9266,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -9270,9 +9283,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -9288,9 +9301,9 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -9306,26 +9319,26 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C58" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D58" s="10">
         <v>10.66</v>
@@ -9338,15 +9351,15 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D59" s="10">
         <v>2.38</v>
@@ -9359,15 +9372,15 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C60" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D60" s="10">
         <v>13.98</v>
@@ -9380,43 +9393,43 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C65">
         <v>14130</v>
@@ -9432,12 +9445,12 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C66">
         <v>10035</v>
@@ -9453,12 +9466,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C67">
         <v>10034</v>
@@ -9474,12 +9487,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C68">
         <v>90051</v>
@@ -9495,12 +9508,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -9516,7 +9529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D71" s="10"/>
       <c r="F71" s="10"/>
     </row>
@@ -9527,27 +9540,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -9565,36 +9578,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB61FAB0-40EC-4999-9588-D082BD572A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
     <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="520">
   <si>
     <t>Parts List</t>
   </si>
@@ -1563,18 +1564,12 @@
     <t xml:space="preserve">Post Collar </t>
   </si>
   <si>
-    <t>Not found on website Think this might not be from Throlabs</t>
-  </si>
-  <si>
     <t>Objective Bushing</t>
   </si>
   <si>
     <t>RAO-0004-1</t>
   </si>
   <si>
-    <t>Marked as SPECIAL. What were the modifications requested</t>
-  </si>
-  <si>
     <t>Red hookup wire</t>
   </si>
   <si>
@@ -1597,17 +1592,24 @@
   </si>
   <si>
     <t>Protolabs</t>
+  </si>
+  <si>
+    <t>Special Order</t>
+  </si>
+  <si>
+    <t>Reference "LifeHack" in order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1711,7 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1734,6 +1736,8 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2048,32 +2052,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2095,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2113,11 +2117,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2129,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2147,7 +2151,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2173,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2191,7 +2195,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2217,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2258,12 +2262,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +2276,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2294,7 +2298,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2316,7 +2320,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2338,7 +2342,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2360,11 +2364,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2394,7 +2398,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2416,7 +2420,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2442,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2460,7 +2464,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2482,15 +2486,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2498,7 +2502,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2520,7 +2524,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2548,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2566,7 +2570,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2588,7 +2592,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2610,21 +2614,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2687,7 +2691,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2729,31 +2733,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2858,11 +2862,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2870,7 +2874,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>157</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>497</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>499</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>500</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>503</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2983,14 +2987,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3011,17 +3015,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3034,12 +3038,15 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="12">
-        <v>325</v>
-      </c>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E62" s="21">
+        <v>237</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" ref="F60:F65" si="2">D62*E62</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3052,12 +3059,15 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="12">
-        <v>325</v>
-      </c>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E63" s="21">
+        <v>237</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3070,12 +3080,15 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="12">
-        <v>325</v>
-      </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E64" s="21">
+        <v>237</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3088,22 +3101,25 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="12">
-        <v>325</v>
-      </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E65" s="21">
+        <v>237</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3124,7 +3140,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3145,7 +3161,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3167,19 +3183,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3187,7 +3203,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3200,7 +3216,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3208,7 +3224,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3221,7 +3237,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3234,10 +3250,15 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" ref="F75:F77" si="3">D75*E75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3250,10 +3271,15 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3266,14 +3292,19 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>99</v>
       </c>
@@ -3281,7 +3312,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3303,7 +3334,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3325,7 +3356,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -3346,7 +3377,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -3367,7 +3398,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -3388,18 +3419,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3420,7 +3451,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -3437,11 +3468,11 @@
         <v>3035</v>
       </c>
       <c r="F88" s="14">
-        <f t="shared" ref="F88" si="2">D88*E88</f>
+        <f t="shared" ref="F88" si="4">D88*E88</f>
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>115</v>
       </c>
@@ -3458,11 +3489,11 @@
         <v>16</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" ref="F89:F90" si="3">D89*E89</f>
+        <f t="shared" ref="F89:F90" si="5">D89*E89</f>
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>117</v>
       </c>
@@ -3479,40 +3510,39 @@
         <v>26</v>
       </c>
       <c r="F90" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D96" s="1" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="3">
-        <f>SUM(F5:F93)</f>
-        <v>47957.53</v>
+      <c r="F96" s="20">
+        <f>SUM(F3:F90)</f>
+        <v>49451.53</v>
       </c>
     </row>
   </sheetData>
@@ -3522,20 +3552,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3556,12 +3586,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -3582,7 +3612,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3603,353 +3633,373 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="6">
+        <v>140.4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:F16" si="0">D7*E7</f>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" s="6">
-        <v>140.4</v>
+        <v>5.95</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F17" si="0">D8*E8</f>
-        <v>140.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D9" s="6">
-        <v>5.95</v>
+        <v>16.16</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D10" s="6">
-        <v>16.16</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>16.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>39.770000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D11" s="6">
-        <v>39.770000000000003</v>
+        <v>9.18</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>39.770000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" s="6">
-        <v>9.18</v>
+        <v>7.96</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" s="6">
-        <v>7.96</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D14" s="6">
-        <v>4.1900000000000004</v>
+        <v>22.73</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D15" s="6">
-        <v>22.73</v>
+        <v>12.42</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>22.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D16" s="6">
-        <v>12.42</v>
+        <v>46.07</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>504</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>144</v>
+      <c r="C17" s="19" t="s">
+        <v>505</v>
       </c>
       <c r="D17" s="6">
-        <v>46.07</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>46.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D18" s="6">
         <v>19.309999999999999</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <f>D18*E18</f>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <f>D17*E17</f>
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6">
+        <v>30.84</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F28" si="1">D20*E20</f>
+        <v>61.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D21" s="6">
-        <v>30.84</v>
+        <v>52.97</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:F29" si="1">D21*E21</f>
-        <v>61.68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>105.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D22" s="6">
-        <v>52.97</v>
+        <v>5.95</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="1"/>
-        <v>105.94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D23" s="6">
-        <v>5.95</v>
+        <v>4.01</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D24" s="6">
-        <v>4.01</v>
+        <v>9.18</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D25" s="6">
-        <v>9.18</v>
+        <v>7.96</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3962,60 +4012,57 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D26" s="6">
-        <v>7.96</v>
+        <v>22.73</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D27" s="6">
-        <v>22.73</v>
+        <v>84.41</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="1"/>
-        <v>45.46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>84.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D28" s="6">
         <v>84.41</v>
@@ -4028,153 +4075,156 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>155</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>507</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
-        <v>156</v>
+      <c r="C29" s="19" t="s">
+        <v>506</v>
       </c>
       <c r="D29" s="6">
-        <v>84.41</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>84.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="D30" s="6">
         <v>3.86</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E29" s="19">
         <v>0</v>
       </c>
-      <c r="F30" s="14">
-        <f>D30*E30</f>
+      <c r="F29" s="14">
+        <f>D29*E29</f>
         <v>0</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="6">
+        <v>122.55</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F38" si="2">D32*E32</f>
+        <v>122.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D33" s="6">
-        <v>122.55</v>
+        <v>67.16</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:F39" si="2">D33*E33</f>
-        <v>122.55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D34" s="6">
-        <v>67.16</v>
+        <v>5.95</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>67.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D35" s="6">
-        <v>5.95</v>
+        <v>4.01</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D36" s="6">
-        <v>4.01</v>
+        <v>9.18</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D37" s="6">
-        <v>9.18</v>
+        <v>7.96</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4187,160 +4237,160 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D38" s="6">
-        <v>7.96</v>
+        <v>22.73</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="2"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E39" s="19">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F39" s="14">
+        <f>D39*E39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="6">
-        <v>22.73</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="2"/>
-        <v>22.73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="D40" s="6">
-        <v>3.86</v>
-      </c>
-      <c r="E40" s="19">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <f>D40*E40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="6">
+        <v>81.97</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42:F48" si="3">D42*E42</f>
+        <v>81.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6">
-        <v>81.97</v>
+        <v>5.95</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" ref="F43:F49" si="3">D43*E43</f>
-        <v>81.97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D44" s="6">
-        <v>5.95</v>
+        <v>4.01</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D45" s="6">
-        <v>4.01</v>
+        <v>9.18</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="3"/>
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="6">
-        <v>9.18</v>
+        <v>7.96</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4353,138 +4403,110 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D47" s="6">
-        <v>7.96</v>
+        <v>22.73</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D48" s="6">
-        <v>22.73</v>
+        <v>117.41</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="3"/>
-        <v>22.73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>117.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>507</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" t="s">
-        <v>167</v>
+      <c r="C49" s="19" t="s">
+        <v>506</v>
       </c>
       <c r="D49" s="6">
-        <v>117.41</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <f t="shared" si="3"/>
-        <v>117.41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="D50" s="6">
         <v>3.86</v>
       </c>
-      <c r="E50" s="19">
-        <v>1</v>
-      </c>
-      <c r="F50" s="14">
-        <f>D50*E50</f>
+      <c r="E49" s="19">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14">
+        <f>D49*E49</f>
         <v>3.86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D52" s="6">
         <v>79.569999999999993</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
-        <f>D53*E53</f>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <f>D52*E52</f>
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="D53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="D54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E56">
-        <f>SUM(E3:E54)</f>
-        <v>38</v>
-      </c>
-      <c r="F56" s="6">
-        <f>SUM(F3:F54)</f>
+      <c r="F55" s="6">
+        <f>SUM(F3:F52)</f>
         <v>1907.8800000000003</v>
       </c>
     </row>
@@ -4494,24 +4516,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -4534,7 +4556,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4555,19 +4577,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4575,7 +4597,7 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4586,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -4594,7 +4616,7 @@
         <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4605,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -4613,7 +4635,7 @@
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4624,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -4632,7 +4654,7 @@
         <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4643,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4662,18 +4684,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -4681,7 +4703,7 @@
         <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4693,7 +4715,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -4701,7 +4723,7 @@
         <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4713,7 +4735,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -4721,7 +4743,7 @@
         <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4733,8 +4755,11 @@
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -4742,7 +4767,7 @@
         <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4754,11 +4779,11 @@
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -4766,7 +4791,7 @@
         <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -4780,12 +4805,12 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" t="s">
         <v>509</v>
-      </c>
-      <c r="B17" t="s">
-        <v>510</v>
       </c>
       <c r="C17" t="s">
         <v>176</v>
@@ -4800,7 +4825,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -4821,18 +4846,18 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -4853,7 +4878,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -4875,7 +4900,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -4896,7 +4921,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -4917,7 +4942,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -4938,7 +4963,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>210</v>
       </c>
@@ -4959,14 +4984,14 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -4987,7 +5012,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>213</v>
       </c>
@@ -5008,14 +5033,14 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>215</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -5036,7 +5061,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>216</v>
       </c>
@@ -5057,14 +5082,14 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>219</v>
       </c>
@@ -5086,7 +5111,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>220</v>
       </c>
@@ -5107,14 +5132,14 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>222</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -5135,7 +5160,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -5148,13 +5173,15 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
       <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -5170,14 +5197,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -5198,7 +5225,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -5219,7 +5246,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>232</v>
       </c>
@@ -5240,14 +5267,14 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>234</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -5268,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>236</v>
       </c>
@@ -5289,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -5310,7 +5337,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>239</v>
       </c>
@@ -5320,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>240</v>
       </c>
@@ -5341,7 +5368,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>242</v>
       </c>
@@ -5362,25 +5389,25 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -5401,7 +5428,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>248</v>
       </c>
@@ -5422,14 +5449,14 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>251</v>
       </c>
@@ -5450,7 +5477,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>253</v>
       </c>
@@ -5471,14 +5498,14 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -5499,7 +5526,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>257</v>
       </c>
@@ -5520,14 +5547,14 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>259</v>
       </c>
@@ -5548,7 +5575,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>261</v>
       </c>
@@ -5569,7 +5596,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>219</v>
       </c>
@@ -5591,7 +5618,7 @@
       </c>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>219</v>
       </c>
@@ -5613,7 +5640,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -5635,7 +5662,7 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>265</v>
       </c>
@@ -5657,14 +5684,14 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>267</v>
       </c>
@@ -5686,7 +5713,7 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -5707,7 +5734,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>271</v>
       </c>
@@ -5728,7 +5755,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>273</v>
       </c>
@@ -5738,7 +5765,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>271</v>
       </c>
@@ -5759,7 +5786,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>275</v>
       </c>
@@ -5780,7 +5807,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>277</v>
       </c>
@@ -5797,11 +5824,11 @@
         <v>5.64</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" ref="F76:F136" si="1">D76*E76</f>
+        <f t="shared" ref="F76:F139" si="1">D76*E76</f>
         <v>5.64</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>279</v>
       </c>
@@ -5809,7 +5836,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>280</v>
       </c>
@@ -5830,7 +5857,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -5851,7 +5878,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>284</v>
       </c>
@@ -5872,7 +5899,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>285</v>
       </c>
@@ -5893,7 +5920,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>287</v>
       </c>
@@ -5914,14 +5941,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>289</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>290</v>
       </c>
@@ -5939,11 +5966,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G84" s="19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -5965,7 +5992,7 @@
       </c>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>294</v>
       </c>
@@ -5986,18 +6013,18 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>444</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -6005,7 +6032,7 @@
         <v>297</v>
       </c>
       <c r="C89" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -6017,14 +6044,14 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>299</v>
       </c>
@@ -6045,7 +6072,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>301</v>
       </c>
@@ -6066,14 +6093,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>200</v>
       </c>
@@ -6094,7 +6121,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>259</v>
       </c>
@@ -6115,7 +6142,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>303</v>
       </c>
@@ -6136,7 +6163,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>304</v>
       </c>
@@ -6157,14 +6184,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>307</v>
       </c>
@@ -6185,7 +6212,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>309</v>
       </c>
@@ -6206,7 +6233,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>311</v>
       </c>
@@ -6227,14 +6254,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>314</v>
       </c>
@@ -6247,13 +6274,15 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" s="10"/>
+      <c r="E103" s="10">
+        <v>0</v>
+      </c>
       <c r="F103" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>315</v>
       </c>
@@ -6274,7 +6303,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>318</v>
       </c>
@@ -6287,20 +6316,22 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105" s="10"/>
+      <c r="E105" s="10">
+        <v>0</v>
+      </c>
       <c r="F105" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -6321,7 +6352,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>450</v>
       </c>
@@ -6343,14 +6374,14 @@
       </c>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>323</v>
       </c>
@@ -6371,7 +6402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>325</v>
       </c>
@@ -6392,7 +6423,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>327</v>
       </c>
@@ -6402,15 +6433,18 @@
       <c r="C112" t="s">
         <v>317</v>
       </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
       <c r="E112" s="10">
         <v>0.747</v>
       </c>
       <c r="F112" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>329</v>
       </c>
@@ -6431,7 +6465,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>443</v>
       </c>
@@ -6452,7 +6486,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>439</v>
       </c>
@@ -6473,7 +6507,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>331</v>
       </c>
@@ -6494,7 +6528,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>333</v>
       </c>
@@ -6507,14 +6541,16 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117" s="10"/>
+      <c r="E117" s="10">
+        <v>0</v>
+      </c>
       <c r="F117" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -6535,7 +6571,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>336</v>
       </c>
@@ -6556,7 +6592,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>338</v>
       </c>
@@ -6577,7 +6613,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>340</v>
       </c>
@@ -6598,12 +6634,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B122" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C122" t="s">
         <v>317</v>
@@ -6620,12 +6656,12 @@
       </c>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B123" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C123" t="s">
         <v>317</v>
@@ -6642,12 +6678,12 @@
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B124" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C124" t="s">
         <v>317</v>
@@ -6664,25 +6700,25 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>342</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>343</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>344</v>
       </c>
@@ -6704,7 +6740,7 @@
       </c>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>347</v>
       </c>
@@ -6725,7 +6761,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>349</v>
       </c>
@@ -6746,7 +6782,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>351</v>
       </c>
@@ -6767,7 +6803,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -6788,7 +6824,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>353</v>
       </c>
@@ -6810,7 +6846,7 @@
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>232</v>
       </c>
@@ -6831,7 +6867,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>354</v>
       </c>
@@ -6852,7 +6888,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>356</v>
       </c>
@@ -6873,18 +6909,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>357</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>358</v>
       </c>
@@ -6892,7 +6928,7 @@
         <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6901,7 +6937,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>360</v>
       </c>
@@ -6909,7 +6945,7 @@
         <v>361</v>
       </c>
       <c r="C140" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -6918,7 +6954,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>362</v>
       </c>
@@ -6926,7 +6962,7 @@
         <v>363</v>
       </c>
       <c r="C141" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6935,18 +6971,18 @@
       <c r="F141" s="10"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>364</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>365</v>
       </c>
@@ -6959,12 +6995,16 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144" s="12">
-        <v>550</v>
+      <c r="E144" s="21">
+        <v>401</v>
+      </c>
+      <c r="F144" s="10">
+        <f t="shared" ref="F140:F152" si="3">D144*E144</f>
+        <v>401</v>
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>367</v>
       </c>
@@ -6977,12 +7017,16 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145" s="12">
-        <v>300</v>
+      <c r="E145" s="21">
+        <v>219</v>
+      </c>
+      <c r="F145" s="10">
+        <f t="shared" si="3"/>
+        <v>219</v>
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>369</v>
       </c>
@@ -6995,12 +7039,16 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146" s="12">
-        <v>300</v>
+      <c r="E146" s="21">
+        <v>219</v>
+      </c>
+      <c r="F146" s="10">
+        <f t="shared" si="3"/>
+        <v>219</v>
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -7013,12 +7061,16 @@
       <c r="D147">
         <v>1</v>
       </c>
-      <c r="E147" s="12">
-        <v>225</v>
+      <c r="E147" s="21">
+        <v>164</v>
+      </c>
+      <c r="F147" s="10">
+        <f t="shared" si="3"/>
+        <v>164</v>
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -7031,12 +7083,16 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148" s="12">
-        <v>325</v>
+      <c r="E148" s="21">
+        <v>237</v>
+      </c>
+      <c r="F148" s="10">
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>375</v>
       </c>
@@ -7049,12 +7105,16 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149" s="12">
-        <v>325</v>
+      <c r="E149" s="21">
+        <v>237</v>
+      </c>
+      <c r="F149" s="10">
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>377</v>
       </c>
@@ -7067,12 +7127,16 @@
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="E150" s="12">
-        <v>625</v>
+      <c r="E150" s="21">
+        <v>456</v>
+      </c>
+      <c r="F150" s="10">
+        <f t="shared" si="3"/>
+        <v>456</v>
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>379</v>
       </c>
@@ -7085,12 +7149,16 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="E151" s="12">
-        <v>325</v>
+      <c r="E151" s="21">
+        <v>237</v>
+      </c>
+      <c r="F151" s="10">
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>381</v>
       </c>
@@ -7103,10 +7171,23 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" s="12">
-        <v>325</v>
+      <c r="E152" s="21">
+        <v>237</v>
+      </c>
+      <c r="F152" s="10">
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
       <c r="G152" s="4"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F155" s="10">
+        <f>SUM(F2:F152)</f>
+        <v>39697.606999999975</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7115,29 +7196,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>445</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7160,7 +7241,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -7168,7 +7249,7 @@
         <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7180,14 +7261,14 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -7208,7 +7289,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -7229,14 +7310,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -7257,7 +7338,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -7278,7 +7359,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7299,7 +7380,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>304</v>
       </c>
@@ -7320,14 +7401,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -7348,7 +7429,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>309</v>
       </c>
@@ -7369,7 +7450,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -7390,14 +7471,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>314</v>
       </c>
@@ -7410,13 +7491,15 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -7437,7 +7520,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -7450,20 +7533,22 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -7484,7 +7569,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>450</v>
       </c>
@@ -7506,14 +7591,14 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -7534,7 +7619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -7555,7 +7640,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -7573,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -7594,7 +7679,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -7615,7 +7700,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>439</v>
       </c>
@@ -7636,7 +7721,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -7657,7 +7742,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -7670,14 +7755,16 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -7698,7 +7785,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>336</v>
       </c>
@@ -7719,7 +7806,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>338</v>
       </c>
@@ -7740,7 +7827,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>340</v>
       </c>
@@ -7761,12 +7848,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C36" t="s">
         <v>317</v>
@@ -7783,12 +7870,12 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C37" t="s">
         <v>317</v>
@@ -7805,12 +7892,12 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C38" t="s">
         <v>317</v>
@@ -7833,29 +7920,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>446</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7878,7 +7965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -7900,7 +7987,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -7921,7 +8008,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -7942,7 +8029,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -7963,7 +8050,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -7984,7 +8071,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -8006,7 +8093,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>232</v>
       </c>
@@ -8027,7 +8114,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -8048,7 +8135,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>356</v>
       </c>
@@ -8075,28 +8162,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8113,14 +8200,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>383</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>384</v>
       </c>
@@ -8133,12 +8220,15 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
-        <v>1300</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E4" s="21">
+        <v>949</v>
+      </c>
+      <c r="F4" s="14">
+        <f>D4*E4</f>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>386</v>
       </c>
@@ -8160,7 +8250,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>387</v>
       </c>
@@ -8181,7 +8271,7 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>389</v>
       </c>
@@ -8198,11 +8288,11 @@
         <v>5.01</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" ref="F7:F23" si="0">D7*E7</f>
+        <f t="shared" ref="F7:F10" si="0">D7*E7</f>
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>391</v>
       </c>
@@ -8223,7 +8313,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>393</v>
       </c>
@@ -8244,7 +8334,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>396</v>
       </c>
@@ -8265,21 +8355,21 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>398</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>399</v>
       </c>
@@ -8300,7 +8390,7 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>401</v>
       </c>
@@ -8321,7 +8411,7 @@
         <v>468.18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>403</v>
       </c>
@@ -8342,7 +8432,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -8365,11 +8455,11 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>407</v>
       </c>
@@ -8377,7 +8467,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -8398,7 +8488,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>495</v>
       </c>
@@ -8419,7 +8509,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -8440,19 +8530,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="17"/>
       <c r="F22" s="14"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>414</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>415</v>
       </c>
@@ -8463,22 +8553,31 @@
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N25" s="16"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="6">
+        <f>SUM(F3:F24)</f>
+        <v>8295.8799999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8487,25 +8586,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8522,14 +8621,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -8550,18 +8649,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -8579,7 +8678,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>458</v>
       </c>
@@ -8597,7 +8696,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>459</v>
       </c>
@@ -8614,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>460</v>
       </c>
@@ -8631,7 +8730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>461</v>
       </c>
@@ -8648,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>462</v>
       </c>
@@ -8665,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -8682,7 +8781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>464</v>
       </c>
@@ -8699,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>466</v>
       </c>
@@ -8716,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -8733,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -8750,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>469</v>
       </c>
@@ -8767,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>470</v>
       </c>
@@ -8784,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>465</v>
       </c>
@@ -8801,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -8822,12 +8921,12 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>471</v>
       </c>
@@ -8844,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>477</v>
       </c>
@@ -8861,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>472</v>
       </c>
@@ -8878,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -8895,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>474</v>
       </c>
@@ -8912,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>475</v>
       </c>
@@ -8929,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>476</v>
       </c>
@@ -8946,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>465</v>
       </c>
@@ -8963,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -8984,12 +9083,12 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>478</v>
       </c>
@@ -9006,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>479</v>
       </c>
@@ -9023,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>480</v>
       </c>
@@ -9040,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -9057,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>482</v>
       </c>
@@ -9074,7 +9173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>483</v>
       </c>
@@ -9092,7 +9191,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>465</v>
       </c>
@@ -9109,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>418</v>
       </c>
@@ -9130,14 +9229,14 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>455</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>484</v>
       </c>
@@ -9155,7 +9254,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>485</v>
       </c>
@@ -9173,7 +9272,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>486</v>
       </c>
@@ -9191,7 +9290,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>487</v>
       </c>
@@ -9209,7 +9308,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>488</v>
       </c>
@@ -9227,12 +9326,12 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>489</v>
       </c>
@@ -9249,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>490</v>
       </c>
@@ -9266,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>491</v>
       </c>
@@ -9283,7 +9382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>492</v>
       </c>
@@ -9301,7 +9400,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>493</v>
       </c>
@@ -9319,18 +9418,18 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>420</v>
       </c>
@@ -9351,7 +9450,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>423</v>
       </c>
@@ -9372,7 +9471,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>425</v>
       </c>
@@ -9393,7 +9492,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>434</v>
       </c>
@@ -9403,7 +9502,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>451</v>
       </c>
@@ -9413,18 +9512,18 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>428</v>
       </c>
@@ -9445,7 +9544,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>430</v>
       </c>
@@ -9466,7 +9565,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>431</v>
       </c>
@@ -9487,7 +9586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>432</v>
       </c>
@@ -9508,7 +9607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>433</v>
       </c>
@@ -9529,9 +9628,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="D71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10">
+        <f>SUM(F3:F69)</f>
+        <v>7695.5599999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9540,25 +9645,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -9581,7 +9686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -9589,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -9597,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>437</v>
       </c>
@@ -9605,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>438</v>
       </c>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB61FAB0-40EC-4999-9588-D082BD572A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D815F-971C-4A5E-8866-28A6C0A04AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="525">
   <si>
     <t>Parts List</t>
   </si>
@@ -1598,6 +1598,21 @@
   </si>
   <si>
     <t>Reference "LifeHack" in order</t>
+  </si>
+  <si>
+    <t>LifeHack TriCube</t>
+  </si>
+  <si>
+    <t>S1250/CLH/003</t>
+  </si>
+  <si>
+    <t>Part of TriCube</t>
+  </si>
+  <si>
+    <t>3 out of 4 are part of TriCube</t>
+  </si>
+  <si>
+    <t>Includes: Required adaptations, 2x Infinity Cubes, 1x Combiner Cube, 3x Filter Cubes</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1624,7 @@
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1736,8 +1751,8 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2055,29 +2070,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2095,7 +2110,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2117,11 +2132,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2144,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2151,7 +2166,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2188,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2195,7 +2210,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2217,7 +2232,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2239,7 +2254,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2262,12 +2277,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2276,7 +2291,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2313,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2335,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2342,7 +2357,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2364,11 +2379,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2376,7 +2391,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2413,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2420,7 +2435,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2442,7 +2457,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2479,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2486,15 +2501,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2502,7 +2517,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2524,7 +2539,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2548,7 +2563,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2570,7 +2585,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2592,7 +2607,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2614,21 +2629,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2649,7 +2664,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2712,7 +2727,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2733,31 +2748,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2820,7 +2835,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2862,11 +2877,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2874,7 +2889,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>157</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>497</v>
       </c>
@@ -2916,7 +2931,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>499</v>
       </c>
@@ -2937,7 +2952,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>500</v>
       </c>
@@ -2958,7 +2973,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>503</v>
       </c>
@@ -2979,7 +2994,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2987,14 +3002,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3015,17 +3030,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3042,11 +3057,11 @@
         <v>237</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" ref="F60:F65" si="2">D62*E62</f>
+        <f t="shared" ref="F62:F65" si="2">D62*E62</f>
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3067,7 +3082,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3109,17 +3124,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3140,7 +3155,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3161,7 +3176,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3183,19 +3198,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3216,7 +3231,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3237,7 +3252,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3258,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3279,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3300,11 +3315,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>99</v>
       </c>
@@ -3312,7 +3327,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3334,7 +3349,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3356,7 +3371,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -3377,7 +3392,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -3419,18 +3434,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -3472,7 +3487,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>115</v>
       </c>
@@ -3493,7 +3508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>117</v>
       </c>
@@ -3514,29 +3529,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
@@ -3559,13 +3574,13 @@
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3586,12 +3601,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -3612,7 +3627,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3633,17 +3648,17 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -3664,7 +3679,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -3685,7 +3700,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>129</v>
       </c>
@@ -3706,7 +3721,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>131</v>
       </c>
@@ -3727,7 +3742,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -3748,7 +3763,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -3769,7 +3784,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
@@ -3790,7 +3805,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -3811,7 +3826,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>141</v>
       </c>
@@ -3832,7 +3847,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>504</v>
       </c>
@@ -3874,13 +3889,13 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
@@ -3922,7 +3937,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -3943,7 +3958,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -3964,7 +3979,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>133</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -4012,7 +4027,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -4033,7 +4048,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>153</v>
       </c>
@@ -4054,7 +4069,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
@@ -4075,7 +4090,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>507</v>
       </c>
@@ -4099,13 +4114,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -4126,7 +4141,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>160</v>
       </c>
@@ -4147,7 +4162,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>127</v>
       </c>
@@ -4168,7 +4183,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>150</v>
       </c>
@@ -4189,7 +4204,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>162</v>
       </c>
@@ -4213,7 +4228,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>135</v>
       </c>
@@ -4237,7 +4252,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>139</v>
       </c>
@@ -4258,7 +4273,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>507</v>
       </c>
@@ -4282,17 +4297,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>163</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>164</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>127</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>150</v>
       </c>
@@ -4355,7 +4370,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>133</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -4403,7 +4418,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>139</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>166</v>
       </c>
@@ -4445,7 +4460,7 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>507</v>
       </c>
@@ -4466,13 +4481,13 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>169</v>
       </c>
@@ -4493,15 +4508,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="D53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>171</v>
       </c>
@@ -4517,23 +4532,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4577,19 +4592,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4604,11 +4619,11 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F75" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F76" si="0">D5*E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -4646,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -4665,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -4684,18 +4699,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -4715,7 +4730,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -4735,569 +4750,582 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>521</v>
       </c>
       <c r="C14" t="s">
         <v>516</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="10">
-        <v>1045</v>
+        <v>4074</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>2090</v>
-      </c>
-      <c r="G14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4074</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>516</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10">
-        <v>1150</v>
+        <v>1045</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>2090</v>
       </c>
       <c r="G15" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>516</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1150</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>519</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>278</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>508</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>509</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>176</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>196</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>197</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>198</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <v>12445.6</v>
       </c>
-      <c r="F18" s="10">
-        <f>D18*E18</f>
+      <c r="F19" s="10">
+        <f>D19*E19</f>
         <v>12445.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>199</v>
-      </c>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>200</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>201</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
         <v>31.65</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>31.65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>202</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>203</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
         <v>157.9</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>157.9</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>204</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>205</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
         <v>156.05000000000001</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>206</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>207</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
         <v>76.099999999999994</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>208</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>209</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
         <v>372.53</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>372.53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>211</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
         <v>86.84</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>86.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>211</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
         <v>86.84</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>86.84</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>213</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>214</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
         <v>60.87</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>60.87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>210</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>211</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
         <v>86.84</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>86.84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>216</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>217</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
         <v>96.58</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>96.58</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>219</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>448</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
         <v>12.67</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>12.67</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>220</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>221</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
         <v>13.45</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>223</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>224</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>225</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
         <v>12650</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>12650</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>226</v>
       </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
         <v>96</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
         <v>0</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>227</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>228</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>200</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>201</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
         <v>31.65</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <f t="shared" si="0"/>
         <v>31.65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>231</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>5.48</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <f t="shared" si="0"/>
         <v>10.96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>232</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>233</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <f t="shared" si="0"/>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>235</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -5316,309 +5344,308 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>237</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>238</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
         <v>6.01</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <f t="shared" si="0"/>
         <v>6.01</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>240</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>241</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
         <v>18.66</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <f t="shared" si="0"/>
         <v>18.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>242</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>243</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10">
         <v>3.84</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>244</v>
-      </c>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>245</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>246</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>247</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
         <v>2606.0100000000002</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <f t="shared" si="0"/>
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>248</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>249</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
         <v>149.33000000000001</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <f t="shared" si="0"/>
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>251</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>252</v>
       </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10">
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
         <v>183.01</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <f t="shared" si="0"/>
         <v>183.01</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>253</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>254</v>
       </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
         <v>148.91999999999999</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <f t="shared" si="0"/>
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>256</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>126</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="10">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
         <v>140.4</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <f t="shared" si="0"/>
         <v>140.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>257</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>258</v>
       </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
         <v>77.25</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <f t="shared" si="0"/>
         <v>77.25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>259</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>260</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
         <v>4</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>6.68</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <f t="shared" si="0"/>
         <v>26.72</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>261</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>262</v>
       </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10">
         <v>35.46</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <f t="shared" si="0"/>
         <v>35.46</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" t="s">
-        <v>448</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="10">
-        <v>12.67</v>
-      </c>
-      <c r="F65" s="10">
-        <f t="shared" si="0"/>
-        <v>25.34</v>
-      </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>219</v>
       </c>
@@ -5629,975 +5656,976 @@
         <v>11</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="10">
         <v>12.67</v>
       </c>
       <c r="F66" s="10">
         <f t="shared" si="0"/>
+        <v>25.34</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10">
         <v>12.67</v>
       </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="F67" s="10">
+        <f t="shared" si="0"/>
+        <v>12.67</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>263</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>264</v>
       </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="10">
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10">
         <v>4.54</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <f t="shared" si="0"/>
         <v>4.54</v>
       </c>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>265</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>128</v>
       </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10">
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10">
         <v>5.95</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>267</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>268</v>
       </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10">
         <v>12.75</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>269</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>270</v>
       </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10">
         <v>19.48</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <f t="shared" si="0"/>
         <v>19.48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>271</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>272</v>
       </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10">
         <v>24.96</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <f t="shared" si="0"/>
         <v>24.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>271</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>274</v>
       </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="13">
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13">
         <v>24.96</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <f t="shared" si="0"/>
         <v>24.96</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>275</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>276</v>
       </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13">
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
         <v>17.850000000000001</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <f t="shared" si="0"/>
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>277</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>278</v>
       </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1</v>
-      </c>
-      <c r="E76" s="13">
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13">
         <v>5.64</v>
       </c>
-      <c r="F76" s="10">
-        <f t="shared" ref="F76:F139" si="1">D76*E76</f>
+      <c r="F77" s="10">
+        <f t="shared" ref="F77:F137" si="1">D77*E77</f>
         <v>5.64</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>280</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>281</v>
       </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
         <v>4</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>4.71</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <f t="shared" si="1"/>
         <v>18.84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>282</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>283</v>
       </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
         <v>4</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>3.9</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>284</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>201</v>
       </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10">
         <v>31.65</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <f t="shared" si="1"/>
         <v>31.65</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>286</v>
       </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10">
         <v>28.57</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <f t="shared" si="1"/>
         <v>28.57</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>288</v>
       </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" s="10">
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10">
         <v>131.29</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <f t="shared" si="1"/>
         <v>131.29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>290</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>291</v>
       </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84">
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
         <v>2</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="19" t="s">
+      <c r="G85" s="19" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>292</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>293</v>
       </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="10">
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
         <v>392.53</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <f t="shared" si="1"/>
         <v>392.53</v>
       </c>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>294</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>295</v>
       </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86">
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
         <v>2</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>46.46</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <f t="shared" si="1"/>
         <v>92.92</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>444</v>
-      </c>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>296</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>297</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>516</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10">
-        <f t="shared" ref="F89:F124" si="2">D89*E89</f>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10">
+        <f t="shared" ref="F90:F125" si="2">D90*E90</f>
         <v>0</v>
       </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>299</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>300</v>
       </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" s="10">
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
         <v>161.51</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <f t="shared" si="2"/>
         <v>161.51</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>301</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>302</v>
       </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" s="10">
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
         <v>42.81</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F93" s="10">
         <f t="shared" si="2"/>
         <v>42.81</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>200</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>201</v>
       </c>
-      <c r="C94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94">
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95">
         <v>2</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E95" s="10">
         <v>31.65</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F95" s="10">
         <f t="shared" si="2"/>
         <v>63.3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>259</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>260</v>
       </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95">
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
         <v>4</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E96" s="10">
         <v>6.68</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <f t="shared" si="2"/>
         <v>26.72</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>303</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>147</v>
       </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" s="10">
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
         <v>30.84</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F97" s="10">
         <f t="shared" si="2"/>
         <v>30.84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>304</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>305</v>
       </c>
-      <c r="C97" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" s="10">
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
         <v>21.71</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F98" s="10">
         <f t="shared" si="2"/>
         <v>21.71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>307</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>308</v>
       </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" s="10">
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
         <v>20.3</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F100" s="10">
         <f t="shared" si="2"/>
         <v>20.3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>309</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>310</v>
       </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" s="10">
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
         <v>8.77</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F101" s="10">
         <f t="shared" si="2"/>
         <v>8.77</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>311</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>312</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" s="10">
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
         <v>5.5</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F102" s="10">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>314</v>
       </c>
-      <c r="B103" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" t="s">
         <v>96</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" s="10">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
         <v>0</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F104" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>315</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>316</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>317</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104" s="10">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10">
         <v>2.75</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F105" s="10">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>318</v>
       </c>
-      <c r="B105" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" t="s">
         <v>96</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105" s="10">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10">
         <v>0</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F106" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>320</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>321</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>317</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" s="10">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="10">
         <v>6.18</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F108" s="10">
         <f t="shared" si="2"/>
         <v>6.18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>450</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>449</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>317</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" s="10">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="10">
         <v>23.13</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F109" s="10">
         <f t="shared" si="2"/>
         <v>23.13</v>
       </c>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>323</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>324</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>317</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" s="10">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="10">
         <v>17</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F111" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>325</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>1438</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>326</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111" s="10">
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10">
         <v>18.5</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F112" s="10">
         <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>327</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>328</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>317</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" s="10">
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10">
         <v>0.747</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F113" s="10">
         <f t="shared" si="2"/>
         <v>0.747</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>329</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>330</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>317</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" s="10">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10">
         <v>11.85</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F114" s="10">
         <f t="shared" si="2"/>
         <v>11.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>443</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>442</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>317</v>
       </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" s="10">
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F115" s="10">
         <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>439</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>440</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>441</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" s="10">
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10">
         <v>1.72</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F116" s="10">
         <f t="shared" si="2"/>
         <v>1.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>331</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>332</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>317</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" s="10">
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10">
         <v>5.25</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F117" s="10">
         <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>333</v>
       </c>
-      <c r="B117" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" t="s">
         <v>96</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" s="10">
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="10">
         <v>0</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F118" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>334</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>335</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>317</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" s="10">
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" s="10">
         <v>11.52</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F119" s="10">
         <f t="shared" si="2"/>
         <v>11.52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>336</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>337</v>
-      </c>
-      <c r="C119" t="s">
-        <v>317</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="F119" s="10">
-        <f t="shared" si="2"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>338</v>
-      </c>
-      <c r="B120" t="s">
-        <v>339</v>
       </c>
       <c r="C120" t="s">
         <v>317</v>
@@ -6613,12 +6641,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s">
         <v>317</v>
@@ -6627,19 +6655,19 @@
         <v>1</v>
       </c>
       <c r="E121" s="10">
-        <v>6.42</v>
+        <v>3.1</v>
       </c>
       <c r="F121" s="10">
         <f t="shared" si="2"/>
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>514</v>
+        <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>515</v>
+        <v>341</v>
       </c>
       <c r="C122" t="s">
         <v>317</v>
@@ -6648,20 +6676,19 @@
         <v>1</v>
       </c>
       <c r="E122" s="10">
-        <v>4.59</v>
+        <v>6.42</v>
       </c>
       <c r="F122" s="10">
         <f t="shared" si="2"/>
-        <v>4.59</v>
-      </c>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B123" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C123" t="s">
         <v>317</v>
@@ -6670,20 +6697,20 @@
         <v>1</v>
       </c>
       <c r="E123" s="10">
-        <v>6.27</v>
+        <v>4.59</v>
       </c>
       <c r="F123" s="10">
         <f t="shared" si="2"/>
-        <v>6.27</v>
+        <v>4.59</v>
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B124" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C124" t="s">
         <v>317</v>
@@ -6700,249 +6727,254 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>342</v>
-      </c>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>510</v>
+      </c>
+      <c r="B125" t="s">
+        <v>513</v>
+      </c>
+      <c r="C125" t="s">
+        <v>317</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10">
+        <v>6.27</v>
+      </c>
+      <c r="F125" s="10">
+        <f t="shared" si="2"/>
+        <v>6.27</v>
+      </c>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>343</v>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>344</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>345</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>346</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128" s="10">
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="10">
         <v>1013</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F129" s="10">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>347</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>348</v>
       </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129" s="10">
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="10">
         <v>49.91</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F130" s="10">
         <f t="shared" si="1"/>
         <v>49.91</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>349</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>350</v>
       </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" s="10">
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" s="10">
         <v>77.25</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F131" s="10">
         <f t="shared" si="1"/>
         <v>77.25</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>351</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131" s="10">
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10">
         <v>16.16</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F132" s="10">
         <f t="shared" si="1"/>
         <v>16.16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>261</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>352</v>
       </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" s="10">
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="10">
         <v>11.01</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F133" s="10">
         <f t="shared" si="1"/>
         <v>11.01</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>353</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>448</v>
       </c>
-      <c r="C133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133" s="10">
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" s="10">
         <v>12.67</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F134" s="10">
         <f t="shared" si="1"/>
         <v>12.67</v>
       </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>232</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>233</v>
       </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134">
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135">
         <v>4</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E135" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F135" s="10">
         <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>354</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>355</v>
       </c>
-      <c r="C135" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135" s="10">
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" s="10">
         <v>14.57</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F136" s="10">
         <f t="shared" si="1"/>
         <v>14.57</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B136" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" t="s">
         <v>96</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136" s="10">
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" s="10">
         <v>0</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F137" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>357</v>
-      </c>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>358</v>
-      </c>
-      <c r="B139" t="s">
-        <v>359</v>
-      </c>
-      <c r="C139" t="s">
-        <v>516</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B140" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C140" t="s">
         <v>516</v>
@@ -6954,12 +6986,12 @@
       <c r="F140" s="10"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s">
         <v>516</v>
@@ -6971,45 +7003,40 @@
       <c r="F141" s="10"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>362</v>
+      </c>
+      <c r="B142" t="s">
+        <v>363</v>
+      </c>
+      <c r="C142" t="s">
+        <v>516</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>365</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>366</v>
-      </c>
-      <c r="C144" t="s">
-        <v>57</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144" s="21">
-        <v>401</v>
-      </c>
-      <c r="F144" s="10">
-        <f t="shared" ref="F140:F152" si="3">D144*E144</f>
-        <v>401</v>
-      </c>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>367</v>
-      </c>
-      <c r="B145" t="s">
-        <v>368</v>
       </c>
       <c r="C145" t="s">
         <v>57</v>
@@ -7018,20 +7045,20 @@
         <v>1</v>
       </c>
       <c r="E145" s="21">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="F145" s="10">
-        <f t="shared" si="3"/>
-        <v>219</v>
+        <f t="shared" ref="F145:F153" si="3">D145*E145</f>
+        <v>401</v>
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B146" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
         <v>57</v>
@@ -7048,12 +7075,12 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
         <v>57</v>
@@ -7062,20 +7089,20 @@
         <v>1</v>
       </c>
       <c r="E147" s="21">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="F147" s="10">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B148" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
         <v>57</v>
@@ -7084,20 +7111,20 @@
         <v>1</v>
       </c>
       <c r="E148" s="21">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="F148" s="10">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B149" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C149" t="s">
         <v>57</v>
@@ -7114,12 +7141,12 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B150" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C150" t="s">
         <v>57</v>
@@ -7128,20 +7155,20 @@
         <v>1</v>
       </c>
       <c r="E150" s="21">
-        <v>456</v>
+        <v>237</v>
       </c>
       <c r="F150" s="10">
         <f t="shared" si="3"/>
-        <v>456</v>
+        <v>237</v>
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B151" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C151" t="s">
         <v>57</v>
@@ -7150,20 +7177,20 @@
         <v>1</v>
       </c>
       <c r="E151" s="21">
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="F151" s="10">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B152" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C152" t="s">
         <v>57</v>
@@ -7180,13 +7207,35 @@
       </c>
       <c r="G152" s="4"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>381</v>
+      </c>
+      <c r="B153" t="s">
+        <v>382</v>
+      </c>
+      <c r="C153" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" s="21">
+        <v>237</v>
+      </c>
+      <c r="F153" s="10">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F155" s="10">
-        <f>SUM(F2:F152)</f>
-        <v>39697.606999999975</v>
+      <c r="F156" s="10">
+        <f>SUM(F2:F153)</f>
+        <v>43771.606999999982</v>
       </c>
     </row>
   </sheetData>
@@ -7203,22 +7252,22 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>445</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7241,7 +7290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -7261,14 +7310,14 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -7289,7 +7338,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -7310,14 +7359,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -7338,7 +7387,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -7359,7 +7408,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7380,7 +7429,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>304</v>
       </c>
@@ -7401,14 +7450,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -7429,7 +7478,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>309</v>
       </c>
@@ -7450,7 +7499,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -7471,14 +7520,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>314</v>
       </c>
@@ -7499,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -7520,7 +7569,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -7541,14 +7590,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -7569,7 +7618,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>450</v>
       </c>
@@ -7591,14 +7640,14 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -7619,7 +7668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -7640,7 +7689,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -7658,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -7679,7 +7728,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -7700,7 +7749,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>439</v>
       </c>
@@ -7721,7 +7770,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -7742,7 +7791,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -7764,7 +7813,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -7785,7 +7834,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>336</v>
       </c>
@@ -7806,7 +7855,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>338</v>
       </c>
@@ -7827,7 +7876,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>340</v>
       </c>
@@ -7848,7 +7897,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>514</v>
       </c>
@@ -7870,7 +7919,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>511</v>
       </c>
@@ -7892,7 +7941,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>510</v>
       </c>
@@ -7927,22 +7976,22 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>446</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7965,7 +8014,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -7987,7 +8036,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -8008,7 +8057,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -8029,7 +8078,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -8050,7 +8099,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -8071,7 +8120,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -8093,7 +8142,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>232</v>
       </c>
@@ -8114,7 +8163,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -8135,7 +8184,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>356</v>
       </c>
@@ -8169,21 +8218,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="101.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8200,14 +8249,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>383</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>384</v>
       </c>
@@ -8228,7 +8277,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>386</v>
       </c>
@@ -8250,7 +8299,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>387</v>
       </c>
@@ -8271,7 +8320,7 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>389</v>
       </c>
@@ -8292,7 +8341,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>391</v>
       </c>
@@ -8313,7 +8362,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>393</v>
       </c>
@@ -8334,7 +8383,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>396</v>
       </c>
@@ -8355,21 +8404,21 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>398</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>399</v>
       </c>
@@ -8390,7 +8439,7 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>401</v>
       </c>
@@ -8411,7 +8460,7 @@
         <v>468.18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>403</v>
       </c>
@@ -8432,7 +8481,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -8455,11 +8504,11 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E17" s="17"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>407</v>
       </c>
@@ -8467,7 +8516,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -8488,7 +8537,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>495</v>
       </c>
@@ -8509,7 +8558,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -8530,19 +8579,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E22" s="17"/>
       <c r="F22" s="14"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>414</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>415</v>
       </c>
@@ -8553,10 +8602,10 @@
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>171</v>
       </c>
@@ -8565,19 +8614,19 @@
         <v>8295.8799999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8589,22 +8638,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8621,14 +8670,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -8649,18 +8698,18 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -8678,7 +8727,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>458</v>
       </c>
@@ -8696,7 +8745,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>459</v>
       </c>
@@ -8713,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>460</v>
       </c>
@@ -8730,7 +8779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>461</v>
       </c>
@@ -8747,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>462</v>
       </c>
@@ -8764,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -8781,7 +8830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>464</v>
       </c>
@@ -8798,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>466</v>
       </c>
@@ -8815,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -8832,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -8849,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>469</v>
       </c>
@@ -8866,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>470</v>
       </c>
@@ -8883,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>465</v>
       </c>
@@ -8900,7 +8949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -8921,12 +8970,12 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>471</v>
       </c>
@@ -8943,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>477</v>
       </c>
@@ -8960,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>472</v>
       </c>
@@ -8977,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>473</v>
       </c>
@@ -8994,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>474</v>
       </c>
@@ -9011,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>475</v>
       </c>
@@ -9028,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>476</v>
       </c>
@@ -9045,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>465</v>
       </c>
@@ -9062,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -9083,12 +9132,12 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>478</v>
       </c>
@@ -9105,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>479</v>
       </c>
@@ -9122,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>480</v>
       </c>
@@ -9139,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -9156,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>482</v>
       </c>
@@ -9173,7 +9222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>483</v>
       </c>
@@ -9191,7 +9240,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>465</v>
       </c>
@@ -9208,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>418</v>
       </c>
@@ -9229,14 +9278,14 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>455</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>484</v>
       </c>
@@ -9254,7 +9303,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>485</v>
       </c>
@@ -9272,7 +9321,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>486</v>
       </c>
@@ -9290,7 +9339,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>487</v>
       </c>
@@ -9308,7 +9357,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>488</v>
       </c>
@@ -9326,12 +9375,12 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>489</v>
       </c>
@@ -9348,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>490</v>
       </c>
@@ -9365,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>491</v>
       </c>
@@ -9382,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>492</v>
       </c>
@@ -9400,7 +9449,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>493</v>
       </c>
@@ -9418,18 +9467,18 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>420</v>
       </c>
@@ -9450,7 +9499,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>423</v>
       </c>
@@ -9471,7 +9520,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>425</v>
       </c>
@@ -9492,7 +9541,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>434</v>
       </c>
@@ -9502,7 +9551,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>451</v>
       </c>
@@ -9512,18 +9561,18 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>428</v>
       </c>
@@ -9544,7 +9593,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>430</v>
       </c>
@@ -9565,7 +9614,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>431</v>
       </c>
@@ -9586,7 +9635,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>432</v>
       </c>
@@ -9607,7 +9656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>433</v>
       </c>
@@ -9628,7 +9677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>171</v>
       </c>
@@ -9652,18 +9701,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -9686,7 +9735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -9694,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -9702,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>437</v>
       </c>
@@ -9710,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>438</v>
       </c>

--- a/LifeHack-Parts.xlsx
+++ b/LifeHack-Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D815F-971C-4A5E-8866-28A6C0A04AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190AC6BE-5FCC-4B7F-A88C-02E1A9D7DC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9400" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excitation Module" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Image Autofocus" sheetId="8" r:id="rId5"/>
     <sheet name="Other Hardware" sheetId="6" r:id="rId6"/>
     <sheet name="Incubator box" sheetId="4" r:id="rId7"/>
-    <sheet name="Useful Extras" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="521">
   <si>
     <t>Parts List</t>
   </si>
@@ -1343,18 +1342,6 @@
   </si>
   <si>
     <t>Neoprene</t>
-  </si>
-  <si>
-    <t>Alignment laser</t>
-  </si>
-  <si>
-    <t>Drill Driver</t>
-  </si>
-  <si>
-    <t>Tap set</t>
-  </si>
-  <si>
-    <t>File set</t>
   </si>
   <si>
     <t>Push Button</t>
@@ -2074,25 +2061,25 @@
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2097,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2132,11 +2119,11 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2144,7 +2131,7 @@
       <c r="F5" s="3"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2153,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2175,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2197,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2232,7 +2219,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2254,7 +2241,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2277,12 +2264,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="14"/>
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2291,7 +2278,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2300,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2322,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2344,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2379,11 +2366,11 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18" s="14"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2391,7 +2378,7 @@
       <c r="F19" s="14"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2413,7 +2400,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2435,7 +2422,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2457,7 +2444,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2479,7 +2466,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2501,15 +2488,15 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -2517,7 +2504,7 @@
       <c r="F27" s="14"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2526,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2563,7 +2550,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2585,7 +2572,7 @@
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2607,7 +2594,7 @@
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2629,21 +2616,21 @@
       </c>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2664,7 +2651,7 @@
         <v>363.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2685,7 +2672,7 @@
         <v>451.49</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -2706,7 +2693,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2727,7 +2714,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -2748,31 +2735,31 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="14"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" s="14"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="4"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2793,7 +2780,7 @@
         <v>775.9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2814,7 +2801,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2835,7 +2822,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2856,7 +2843,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2877,11 +2864,11 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2889,12 +2876,12 @@
       <c r="E51" s="6"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>11</v>
@@ -2910,12 +2897,12 @@
         <v>45.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>11</v>
@@ -2931,9 +2918,9 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>243</v>
@@ -2952,12 +2939,12 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>11</v>
@@ -2973,12 +2960,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>11</v>
@@ -2994,7 +2981,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -3002,14 +2989,14 @@
       <c r="E57" s="6"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>77</v>
       </c>
@@ -3030,17 +3017,17 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="4"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3061,7 +3048,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -3082,7 +3069,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -3103,7 +3090,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -3124,17 +3111,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3155,7 +3142,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3176,7 +3163,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3198,19 +3185,19 @@
       </c>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3218,7 +3205,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3231,7 +3218,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3239,7 +3226,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3252,7 +3239,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3273,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -3294,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -3315,11 +3302,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>99</v>
       </c>
@@ -3327,7 +3314,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3349,7 +3336,7 @@
       </c>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3371,7 +3358,7 @@
       </c>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -3392,7 +3379,7 @@
         <v>15717.75</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -3413,7 +3400,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
@@ -3434,18 +3421,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3466,7 +3453,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -3487,7 +3474,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>115</v>
       </c>
@@ -3508,7 +3495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>117</v>
       </c>
@@ -3529,29 +3516,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="E91" s="6"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="E92" s="6"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>119</v>
       </c>
@@ -3574,13 +3561,13 @@
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>2</v>
@@ -3601,12 +3588,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -3627,7 +3614,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3648,17 +3635,17 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -3679,7 +3666,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -3700,7 +3687,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>129</v>
       </c>
@@ -3721,7 +3708,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>131</v>
       </c>
@@ -3742,7 +3729,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -3763,7 +3750,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -3784,7 +3771,7 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
@@ -3805,7 +3792,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -3826,7 +3813,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>141</v>
       </c>
@@ -3847,7 +3834,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -3868,15 +3855,15 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D17" s="6">
         <v>19.309999999999999</v>
@@ -3889,13 +3876,13 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
@@ -3916,7 +3903,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
@@ -3937,7 +3924,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>127</v>
       </c>
@@ -3958,7 +3945,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -3979,7 +3966,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>133</v>
       </c>
@@ -4003,7 +3990,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -4027,7 +4014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -4048,7 +4035,7 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>153</v>
       </c>
@@ -4069,7 +4056,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
@@ -4090,15 +4077,15 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D29" s="6">
         <v>3.86</v>
@@ -4114,13 +4101,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>158</v>
       </c>
@@ -4141,7 +4128,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>160</v>
       </c>
@@ -4162,7 +4149,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>127</v>
       </c>
@@ -4183,7 +4170,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>150</v>
       </c>
@@ -4204,7 +4191,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>162</v>
       </c>
@@ -4228,7 +4215,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>135</v>
       </c>
@@ -4252,7 +4239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>139</v>
       </c>
@@ -4273,15 +4260,15 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D39" s="6">
         <v>3.86</v>
@@ -4297,17 +4284,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>163</v>
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>164</v>
       </c>
@@ -4328,7 +4315,7 @@
         <v>81.97</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>127</v>
       </c>
@@ -4349,7 +4336,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>150</v>
       </c>
@@ -4370,7 +4357,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>133</v>
       </c>
@@ -4394,7 +4381,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -4418,7 +4405,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>139</v>
       </c>
@@ -4439,7 +4426,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>166</v>
       </c>
@@ -4460,15 +4447,15 @@
         <v>117.41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D49" s="6">
         <v>3.86</v>
@@ -4481,13 +4468,13 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>169</v>
       </c>
@@ -4508,15 +4495,15 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="D53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>171</v>
       </c>
@@ -4534,21 +4521,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -4571,7 +4558,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -4592,19 +4579,19 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4612,7 +4599,7 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4623,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -4631,7 +4618,7 @@
         <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4642,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -4650,7 +4637,7 @@
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4661,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -4669,7 +4656,7 @@
         <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4680,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -4688,7 +4675,7 @@
         <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4699,18 +4686,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -4718,7 +4705,7 @@
         <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4730,7 +4717,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -4738,7 +4725,7 @@
         <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4750,15 +4737,15 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4771,11 +4758,11 @@
         <v>4074</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -4783,7 +4770,7 @@
         <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -4796,13 +4783,13 @@
         <v>2090</v>
       </c>
       <c r="G15" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -4810,7 +4797,7 @@
         <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4823,13 +4810,13 @@
         <v>1150</v>
       </c>
       <c r="G16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4837,7 +4824,7 @@
         <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -4851,15 +4838,15 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -4874,7 +4861,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -4895,18 +4882,18 @@
         <v>12445.6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -4927,7 +4914,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -4949,7 +4936,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -4970,7 +4957,7 @@
         <v>156.05000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
@@ -4991,7 +4978,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -5012,7 +4999,7 @@
         <v>372.53</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -5033,14 +5020,14 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -5061,7 +5048,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -5082,14 +5069,14 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>215</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -5110,7 +5097,7 @@
         <v>86.84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>216</v>
       </c>
@@ -5131,19 +5118,19 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -5160,7 +5147,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>220</v>
       </c>
@@ -5181,14 +5168,14 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>222</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -5209,7 +5196,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -5230,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>227</v>
       </c>
@@ -5246,14 +5233,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -5274,7 +5261,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>230</v>
       </c>
@@ -5295,7 +5282,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -5316,14 +5303,14 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>234</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>235</v>
       </c>
@@ -5344,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>236</v>
       </c>
@@ -5365,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>237</v>
       </c>
@@ -5386,7 +5373,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -5396,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -5417,7 +5404,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>242</v>
       </c>
@@ -5438,25 +5425,25 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>246</v>
       </c>
@@ -5477,7 +5464,7 @@
         <v>2606.0100000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -5498,14 +5485,14 @@
         <v>149.33000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -5526,7 +5513,7 @@
         <v>183.01</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>253</v>
       </c>
@@ -5547,14 +5534,14 @@
         <v>148.91999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>256</v>
       </c>
@@ -5575,7 +5562,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -5596,14 +5583,14 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>259</v>
       </c>
@@ -5624,7 +5611,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -5645,12 +5632,12 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>219</v>
       </c>
       <c r="B66" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -5667,12 +5654,12 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -5689,7 +5676,7 @@
       </c>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -5711,7 +5698,7 @@
       </c>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>265</v>
       </c>
@@ -5733,14 +5720,14 @@
       </c>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>267</v>
       </c>
@@ -5762,7 +5749,7 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>269</v>
       </c>
@@ -5783,7 +5770,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -5804,7 +5791,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>273</v>
       </c>
@@ -5814,7 +5801,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>271</v>
       </c>
@@ -5835,7 +5822,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>275</v>
       </c>
@@ -5856,7 +5843,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -5877,7 +5864,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>279</v>
       </c>
@@ -5885,7 +5872,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>280</v>
       </c>
@@ -5906,7 +5893,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>282</v>
       </c>
@@ -5927,7 +5914,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>284</v>
       </c>
@@ -5948,7 +5935,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>285</v>
       </c>
@@ -5969,7 +5956,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>287</v>
       </c>
@@ -5990,14 +5977,14 @@
         <v>131.29</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>289</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>290</v>
       </c>
@@ -6016,10 +6003,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>292</v>
       </c>
@@ -6041,7 +6028,7 @@
       </c>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>294</v>
       </c>
@@ -6062,18 +6049,18 @@
         <v>92.92</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -6081,7 +6068,7 @@
         <v>297</v>
       </c>
       <c r="C90" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -6093,14 +6080,14 @@
       </c>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>299</v>
       </c>
@@ -6121,7 +6108,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>301</v>
       </c>
@@ -6142,14 +6129,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -6170,7 +6157,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>259</v>
       </c>
@@ -6191,7 +6178,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>303</v>
       </c>
@@ -6212,7 +6199,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>304</v>
       </c>
@@ -6233,14 +6220,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>307</v>
       </c>
@@ -6261,7 +6248,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>309</v>
       </c>
@@ -6282,7 +6269,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>311</v>
       </c>
@@ -6303,14 +6290,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>314</v>
       </c>
@@ -6331,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>315</v>
       </c>
@@ -6352,7 +6339,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>318</v>
       </c>
@@ -6373,14 +6360,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -6401,12 +6388,12 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B109" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C109" t="s">
         <v>317</v>
@@ -6423,14 +6410,14 @@
       </c>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>323</v>
       </c>
@@ -6451,7 +6438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -6472,7 +6459,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>327</v>
       </c>
@@ -6493,7 +6480,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>329</v>
       </c>
@@ -6514,12 +6501,12 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B115" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C115" t="s">
         <v>317</v>
@@ -6535,15 +6522,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B116" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C116" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -6556,7 +6543,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>331</v>
       </c>
@@ -6577,7 +6564,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>333</v>
       </c>
@@ -6599,7 +6586,7 @@
       </c>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>334</v>
       </c>
@@ -6620,7 +6607,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>336</v>
       </c>
@@ -6641,7 +6628,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>338</v>
       </c>
@@ -6662,7 +6649,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>340</v>
       </c>
@@ -6683,12 +6670,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B123" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C123" t="s">
         <v>317</v>
@@ -6705,12 +6692,12 @@
       </c>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B124" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C124" t="s">
         <v>317</v>
@@ -6727,12 +6714,12 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B125" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C125" t="s">
         <v>317</v>
@@ -6749,25 +6736,25 @@
       </c>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>342</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>343</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>344</v>
       </c>
@@ -6789,7 +6776,7 @@
       </c>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>347</v>
       </c>
@@ -6810,7 +6797,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>349</v>
       </c>
@@ -6831,7 +6818,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>351</v>
       </c>
@@ -6852,7 +6839,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>261</v>
       </c>
@@ -6873,12 +6860,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>353</v>
       </c>
       <c r="B134" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -6895,7 +6882,7 @@
       </c>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>232</v>
       </c>
@@ -6916,7 +6903,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>354</v>
       </c>
@@ -6937,7 +6924,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>356</v>
       </c>
@@ -6958,18 +6945,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>357</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>358</v>
       </c>
@@ -6977,7 +6964,7 @@
         <v>359</v>
       </c>
       <c r="C140" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -6986,7 +6973,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>360</v>
       </c>
@@ -6994,7 +6981,7 @@
         <v>361</v>
       </c>
       <c r="C141" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -7003,7 +6990,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>362</v>
       </c>
@@ -7011,7 +6998,7 @@
         <v>363</v>
       </c>
       <c r="C142" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -7020,18 +7007,18 @@
       <c r="F142" s="10"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>364</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>365</v>
       </c>
@@ -7053,7 +7040,7 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>367</v>
       </c>
@@ -7075,7 +7062,7 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>369</v>
       </c>
@@ -7097,7 +7084,7 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>371</v>
       </c>
@@ -7119,7 +7106,7 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -7141,7 +7128,7 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>375</v>
       </c>
@@ -7163,7 +7150,7 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>377</v>
       </c>
@@ -7185,7 +7172,7 @@
       </c>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>379</v>
       </c>
@@ -7207,7 +7194,7 @@
       </c>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>381</v>
       </c>
@@ -7229,7 +7216,7 @@
       </c>
       <c r="G153" s="4"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>171</v>
       </c>
@@ -7252,22 +7239,22 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -7290,7 +7277,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>296</v>
       </c>
@@ -7298,7 +7285,7 @@
         <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7310,14 +7297,14 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -7338,7 +7325,7 @@
         <v>161.51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -7359,14 +7346,14 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -7387,7 +7374,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -7408,7 +7395,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7429,7 +7416,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>304</v>
       </c>
@@ -7450,14 +7437,14 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -7478,7 +7465,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>309</v>
       </c>
@@ -7499,7 +7486,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -7520,14 +7507,14 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>314</v>
       </c>
@@ -7548,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -7569,7 +7556,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -7590,14 +7577,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -7618,12 +7605,12 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C22" t="s">
         <v>317</v>
@@ -7640,14 +7627,14 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>322</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -7668,7 +7655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -7689,7 +7676,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -7707,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -7728,12 +7715,12 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B28" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C28" t="s">
         <v>317</v>
@@ -7749,15 +7736,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7770,7 +7757,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -7791,7 +7778,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>333</v>
       </c>
@@ -7813,7 +7800,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -7834,7 +7821,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>336</v>
       </c>
@@ -7855,7 +7842,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>338</v>
       </c>
@@ -7876,7 +7863,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>340</v>
       </c>
@@ -7897,12 +7884,12 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C36" t="s">
         <v>317</v>
@@ -7919,12 +7906,12 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B37" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C37" t="s">
         <v>317</v>
@@ -7941,12 +7928,12 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B38" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C38" t="s">
         <v>317</v>
@@ -7976,22 +7963,22 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -8014,7 +8001,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -8036,7 +8023,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -8057,7 +8044,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -8078,7 +8065,7 @@
         <v>77.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -8099,7 +8086,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -8120,12 +8107,12 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -8142,7 +8129,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>232</v>
       </c>
@@ -8163,7 +8150,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -8184,7 +8171,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>356</v>
       </c>
@@ -8218,21 +8205,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -8249,14 +8236,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>383</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>384</v>
       </c>
@@ -8277,12 +8264,12 @@
         <v>949</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C5" t="s">
         <v>317</v>
@@ -8299,7 +8286,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>387</v>
       </c>
@@ -8320,7 +8307,7 @@
         <v>45.660000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>389</v>
       </c>
@@ -8341,7 +8328,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>391</v>
       </c>
@@ -8362,7 +8349,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>393</v>
       </c>
@@ -8383,7 +8370,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>396</v>
       </c>
@@ -8404,21 +8391,21 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>398</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>399</v>
       </c>
@@ -8439,7 +8426,7 @@
         <v>2812.14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>401</v>
       </c>
@@ -8460,7 +8447,7 @@
         <v>468.18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>403</v>
       </c>
@@ -8481,7 +8468,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -8504,11 +8491,11 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>407</v>
       </c>
@@ -8516,7 +8503,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -8537,9 +8524,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>411</v>
@@ -8558,7 +8545,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -8579,19 +8566,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="17"/>
       <c r="F22" s="14"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>414</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>415</v>
       </c>
@@ -8602,10 +8589,10 @@
       <c r="F24" s="14"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>171</v>
       </c>
@@ -8614,19 +8601,19 @@
         <v>8295.8799999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
@@ -8638,22 +8625,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -8670,14 +8657,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -8698,20 +8685,20 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
@@ -8727,9 +8714,9 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>93</v>
@@ -8745,9 +8732,9 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
@@ -8762,9 +8749,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
@@ -8779,9 +8766,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -8796,9 +8783,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
@@ -8813,9 +8800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -8830,95 +8817,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>464</v>
       </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>466</v>
       </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>470</v>
-      </c>
       <c r="B18" t="s">
         <v>93</v>
       </c>
@@ -8932,9 +8919,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -8949,7 +8936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>418</v>
       </c>
@@ -8970,117 +8957,117 @@
         <v>57.900000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>471</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>477</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>472</v>
       </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>473</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>474</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>475</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>476</v>
-      </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
@@ -9094,9 +9081,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -9111,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>418</v>
       </c>
@@ -9132,82 +9119,82 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>474</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>475</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+     